--- a/xlsx/CaVaTeCo/form_h_assinantes_at_forms.xlsx
+++ b/xlsx/CaVaTeCo/form_h_assinantes_at_forms.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Terra_Share\projects\CaVaTeCo_Collect\projects\A_CaVaTeCo_projects\odk_forms_blue_future\xlsx\CaVaTeCo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Terra_Share\projects\CaVaTeCo_Collect\projects\A_CaVaTeCo_projects\odk_forms_wcs_nampula\xlsx\CaVaTeCo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6208D4B5-D75D-475E-B7D5-137FE037C5A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5FBCBDF-EBFF-4666-A373-831CBDED4B66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17496" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1217" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1223" uniqueCount="260">
   <si>
     <t>type</t>
   </si>
@@ -801,15 +801,37 @@
   </si>
   <si>
     <t>terrafirma_wcs.jpg</t>
+  </si>
+  <si>
+    <t>cindau</t>
+  </si>
+  <si>
+    <t>${language}='cindau'</t>
+  </si>
+  <si>
+    <t>consent_cindau.mp3</t>
+  </si>
+  <si>
+    <t>consent_chuabo.mp3</t>
+  </si>
+  <si>
+    <t>consent_cisena.mp3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="33" x14ac:knownFonts="1">
+  <fonts count="34" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1074,401 +1096,403 @@
   </borders>
   <cellStyleXfs count="247">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="233" applyFont="1"/>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="242" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="233" applyFont="1"/>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="242" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="242" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="242" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="246"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="246" applyFill="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="246" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="246"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="246" applyFill="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="246" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="246" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="246" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="246" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="246" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="30" fillId="0" borderId="0" xfId="246" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="31" fillId="0" borderId="0" xfId="246" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="245" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="245" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="246" applyFont="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="246" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
+      <alignment horizontal="right" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="247">
@@ -2055,39 +2079,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S79"/>
+  <dimension ref="A1:S80"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C23" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="E23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H45" sqref="H45"/>
+      <selection pane="bottomRight" activeCell="P32" sqref="P32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.69921875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="20.19921875" style="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="66.59765625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="38.69921875" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.75" style="3" customWidth="1"/>
+    <col min="2" max="2" width="20.25" style="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="66.625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="38.75" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="62.59765625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="62.625" style="3" customWidth="1"/>
     <col min="7" max="7" width="21.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.59765625" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.3984375" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.59765625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.625" style="3" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.8984375" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.8984375" style="3" customWidth="1"/>
-    <col min="14" max="14" width="9.19921875" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.875" style="3" customWidth="1"/>
+    <col min="14" max="14" width="9.25" style="3" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="11.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="19.8984375" style="3" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.09765625" style="3" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="20.19921875" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="20.25" style="3" bestFit="1" customWidth="1"/>
     <col min="19" max="16384" width="11" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="9" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" s="9" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -2146,7 +2170,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="3" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="23" t="s">
         <v>16</v>
       </c>
@@ -2154,7 +2178,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="23" t="s">
         <v>90</v>
       </c>
@@ -2165,7 +2189,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="5" spans="1:19" s="39" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="39" t="s">
         <v>83</v>
       </c>
@@ -2176,7 +2200,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="6" spans="1:19" s="50" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" s="50" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="50" t="s">
         <v>83</v>
       </c>
@@ -2187,7 +2211,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="7" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="23" t="s">
         <v>83</v>
       </c>
@@ -2198,7 +2222,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="8" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>22</v>
       </c>
@@ -2210,7 +2234,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="23" t="s">
         <v>39</v>
       </c>
@@ -2222,36 +2246,35 @@
       </c>
       <c r="P9" s="39"/>
     </row>
-    <row r="10" spans="1:19" s="23" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="23" t="s">
         <v>39</v>
       </c>
       <c r="B10" s="29" t="s">
         <v>93</v>
       </c>
-      <c r="C10" s="67" t="s">
+      <c r="C10" s="52" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="11" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B11" s="29"/>
-      <c r="C11" s="68"/>
-    </row>
-    <row r="12" spans="1:19" s="23" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:19" s="23" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="31" t="s">
         <v>39</v>
       </c>
       <c r="B12" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="67" t="s">
+      <c r="C12" s="52" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="13" spans="1:19" s="59" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="59" t="s">
         <v>26</v>
       </c>
@@ -2265,7 +2288,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:19" s="59" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" s="59" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="59" t="s">
         <v>238</v>
       </c>
@@ -2287,7 +2310,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="15" spans="1:19" s="59" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="59" t="s">
         <v>83</v>
       </c>
@@ -2298,7 +2321,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="16" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="23" t="s">
         <v>17</v>
       </c>
@@ -2318,7 +2341,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:19" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
         <v>76</v>
       </c>
@@ -2335,7 +2358,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:19" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
         <v>78</v>
       </c>
@@ -2355,7 +2378,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:19" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="32" t="s">
         <v>136</v>
       </c>
@@ -2375,7 +2398,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:19" s="39" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="39" t="s">
         <v>166</v>
       </c>
@@ -2392,7 +2415,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="21" spans="1:19" s="64" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="59" t="s">
         <v>83</v>
       </c>
@@ -2403,7 +2426,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="22" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
         <v>36</v>
       </c>
@@ -2423,7 +2446,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>29</v>
       </c>
@@ -2437,7 +2460,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="24" spans="1:19" s="50" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" s="50" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="53" t="s">
         <v>39</v>
       </c>
@@ -2448,7 +2471,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="25" spans="1:19" s="50" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="50" t="s">
         <v>201</v>
       </c>
@@ -2462,7 +2485,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="26" spans="1:19" s="50" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="53" t="s">
         <v>26</v>
       </c>
@@ -2484,7 +2507,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:19" s="50" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="53" t="s">
         <v>26</v>
       </c>
@@ -2506,7 +2529,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:19" s="50" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="53" t="s">
         <v>26</v>
       </c>
@@ -2528,7 +2551,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="1:19" s="50" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="53" t="s">
         <v>26</v>
       </c>
@@ -2550,7 +2573,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="30" spans="1:19" s="50" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="53" t="s">
         <v>26</v>
       </c>
@@ -2563,8 +2586,8 @@
       <c r="G30" s="53" t="s">
         <v>218</v>
       </c>
-      <c r="P30" s="53" t="s">
-        <v>213</v>
+      <c r="P30" s="69" t="s">
+        <v>258</v>
       </c>
       <c r="Q30" s="53"/>
       <c r="R30" s="53"/>
@@ -2572,7 +2595,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:19" s="50" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="53" t="s">
         <v>26</v>
       </c>
@@ -2585,8 +2608,8 @@
       <c r="G31" s="53" t="s">
         <v>220</v>
       </c>
-      <c r="P31" s="53" t="s">
-        <v>213</v>
+      <c r="P31" s="69" t="s">
+        <v>259</v>
       </c>
       <c r="Q31" s="53"/>
       <c r="R31" s="53"/>
@@ -2594,7 +2617,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="1:19" s="50" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="53" t="s">
         <v>26</v>
       </c>
@@ -2616,7 +2639,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="33" spans="1:19" s="50" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:19" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="53" t="s">
         <v>26</v>
       </c>
@@ -2638,7 +2661,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="34" spans="1:19" s="50" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:19" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="53" t="s">
         <v>26</v>
       </c>
@@ -2660,7 +2683,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:19" s="50" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:19" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="53" t="s">
         <v>26</v>
       </c>
@@ -2682,7 +2705,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="36" spans="1:19" s="50" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:19" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="53" t="s">
         <v>26</v>
       </c>
@@ -2704,7 +2727,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="37" spans="1:19" s="50" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:19" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="53" t="s">
         <v>26</v>
       </c>
@@ -2726,614 +2749,636 @@
         <v>21</v>
       </c>
     </row>
-    <row r="38" spans="1:19" s="50" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="50" t="s">
+    <row r="38" spans="1:19" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="B38" s="68" t="s">
+        <v>255</v>
+      </c>
+      <c r="C38" s="53" t="s">
+        <v>205</v>
+      </c>
+      <c r="G38" s="69" t="s">
+        <v>256</v>
+      </c>
+      <c r="P38" s="69" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q38" s="53"/>
+      <c r="R38" s="53"/>
+      <c r="S38" s="53" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="B38" s="54" t="s">
+      <c r="B39" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="C38" s="50" t="s">
+      <c r="C39" s="50" t="s">
         <v>233</v>
       </c>
-      <c r="J38" s="50" t="s">
+      <c r="J39" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="L38" s="50" t="s">
+      <c r="L39" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="M38" s="55" t="s">
+      <c r="M39" s="55" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="39" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="2" t="s">
+    <row r="40" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B39" s="20" t="s">
+      <c r="B40" s="20" t="s">
         <v>156</v>
       </c>
-      <c r="C39" s="12" t="s">
+      <c r="C40" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="L39" s="12" t="s">
+      <c r="L40" s="12" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="40" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B40" s="29" t="s">
-        <v>133</v>
-      </c>
-      <c r="C40" s="23" t="s">
-        <v>107</v>
-      </c>
-      <c r="J40" s="12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="41" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="12" t="s">
         <v>26</v>
       </c>
       <c r="B41" s="29" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C41" s="23" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J41" s="12" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="42" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="39" t="s">
-        <v>160</v>
+    <row r="42" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="12" t="s">
+        <v>26</v>
       </c>
       <c r="B42" s="29" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C42" s="23" t="s">
-        <v>109</v>
-      </c>
-      <c r="D42" s="39" t="s">
-        <v>159</v>
+        <v>108</v>
       </c>
       <c r="J42" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="L42" s="12" t="s">
+    </row>
+    <row r="43" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="39" t="s">
+        <v>160</v>
+      </c>
+      <c r="B43" s="29" t="s">
+        <v>135</v>
+      </c>
+      <c r="C43" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="D43" s="39" t="s">
+        <v>159</v>
+      </c>
+      <c r="J43" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="L43" s="12" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="43" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="2" t="s">
+    <row r="44" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B43" s="29"/>
-    </row>
-    <row r="44" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="39" t="s">
+      <c r="B44" s="29"/>
+    </row>
+    <row r="45" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="39" t="s">
         <v>161</v>
       </c>
-      <c r="B44" s="29" t="s">
+      <c r="B45" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="C44" s="23" t="s">
+      <c r="C45" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="D44" s="39" t="s">
+      <c r="D45" s="39" t="s">
         <v>159</v>
       </c>
-      <c r="J44" s="23" t="s">
+      <c r="J45" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="L44" s="23" t="s">
+      <c r="L45" s="23" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="45" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="23" t="s">
+    <row r="46" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="B45" s="29" t="s">
+      <c r="B46" s="29" t="s">
         <v>101</v>
       </c>
-      <c r="C45" s="23" t="s">
+      <c r="C46" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="G45" s="23" t="s">
+      <c r="G46" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="H45" s="23" t="s">
+      <c r="H46" s="23" t="s">
         <v>245</v>
       </c>
-      <c r="L45" s="23" t="s">
+      <c r="L46" s="23" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="46" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="39" t="s">
+    <row r="47" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="39" t="s">
         <v>162</v>
       </c>
-      <c r="B46" s="29" t="s">
+      <c r="B47" s="29" t="s">
         <v>104</v>
       </c>
-      <c r="C46" s="23" t="s">
+      <c r="C47" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="D46" s="39" t="s">
+      <c r="D47" s="39" t="s">
         <v>159</v>
       </c>
-      <c r="G46" s="23" t="s">
+      <c r="G47" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="L46" s="23" t="s">
+      <c r="L47" s="23" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="2" t="s">
+    <row r="48" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B47" s="20" t="s">
+      <c r="B48" s="20" t="s">
         <v>157</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="C48" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="L47" s="23" t="s">
+      <c r="L48" s="23" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="48" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="39" t="s">
+    <row r="49" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="39" t="s">
         <v>163</v>
       </c>
-      <c r="B48" s="29" t="s">
+      <c r="B49" s="29" t="s">
         <v>110</v>
       </c>
-      <c r="C48" s="23" t="s">
+      <c r="C49" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="D48" s="39" t="s">
+      <c r="D49" s="39" t="s">
         <v>159</v>
       </c>
-      <c r="J48" s="23" t="s">
+      <c r="J49" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="L48" s="23" t="s">
+      <c r="L49" s="23" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="49" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="B49" s="29" t="s">
-        <v>111</v>
-      </c>
-      <c r="C49" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="H49" s="23" t="s">
-        <v>112</v>
-      </c>
-      <c r="I49" s="23" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="23" t="s">
         <v>26</v>
       </c>
       <c r="B50" s="29" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C50" s="23" t="s">
-        <v>115</v>
+        <v>34</v>
       </c>
       <c r="H50" s="23" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="I50" s="23" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="51" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="23" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="B51" s="29" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C51" s="23" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H51" s="23" t="s">
-        <v>245</v>
-      </c>
-      <c r="L51" s="23" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.3">
+        <v>116</v>
+      </c>
+      <c r="I51" s="23" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="23" t="s">
         <v>17</v>
       </c>
       <c r="B52" s="29" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C52" s="23" t="s">
-        <v>120</v>
+        <v>118</v>
+      </c>
+      <c r="H52" s="23" t="s">
+        <v>245</v>
       </c>
       <c r="L52" s="23" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="53" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="39" t="s">
+    <row r="53" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="B53" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="C53" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="L53" s="23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="39" t="s">
         <v>161</v>
       </c>
-      <c r="B53" s="29" t="s">
+      <c r="B54" s="29" t="s">
         <v>121</v>
       </c>
-      <c r="C53" s="23" t="s">
+      <c r="C54" s="23" t="s">
         <v>122</v>
       </c>
-      <c r="D53" s="39" t="s">
+      <c r="D54" s="39" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="54" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="2" t="s">
+    <row r="55" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B54" s="29"/>
-    </row>
-    <row r="55" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="B55" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="C55" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="J55" s="23" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B55" s="29"/>
+    </row>
+    <row r="56" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="23" t="s">
         <v>27</v>
       </c>
       <c r="B56" s="29" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C56" s="23" t="s">
-        <v>125</v>
+        <v>46</v>
       </c>
       <c r="J56" s="23" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="57" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="23" t="s">
         <v>27</v>
       </c>
       <c r="B57" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="C57" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="J57" s="23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B58" s="29" t="s">
         <v>126</v>
       </c>
-      <c r="C57" s="23" t="s">
+      <c r="C58" s="23" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="58" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="23" t="s">
+    <row r="59" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="B58" s="29" t="s">
+      <c r="B59" s="29" t="s">
         <v>128</v>
       </c>
-      <c r="C58" s="23" t="s">
+      <c r="C59" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="H58" s="23" t="s">
+      <c r="H59" s="23" t="s">
         <v>129</v>
       </c>
-      <c r="L58" s="23" t="s">
+      <c r="L59" s="23" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="59" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="2" t="s">
+    <row r="60" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B59" s="29"/>
-    </row>
-    <row r="60" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="12" t="s">
+      <c r="B60" s="29"/>
+    </row>
+    <row r="61" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="B60" s="35" t="s">
+      <c r="B61" s="35" t="s">
         <v>143</v>
       </c>
-      <c r="C60" s="34" t="s">
+      <c r="C61" s="34" t="s">
         <v>144</v>
       </c>
-      <c r="F60" s="34"/>
-      <c r="H60" s="34" t="s">
+      <c r="F61" s="34"/>
+      <c r="H61" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="J60" s="33" t="s">
+      <c r="J61" s="33" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="61" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="2" t="s">
+    <row r="62" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B61" s="20" t="s">
+      <c r="B62" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="C61" s="34" t="s">
+      <c r="C62" s="34" t="s">
         <v>141</v>
       </c>
-      <c r="E61" s="34" t="s">
+      <c r="E62" s="34" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="62" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="64" t="s">
+    <row r="63" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="64" t="s">
         <v>238</v>
       </c>
-      <c r="B62" s="69" t="s">
+      <c r="B63" s="67" t="s">
         <v>244</v>
       </c>
-      <c r="C62" s="39" t="s">
+      <c r="C63" s="39" t="s">
         <v>167</v>
       </c>
-      <c r="D62" s="39"/>
-      <c r="J62" s="23" t="s">
+      <c r="D63" s="39"/>
+      <c r="J63" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="L62" s="64" t="s">
+      <c r="L63" s="64" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="63" spans="1:14" s="59" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="59" t="s">
+    <row r="64" spans="1:14" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="59" t="s">
         <v>83</v>
       </c>
-      <c r="B63" s="69" t="s">
+      <c r="B64" s="67" t="s">
         <v>147</v>
       </c>
-      <c r="N63" s="63" t="s">
+      <c r="N64" s="63" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="64" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="2" t="s">
+    <row r="65" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B64" s="20" t="s">
+      <c r="B65" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="C64" s="2" t="s">
+      <c r="C65" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="L64" s="23" t="s">
+      <c r="L65" s="23" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="65" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="39" t="s">
+    <row r="66" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="39" t="s">
         <v>163</v>
       </c>
-      <c r="B65" s="29" t="s">
+      <c r="B66" s="29" t="s">
         <v>110</v>
       </c>
-      <c r="C65" s="23" t="s">
+      <c r="C66" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="D65" s="39" t="s">
+      <c r="D66" s="39" t="s">
         <v>159</v>
       </c>
-      <c r="J65" s="23" t="s">
+      <c r="J66" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="L65" s="23" t="s">
+      <c r="L66" s="23" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="66" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="B66" s="29" t="s">
-        <v>111</v>
-      </c>
-      <c r="C66" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="H66" s="23" t="s">
-        <v>112</v>
-      </c>
-      <c r="I66" s="23" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="23" t="s">
         <v>26</v>
       </c>
       <c r="B67" s="29" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C67" s="23" t="s">
-        <v>115</v>
+        <v>34</v>
       </c>
       <c r="H67" s="23" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="I67" s="23" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="68" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="23" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="B68" s="29" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C68" s="23" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H68" s="23" t="s">
-        <v>245</v>
-      </c>
-      <c r="L68" s="23" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.3">
+        <v>116</v>
+      </c>
+      <c r="I68" s="23" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="23" t="s">
         <v>17</v>
       </c>
       <c r="B69" s="29" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C69" s="23" t="s">
-        <v>120</v>
+        <v>118</v>
+      </c>
+      <c r="H69" s="23" t="s">
+        <v>245</v>
       </c>
       <c r="L69" s="23" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="70" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="39" t="s">
+    <row r="70" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="B70" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="C70" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="L70" s="23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="39" t="s">
         <v>161</v>
       </c>
-      <c r="B70" s="29" t="s">
+      <c r="B71" s="29" t="s">
         <v>121</v>
       </c>
-      <c r="C70" s="23" t="s">
+      <c r="C71" s="23" t="s">
         <v>122</v>
       </c>
-      <c r="D70" s="39" t="s">
+      <c r="D71" s="39" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="71" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="2" t="s">
+    <row r="72" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B71" s="29"/>
-    </row>
-    <row r="72" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="B72" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="C72" s="34" t="s">
-        <v>142</v>
-      </c>
-      <c r="J72" s="23" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B72" s="29"/>
+    </row>
+    <row r="73" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="23" t="s">
         <v>27</v>
       </c>
       <c r="B73" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="C73" s="23" t="s">
-        <v>131</v>
+        <v>123</v>
+      </c>
+      <c r="C73" s="34" t="s">
+        <v>142</v>
       </c>
       <c r="J73" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="L73" s="23" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="74" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="23" t="s">
         <v>27</v>
       </c>
       <c r="B74" s="29" t="s">
-        <v>124</v>
+        <v>32</v>
       </c>
       <c r="C74" s="23" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="J74" s="23" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="75" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="L74" s="23" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="23" t="s">
         <v>27</v>
       </c>
       <c r="B75" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="C75" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="J75" s="23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B76" s="29" t="s">
         <v>126</v>
       </c>
-      <c r="C75" s="23" t="s">
+      <c r="C76" s="23" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="76" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="23" t="s">
+    <row r="77" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="B76" s="29" t="s">
+      <c r="B77" s="29" t="s">
         <v>128</v>
       </c>
-      <c r="C76" s="23" t="s">
+      <c r="C77" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="H76" s="23" t="s">
+      <c r="H77" s="23" t="s">
         <v>129</v>
       </c>
-      <c r="L76" s="23" t="s">
+      <c r="L77" s="23" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="77" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="13" t="s">
+    <row r="78" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B77" s="21" t="s">
+      <c r="B78" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="C77" s="13" t="s">
+      <c r="C78" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="J77" s="12" t="s">
+      <c r="J78" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="K77" s="13"/>
-    </row>
-    <row r="78" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="2" t="s">
+      <c r="K78" s="13"/>
+    </row>
+    <row r="79" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B78" s="29"/>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A79" s="3" t="s">
+      <c r="B79" s="29"/>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A80" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B79" s="19" t="s">
+      <c r="B80" s="19" t="s">
         <v>25</v>
       </c>
     </row>
@@ -3354,15 +3399,15 @@
       <selection pane="bottomRight" activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.3984375" style="4" customWidth="1"/>
-    <col min="2" max="2" width="28.19921875" style="11" customWidth="1"/>
-    <col min="3" max="3" width="26.09765625" style="4" customWidth="1"/>
-    <col min="4" max="16384" width="10.8984375" style="4"/>
+    <col min="1" max="1" width="21.375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="28.25" style="11" customWidth="1"/>
+    <col min="3" max="3" width="26.125" style="4" customWidth="1"/>
+    <col min="4" max="16384" width="10.875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>15</v>
       </c>
@@ -3374,17 +3419,17 @@
       </c>
       <c r="D1" s="2"/>
     </row>
-    <row r="2" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="10"/>
       <c r="C2" s="2"/>
     </row>
-    <row r="3" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="24"/>
       <c r="B3" s="25"/>
       <c r="C3" s="24"/>
     </row>
-    <row r="4" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
         <v>54</v>
       </c>
@@ -3395,7 +3440,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
         <v>54</v>
       </c>
@@ -3406,7 +3451,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
         <v>54</v>
       </c>
@@ -3417,7 +3462,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
         <v>54</v>
       </c>
@@ -3430,7 +3475,7 @@
       <c r="D7" s="15"/>
       <c r="E7" s="15"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
         <v>54</v>
       </c>
@@ -3443,7 +3488,7 @@
       <c r="D8" s="15"/>
       <c r="E8" s="15"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
         <v>54</v>
       </c>
@@ -3456,7 +3501,7 @@
       <c r="D9" s="15"/>
       <c r="E9" s="15"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="26" t="s">
         <v>54</v>
       </c>
@@ -3469,7 +3514,7 @@
       <c r="D10" s="15"/>
       <c r="E10" s="15"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="26" t="s">
         <v>54</v>
       </c>
@@ -3482,7 +3527,7 @@
       <c r="D11" s="15"/>
       <c r="E11" s="15"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="26" t="s">
         <v>54</v>
       </c>
@@ -3495,7 +3540,7 @@
       <c r="D12" s="15"/>
       <c r="E12" s="15"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="26" t="s">
         <v>54</v>
       </c>
@@ -3506,7 +3551,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="36" t="s">
         <v>87</v>
       </c>
@@ -3517,27 +3562,27 @@
         <v>151</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="36"/>
       <c r="B16" s="38"/>
       <c r="C16" s="36"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="36"/>
       <c r="B17" s="37"/>
       <c r="C17" s="36"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="36"/>
       <c r="B18" s="37"/>
       <c r="C18" s="36"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="36"/>
       <c r="B19" s="38"/>
       <c r="C19" s="36"/>
     </row>
-    <row r="20" spans="1:3" s="65" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="65" t="s">
         <v>239</v>
       </c>
@@ -3563,16 +3608,16 @@
       <selection activeCell="E839" sqref="E839"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23" style="41" customWidth="1"/>
-    <col min="2" max="2" width="26.09765625" style="41" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.125" style="41" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="9" style="41"/>
-    <col min="6" max="6" width="34.8984375" style="41" customWidth="1"/>
+    <col min="6" max="6" width="34.875" style="41" customWidth="1"/>
     <col min="7" max="16384" width="9" style="41"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="41" t="s">
         <v>51</v>
       </c>
@@ -3595,1647 +3640,1647 @@
         <v>152</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="41" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="41" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="41" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="41" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="41" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="41" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="41" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="41" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="41" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="41" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="41" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="41" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="41" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="41" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="41" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="41" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="41" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="41" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="41" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="41" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="41" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="41" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="41" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="41" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="41" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="41" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="41" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="41" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="41" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="41" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="41" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="41" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="41" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="41" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="41" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="41" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="41" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="41" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="41" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="41" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="41" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="41" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" s="41" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" s="41" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" s="41" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" s="41" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="41" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="41" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="41" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="41" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="41" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="41" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="41" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="41" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="41" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="41" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="41" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="41" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="41" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="41" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="41" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="41" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="41" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="41" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="41" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="41" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="41" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="41" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="41" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="41" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" s="41" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" s="41" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" s="41" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" s="41" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" s="41" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" s="41" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" s="41" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" s="41" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" s="41" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" s="41" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" s="41" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" s="41" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" s="41" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" s="41" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" s="41" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" s="41" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" s="41" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" s="41" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" s="41" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" s="41" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" s="41" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" s="41" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" s="41" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" s="41" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" s="41" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" s="41" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" s="41" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" s="41" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" s="41" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" s="41" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" s="41" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" s="41" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" s="41" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" s="41" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" s="41" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" s="41" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" s="41" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" s="41" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" s="41" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" s="41" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" s="41" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" s="41" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" s="41" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" s="41" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117" s="41" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" s="41" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" s="41" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" s="41" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" s="41" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" s="41" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123" s="41" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" s="41" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125" s="41" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126" s="41" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" s="41" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128" s="41" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129" s="41" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" s="41" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" s="41" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132" s="41" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133" s="41" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134" s="41" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135" s="41" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136" s="41" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137" s="41" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138" s="41" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139" s="41" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140" s="41" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141" s="41" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142" s="41" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143" s="41" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A144" s="41" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145" s="41" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146" s="41" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147" s="41" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148" s="41" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149" s="41" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150" s="41" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151" s="41" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152" s="41" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A153" s="41" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154" s="41" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155" s="41" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A156" s="41" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157" s="41" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A158" s="41" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A159" s="41" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A160" s="41" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161" s="41" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A162" s="41" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A164" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A165" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A166" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A167" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A168" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A169" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A170" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A171" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A172" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A173" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A174" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A175" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A176" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A177" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A178" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A179" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A180" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A181" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A182" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A183" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A184" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A185" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A186" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A187" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A188" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A189" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A190" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A191" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A192" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A193" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A194" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A195" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A196" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A197" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A198" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A199" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A200" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A201" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A202" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A203" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A204" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A205" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A206" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A207" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A208" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A209" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A210" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A211" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A212" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A213" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A214" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A215" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A216" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A217" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A218" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A219" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A220" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A221" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A222" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A223" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A224" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A225" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A226" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A227" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A228" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A229" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A230" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A231" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A232" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A233" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A234" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A235" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A236" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A237" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A238" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A239" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A240" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A241" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A242" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A243" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A244" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A245" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A246" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A247" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A248" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A249" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A250" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A251" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A252" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A253" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A254" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A255" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A256" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A257" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A258" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A259" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A260" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A261" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A262" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A263" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A264" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A265" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A266" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A267" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A268" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A269" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A270" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A271" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A272" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A273" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A274" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A275" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A276" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A277" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A278" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A279" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A280" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A281" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A282" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A283" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A284" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A285" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A286" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A287" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A288" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A289" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A290" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A291" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A292" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A293" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A294" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A295" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A296" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A297" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A298" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A299" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A300" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A301" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="302" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A302" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="303" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A303" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="304" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A304" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A305" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="306" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A306" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A307" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="308" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A308" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="309" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A309" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="310" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A310" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="311" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A311" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="312" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A312" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="313" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A313" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="314" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A314" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="315" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A315" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="316" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A316" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="317" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A317" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="318" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A318" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="319" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A319" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="320" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A320" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A321" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A322" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A323" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A324" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A325" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A326" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A327" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A328" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A329" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A330" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A331" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A332" s="41" t="s">
         <v>89</v>
       </c>
@@ -5244,7 +5289,7 @@
       <c r="D332" s="42"/>
       <c r="E332" s="42"/>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A333" s="41" t="s">
         <v>89</v>
       </c>
@@ -5253,7 +5298,7 @@
       <c r="D333" s="42"/>
       <c r="E333" s="42"/>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A334" s="41" t="s">
         <v>89</v>
       </c>
@@ -5262,7 +5307,7 @@
       <c r="D334" s="42"/>
       <c r="E334" s="42"/>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A335" s="41" t="s">
         <v>89</v>
       </c>
@@ -5271,7 +5316,7 @@
       <c r="D335" s="42"/>
       <c r="E335" s="42"/>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A336" s="41" t="s">
         <v>89</v>
       </c>
@@ -5280,7 +5325,7 @@
       <c r="D336" s="42"/>
       <c r="E336" s="42"/>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A337" s="41" t="s">
         <v>89</v>
       </c>
@@ -5289,7 +5334,7 @@
       <c r="D337" s="42"/>
       <c r="E337" s="42"/>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A338" s="41" t="s">
         <v>89</v>
       </c>
@@ -5298,7 +5343,7 @@
       <c r="D338" s="42"/>
       <c r="E338" s="42"/>
     </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A339" s="41" t="s">
         <v>89</v>
       </c>
@@ -5307,7 +5352,7 @@
       <c r="D339" s="42"/>
       <c r="E339" s="42"/>
     </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A340" s="41" t="s">
         <v>89</v>
       </c>
@@ -5316,7 +5361,7 @@
       <c r="D340" s="42"/>
       <c r="E340" s="42"/>
     </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A341" s="41" t="s">
         <v>89</v>
       </c>
@@ -5325,7 +5370,7 @@
       <c r="D341" s="42"/>
       <c r="E341" s="42"/>
     </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A342" s="41" t="s">
         <v>89</v>
       </c>
@@ -5334,7 +5379,7 @@
       <c r="D342" s="42"/>
       <c r="E342" s="42"/>
     </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A343" s="41" t="s">
         <v>89</v>
       </c>
@@ -5343,7 +5388,7 @@
       <c r="D343" s="42"/>
       <c r="E343" s="42"/>
     </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A344" s="41" t="s">
         <v>89</v>
       </c>
@@ -5352,7 +5397,7 @@
       <c r="D344" s="42"/>
       <c r="E344" s="42"/>
     </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A345" s="41" t="s">
         <v>89</v>
       </c>
@@ -5361,7 +5406,7 @@
       <c r="D345" s="42"/>
       <c r="E345" s="42"/>
     </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A346" s="41" t="s">
         <v>89</v>
       </c>
@@ -5370,7 +5415,7 @@
       <c r="D346" s="42"/>
       <c r="E346" s="42"/>
     </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A347" s="41" t="s">
         <v>89</v>
       </c>
@@ -5379,7 +5424,7 @@
       <c r="D347" s="42"/>
       <c r="E347" s="42"/>
     </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A348" s="41" t="s">
         <v>89</v>
       </c>
@@ -5388,7 +5433,7 @@
       <c r="D348" s="42"/>
       <c r="E348" s="42"/>
     </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A349" s="41" t="s">
         <v>89</v>
       </c>
@@ -5397,7 +5442,7 @@
       <c r="D349" s="42"/>
       <c r="E349" s="42"/>
     </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A350" s="41" t="s">
         <v>89</v>
       </c>
@@ -5406,7 +5451,7 @@
       <c r="D350" s="42"/>
       <c r="E350" s="42"/>
     </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A351" s="41" t="s">
         <v>89</v>
       </c>
@@ -5415,7 +5460,7 @@
       <c r="D351" s="42"/>
       <c r="E351" s="42"/>
     </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A352" s="41" t="s">
         <v>89</v>
       </c>
@@ -5424,7 +5469,7 @@
       <c r="D352" s="42"/>
       <c r="E352" s="42"/>
     </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A353" s="41" t="s">
         <v>89</v>
       </c>
@@ -5433,7 +5478,7 @@
       <c r="D353" s="42"/>
       <c r="E353" s="42"/>
     </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A354" s="41" t="s">
         <v>89</v>
       </c>
@@ -5442,7 +5487,7 @@
       <c r="D354" s="42"/>
       <c r="E354" s="42"/>
     </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A355" s="41" t="s">
         <v>89</v>
       </c>
@@ -5451,7 +5496,7 @@
       <c r="D355" s="42"/>
       <c r="E355" s="42"/>
     </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A356" s="41" t="s">
         <v>89</v>
       </c>
@@ -5460,7 +5505,7 @@
       <c r="D356" s="42"/>
       <c r="E356" s="42"/>
     </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A357" s="41" t="s">
         <v>89</v>
       </c>
@@ -5469,7 +5514,7 @@
       <c r="D357" s="42"/>
       <c r="E357" s="42"/>
     </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A358" s="41" t="s">
         <v>89</v>
       </c>
@@ -5478,7 +5523,7 @@
       <c r="D358" s="42"/>
       <c r="E358" s="42"/>
     </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A359" s="41" t="s">
         <v>89</v>
       </c>
@@ -5487,7 +5532,7 @@
       <c r="D359" s="42"/>
       <c r="E359" s="42"/>
     </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A360" s="41" t="s">
         <v>89</v>
       </c>
@@ -5496,7 +5541,7 @@
       <c r="D360" s="42"/>
       <c r="E360" s="42"/>
     </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A361" s="41" t="s">
         <v>89</v>
       </c>
@@ -5505,7 +5550,7 @@
       <c r="D361" s="42"/>
       <c r="E361" s="42"/>
     </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A362" s="41" t="s">
         <v>89</v>
       </c>
@@ -5514,7 +5559,7 @@
       <c r="D362" s="42"/>
       <c r="E362" s="42"/>
     </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A363" s="41" t="s">
         <v>89</v>
       </c>
@@ -5523,7 +5568,7 @@
       <c r="D363" s="42"/>
       <c r="E363" s="42"/>
     </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A364" s="41" t="s">
         <v>89</v>
       </c>
@@ -5532,7 +5577,7 @@
       <c r="D364" s="42"/>
       <c r="E364" s="42"/>
     </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A365" s="41" t="s">
         <v>89</v>
       </c>
@@ -5541,7 +5586,7 @@
       <c r="D365" s="42"/>
       <c r="E365" s="42"/>
     </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A366" s="41" t="s">
         <v>89</v>
       </c>
@@ -5550,7 +5595,7 @@
       <c r="D366" s="42"/>
       <c r="E366" s="42"/>
     </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A367" s="41" t="s">
         <v>89</v>
       </c>
@@ -5559,7 +5604,7 @@
       <c r="D367" s="42"/>
       <c r="E367" s="42"/>
     </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A368" s="41" t="s">
         <v>89</v>
       </c>
@@ -5568,7 +5613,7 @@
       <c r="D368" s="42"/>
       <c r="E368" s="42"/>
     </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A369" s="41" t="s">
         <v>89</v>
       </c>
@@ -5577,7 +5622,7 @@
       <c r="D369" s="42"/>
       <c r="E369" s="42"/>
     </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A370" s="41" t="s">
         <v>89</v>
       </c>
@@ -5586,7 +5631,7 @@
       <c r="D370" s="42"/>
       <c r="E370" s="42"/>
     </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A371" s="41" t="s">
         <v>89</v>
       </c>
@@ -5595,7 +5640,7 @@
       <c r="D371" s="42"/>
       <c r="E371" s="42"/>
     </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A372" s="41" t="s">
         <v>89</v>
       </c>
@@ -5604,7 +5649,7 @@
       <c r="D372" s="42"/>
       <c r="E372" s="42"/>
     </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A373" s="41" t="s">
         <v>89</v>
       </c>
@@ -5613,7 +5658,7 @@
       <c r="D373" s="42"/>
       <c r="E373" s="42"/>
     </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A374" s="41" t="s">
         <v>89</v>
       </c>
@@ -5622,7 +5667,7 @@
       <c r="D374" s="42"/>
       <c r="E374" s="42"/>
     </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A375" s="41" t="s">
         <v>89</v>
       </c>
@@ -5631,7 +5676,7 @@
       <c r="D375" s="42"/>
       <c r="E375" s="42"/>
     </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A376" s="41" t="s">
         <v>89</v>
       </c>
@@ -5640,7 +5685,7 @@
       <c r="D376" s="42"/>
       <c r="E376" s="42"/>
     </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A377" s="41" t="s">
         <v>89</v>
       </c>
@@ -5649,2411 +5694,2411 @@
       <c r="D377" s="42"/>
       <c r="E377" s="42"/>
     </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A378" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A379" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A380" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A381" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A382" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A383" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A384" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="385" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A385" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="386" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A386" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="387" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A387" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="388" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A388" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="389" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A389" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="390" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A390" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="391" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A391" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="392" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A392" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="393" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A393" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="394" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A394" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="395" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A395" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="396" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A396" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="397" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A397" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="398" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A398" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="399" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A399" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="400" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A400" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="401" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A401" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="402" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A402" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="403" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A403" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="404" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A404" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="405" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A405" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="406" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A406" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="407" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A407" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="408" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A408" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="409" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A409" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="410" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A410" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="411" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A411" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="412" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A412" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="413" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A413" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="414" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A414" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="415" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A415" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="416" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A416" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="417" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A417" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="418" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A418" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="419" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A419" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="420" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A420" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="421" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A421" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="422" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A422" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="423" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A423" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="424" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A424" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="425" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A425" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="426" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A426" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="427" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A427" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="428" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A428" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="429" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A429" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="430" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A430" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="431" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A431" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="432" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A432" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="433" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A433" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="434" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A434" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="435" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A435" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="436" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A436" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="437" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A437" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="438" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A438" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="439" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A439" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="440" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A440" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="441" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A441" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="442" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A442" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="443" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A443" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="444" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A444" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="445" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A445" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="446" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A446" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="447" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A447" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="448" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A448" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="449" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A449" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="450" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A450" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="451" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A451" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="452" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A452" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="453" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A453" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="454" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A454" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="455" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A455" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="456" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A456" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="457" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A457" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="458" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A458" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="459" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A459" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="460" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A460" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="461" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A461" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="462" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A462" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="463" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A463" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="464" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A464" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="465" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A465" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="466" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A466" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="467" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A467" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="468" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A468" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="469" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A469" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="470" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A470" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="471" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A471" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="472" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A472" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="473" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A473" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="474" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A474" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="475" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A475" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="476" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A476" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="477" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A477" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="478" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A478" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="479" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A479" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="480" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A480" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="481" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A481" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="482" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A482" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="483" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A483" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="484" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A484" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="485" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A485" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="486" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A486" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="487" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A487" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="488" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A488" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="489" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A489" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="490" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A490" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="491" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A491" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="492" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A492" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="493" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A493" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="494" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A494" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="495" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A495" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="496" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A496" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="497" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A497" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="498" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A498" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="499" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A499" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="500" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A500" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="501" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A501" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="502" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A502" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="503" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A503" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="504" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A504" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="505" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A505" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="506" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A506" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="507" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A507" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="508" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A508" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="509" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A509" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="510" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A510" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="511" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A511" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="512" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A512" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="513" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A513" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="514" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A514" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="515" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A515" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="516" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A516" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="517" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A517" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="518" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A518" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="519" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A519" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="520" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A520" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="521" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A521" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="522" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A522" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="523" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A523" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="524" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A524" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="525" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A525" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="526" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A526" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="527" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A527" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="528" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A528" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="529" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A529" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="530" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A530" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="531" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A531" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="532" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A532" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="533" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A533" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="534" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A534" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="535" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A535" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="536" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A536" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="537" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A537" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="538" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A538" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="539" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A539" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="540" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A540" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="541" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A541" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="542" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A542" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="543" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A543" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="544" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A544" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="545" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A545" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="546" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A546" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="547" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A547" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="548" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A548" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="549" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A549" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="550" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A550" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="551" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A551" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="552" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A552" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="553" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A553" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="554" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A554" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="555" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A555" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="556" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A556" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="557" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A557" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="558" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A558" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="559" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A559" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="560" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A560" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="561" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A561" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="562" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A562" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="563" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A563" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="564" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A564" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="565" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A565" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="566" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A566" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="567" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A567" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="568" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A568" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="569" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A569" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="570" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A570" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="571" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A571" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="572" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A572" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="573" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A573" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="574" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A574" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="575" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A575" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="576" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A576" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="577" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A577" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="578" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A578" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="579" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A579" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="580" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A580" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="581" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A581" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="582" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A582" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="584" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A584" s="41" t="s">
         <v>168</v>
       </c>
       <c r="B584" s="43"/>
     </row>
-    <row r="585" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A585" s="41" t="s">
         <v>168</v>
       </c>
       <c r="B585" s="43"/>
     </row>
-    <row r="586" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A586" s="41" t="s">
         <v>168</v>
       </c>
       <c r="B586" s="43"/>
     </row>
-    <row r="587" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A587" s="41" t="s">
         <v>168</v>
       </c>
       <c r="B587" s="43"/>
     </row>
-    <row r="588" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B588" s="43"/>
     </row>
-    <row r="589" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A589" s="41" t="s">
         <v>169</v>
       </c>
       <c r="B589" s="43"/>
     </row>
-    <row r="590" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A590" s="41" t="s">
         <v>169</v>
       </c>
       <c r="B590" s="43"/>
     </row>
-    <row r="591" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A591" s="41" t="s">
         <v>169</v>
       </c>
       <c r="B591" s="43"/>
     </row>
-    <row r="592" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B592" s="43"/>
     </row>
-    <row r="593" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A593" s="41" t="s">
         <v>20</v>
       </c>
       <c r="B593" s="43"/>
     </row>
-    <row r="594" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A594" s="41" t="s">
         <v>20</v>
       </c>
       <c r="B594" s="43"/>
     </row>
-    <row r="595" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B595" s="43"/>
     </row>
-    <row r="596" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A596" s="41" t="s">
         <v>33</v>
       </c>
       <c r="B596" s="43"/>
     </row>
-    <row r="597" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A597" s="41" t="s">
         <v>33</v>
       </c>
       <c r="B597" s="43"/>
     </row>
-    <row r="598" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A598" s="41" t="s">
         <v>33</v>
       </c>
       <c r="B598" s="43"/>
     </row>
-    <row r="599" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A599" s="41" t="s">
         <v>33</v>
       </c>
       <c r="B599" s="43"/>
     </row>
-    <row r="600" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A600" s="41" t="s">
         <v>33</v>
       </c>
       <c r="B600" s="43"/>
     </row>
-    <row r="601" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A601" s="41" t="s">
         <v>33</v>
       </c>
       <c r="B601" s="43"/>
     </row>
-    <row r="602" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A602" s="41" t="s">
         <v>33</v>
       </c>
       <c r="B602" s="43"/>
     </row>
-    <row r="603" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A603" s="41" t="s">
         <v>33</v>
       </c>
       <c r="B603" s="43"/>
     </row>
-    <row r="604" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A604" s="41" t="s">
         <v>33</v>
       </c>
       <c r="B604" s="43"/>
     </row>
-    <row r="605" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A605" s="41" t="s">
         <v>33</v>
       </c>
       <c r="B605" s="43"/>
     </row>
-    <row r="606" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A606" s="41" t="s">
         <v>33</v>
       </c>
       <c r="B606" s="43"/>
     </row>
-    <row r="607" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B607" s="43"/>
     </row>
-    <row r="608" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A608" s="41" t="s">
         <v>41</v>
       </c>
       <c r="B608" s="43"/>
     </row>
-    <row r="609" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A609" s="41" t="s">
         <v>41</v>
       </c>
       <c r="B609" s="43"/>
     </row>
-    <row r="610" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B610" s="43"/>
     </row>
-    <row r="611" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A611" s="41" t="s">
         <v>42</v>
       </c>
       <c r="B611" s="43"/>
     </row>
-    <row r="612" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A612" s="41" t="s">
         <v>42</v>
       </c>
       <c r="B612" s="43"/>
     </row>
-    <row r="613" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A613" s="41" t="s">
         <v>42</v>
       </c>
       <c r="B613" s="43"/>
     </row>
-    <row r="614" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A614" s="41" t="s">
         <v>42</v>
       </c>
       <c r="B614" s="43"/>
     </row>
-    <row r="615" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B615" s="43"/>
     </row>
-    <row r="616" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A616" s="41" t="s">
         <v>170</v>
       </c>
       <c r="B616" s="43"/>
     </row>
-    <row r="617" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A617" s="41" t="s">
         <v>170</v>
       </c>
       <c r="B617" s="43"/>
     </row>
-    <row r="618" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A618" s="41" t="s">
         <v>170</v>
       </c>
       <c r="B618" s="43"/>
     </row>
-    <row r="619" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A619" s="41" t="s">
         <v>170</v>
       </c>
       <c r="B619" s="43"/>
     </row>
-    <row r="620" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A620" s="41" t="s">
         <v>170</v>
       </c>
       <c r="B620" s="43"/>
     </row>
-    <row r="621" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B621" s="43"/>
     </row>
-    <row r="622" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A622" s="41" t="s">
         <v>171</v>
       </c>
       <c r="B622" s="43"/>
     </row>
-    <row r="623" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A623" s="41" t="s">
         <v>171</v>
       </c>
       <c r="B623" s="43"/>
     </row>
-    <row r="626" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A626" s="44" t="s">
         <v>172</v>
       </c>
       <c r="B626" s="43"/>
       <c r="C626" s="44"/>
     </row>
-    <row r="627" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A627" s="44" t="s">
         <v>172</v>
       </c>
       <c r="B627" s="43"/>
       <c r="C627" s="44"/>
     </row>
-    <row r="628" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A628" s="44" t="s">
         <v>172</v>
       </c>
       <c r="B628" s="43"/>
       <c r="C628" s="44"/>
     </row>
-    <row r="629" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A629" s="44" t="s">
         <v>172</v>
       </c>
       <c r="B629" s="43"/>
       <c r="C629" s="44"/>
     </row>
-    <row r="630" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A630" s="44" t="s">
         <v>172</v>
       </c>
       <c r="B630" s="43"/>
       <c r="C630" s="44"/>
     </row>
-    <row r="631" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A631" s="44" t="s">
         <v>172</v>
       </c>
       <c r="B631" s="43"/>
       <c r="C631" s="44"/>
     </row>
-    <row r="632" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A632" s="44" t="s">
         <v>172</v>
       </c>
       <c r="B632" s="43"/>
       <c r="C632" s="44"/>
     </row>
-    <row r="633" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A633" s="44" t="s">
         <v>172</v>
       </c>
       <c r="B633" s="43"/>
       <c r="C633" s="44"/>
     </row>
-    <row r="634" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A634" s="44" t="s">
         <v>172</v>
       </c>
       <c r="B634" s="43"/>
       <c r="C634" s="44"/>
     </row>
-    <row r="635" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A635" s="44" t="s">
         <v>172</v>
       </c>
       <c r="B635" s="43"/>
       <c r="C635" s="44"/>
     </row>
-    <row r="636" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A636" s="44" t="s">
         <v>172</v>
       </c>
       <c r="B636" s="43"/>
       <c r="C636" s="44"/>
     </row>
-    <row r="637" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A637" s="44" t="s">
         <v>172</v>
       </c>
       <c r="B637" s="43"/>
       <c r="C637" s="44"/>
     </row>
-    <row r="638" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A638" s="44" t="s">
         <v>172</v>
       </c>
       <c r="B638" s="43"/>
       <c r="C638" s="44"/>
     </row>
-    <row r="639" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A639" s="44" t="s">
         <v>172</v>
       </c>
       <c r="B639" s="43"/>
       <c r="C639" s="44"/>
     </row>
-    <row r="640" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A640" s="44" t="s">
         <v>172</v>
       </c>
       <c r="B640" s="43"/>
       <c r="C640" s="44"/>
     </row>
-    <row r="641" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A641" s="44" t="s">
         <v>172</v>
       </c>
       <c r="B641" s="43"/>
       <c r="C641" s="44"/>
     </row>
-    <row r="642" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A642" s="44" t="s">
         <v>172</v>
       </c>
       <c r="B642" s="43"/>
       <c r="C642" s="44"/>
     </row>
-    <row r="643" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A643" s="44"/>
       <c r="B643" s="45"/>
       <c r="C643" s="44"/>
     </row>
-    <row r="644" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A644" s="44" t="s">
         <v>173</v>
       </c>
       <c r="B644" s="45"/>
       <c r="C644" s="44"/>
     </row>
-    <row r="645" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A645" s="44" t="s">
         <v>173</v>
       </c>
       <c r="B645" s="45"/>
       <c r="C645" s="44"/>
     </row>
-    <row r="647" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A647" s="44" t="s">
         <v>174</v>
       </c>
       <c r="B647" s="43"/>
       <c r="C647" s="44"/>
     </row>
-    <row r="648" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A648" s="44" t="s">
         <v>174</v>
       </c>
       <c r="B648" s="43"/>
       <c r="C648" s="44"/>
     </row>
-    <row r="649" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A649" s="44" t="s">
         <v>174</v>
       </c>
       <c r="B649" s="43"/>
       <c r="C649" s="44"/>
     </row>
-    <row r="650" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A650" s="44" t="s">
         <v>174</v>
       </c>
       <c r="B650" s="43"/>
       <c r="C650" s="44"/>
     </row>
-    <row r="651" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A651" s="44" t="s">
         <v>174</v>
       </c>
       <c r="B651" s="43"/>
       <c r="C651" s="44"/>
     </row>
-    <row r="652" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A652" s="44" t="s">
         <v>174</v>
       </c>
       <c r="B652" s="43"/>
       <c r="C652" s="44"/>
     </row>
-    <row r="653" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A653" s="44" t="s">
         <v>174</v>
       </c>
       <c r="B653" s="43"/>
       <c r="C653" s="44"/>
     </row>
-    <row r="654" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A654" s="44" t="s">
         <v>174</v>
       </c>
       <c r="B654" s="43"/>
       <c r="C654" s="44"/>
     </row>
-    <row r="655" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A655" s="44" t="s">
         <v>174</v>
       </c>
       <c r="B655" s="43"/>
       <c r="C655" s="44"/>
     </row>
-    <row r="656" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A656" s="44" t="s">
         <v>174</v>
       </c>
       <c r="B656" s="43"/>
       <c r="C656" s="44"/>
     </row>
-    <row r="657" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A657" s="44" t="s">
         <v>174</v>
       </c>
       <c r="B657" s="43"/>
       <c r="C657" s="44"/>
     </row>
-    <row r="658" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A658" s="44" t="s">
         <v>174</v>
       </c>
       <c r="B658" s="43"/>
       <c r="C658" s="44"/>
     </row>
-    <row r="659" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A659" s="44" t="s">
         <v>174</v>
       </c>
       <c r="B659" s="43"/>
       <c r="C659" s="44"/>
     </row>
-    <row r="660" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A660" s="44" t="s">
         <v>174</v>
       </c>
       <c r="B660" s="43"/>
       <c r="C660" s="44"/>
     </row>
-    <row r="661" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A661" s="44" t="s">
         <v>174</v>
       </c>
       <c r="B661" s="43"/>
       <c r="C661" s="44"/>
     </row>
-    <row r="662" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A662" s="44" t="s">
         <v>174</v>
       </c>
       <c r="B662" s="43"/>
       <c r="C662" s="44"/>
     </row>
-    <row r="663" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A663" s="44" t="s">
         <v>174</v>
       </c>
       <c r="B663" s="43"/>
       <c r="C663" s="44"/>
     </row>
-    <row r="664" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A664" s="44" t="s">
         <v>174</v>
       </c>
       <c r="B664" s="43"/>
       <c r="C664" s="44"/>
     </row>
-    <row r="665" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A665" s="44" t="s">
         <v>174</v>
       </c>
       <c r="B665" s="43"/>
       <c r="C665" s="44"/>
     </row>
-    <row r="668" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A668" s="44" t="s">
         <v>175</v>
       </c>
       <c r="B668" s="43"/>
       <c r="C668" s="44"/>
     </row>
-    <row r="669" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A669" s="44" t="s">
         <v>175</v>
       </c>
       <c r="B669" s="43"/>
       <c r="C669" s="44"/>
     </row>
-    <row r="670" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A670" s="44" t="s">
         <v>175</v>
       </c>
       <c r="B670" s="43"/>
       <c r="C670" s="44"/>
     </row>
-    <row r="671" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A671" s="44"/>
       <c r="B671" s="43"/>
       <c r="C671" s="44"/>
     </row>
-    <row r="672" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A672" s="44"/>
       <c r="B672" s="43"/>
       <c r="C672" s="44"/>
     </row>
-    <row r="673" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A673" s="44" t="s">
         <v>176</v>
       </c>
       <c r="B673" s="43"/>
       <c r="C673" s="44"/>
     </row>
-    <row r="674" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A674" s="44" t="s">
         <v>176</v>
       </c>
       <c r="B674" s="43"/>
       <c r="C674" s="44"/>
     </row>
-    <row r="675" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A675" s="44" t="s">
         <v>176</v>
       </c>
       <c r="B675" s="43"/>
       <c r="C675" s="44"/>
     </row>
-    <row r="676" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A676" s="44" t="s">
         <v>176</v>
       </c>
       <c r="B676" s="43"/>
       <c r="C676" s="44"/>
     </row>
-    <row r="677" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A677" s="44" t="s">
         <v>176</v>
       </c>
       <c r="B677" s="43"/>
       <c r="C677" s="44"/>
     </row>
-    <row r="678" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A678" s="44" t="s">
         <v>176</v>
       </c>
       <c r="B678" s="43"/>
       <c r="C678" s="44"/>
     </row>
-    <row r="679" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A679" s="44" t="s">
         <v>176</v>
       </c>
       <c r="B679" s="43"/>
       <c r="C679" s="44"/>
     </row>
-    <row r="680" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A680" s="44" t="s">
         <v>176</v>
       </c>
       <c r="B680" s="43"/>
       <c r="C680" s="44"/>
     </row>
-    <row r="681" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A681" s="44" t="s">
         <v>176</v>
       </c>
       <c r="B681" s="43"/>
       <c r="C681" s="44"/>
     </row>
-    <row r="682" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A682" s="44" t="s">
         <v>176</v>
       </c>
       <c r="B682" s="43"/>
       <c r="C682" s="44"/>
     </row>
-    <row r="684" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A684" s="44" t="s">
         <v>177</v>
       </c>
       <c r="B684" s="43"/>
       <c r="C684" s="44"/>
     </row>
-    <row r="685" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A685" s="44" t="s">
         <v>177</v>
       </c>
       <c r="B685" s="43"/>
       <c r="C685" s="44"/>
     </row>
-    <row r="686" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A686" s="44" t="s">
         <v>177</v>
       </c>
       <c r="B686" s="43"/>
       <c r="C686" s="44"/>
     </row>
-    <row r="687" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A687" s="44" t="s">
         <v>177</v>
       </c>
       <c r="B687" s="43"/>
       <c r="C687" s="44"/>
     </row>
-    <row r="688" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A688" s="44" t="s">
         <v>177</v>
       </c>
       <c r="B688" s="43"/>
       <c r="C688" s="44"/>
     </row>
-    <row r="689" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A689" s="44" t="s">
         <v>177</v>
       </c>
       <c r="B689" s="43"/>
       <c r="C689" s="44"/>
     </row>
-    <row r="690" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A690" s="44" t="s">
         <v>177</v>
       </c>
       <c r="B690" s="43"/>
       <c r="C690" s="44"/>
     </row>
-    <row r="691" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A691" s="44" t="s">
         <v>177</v>
       </c>
       <c r="B691" s="43"/>
       <c r="C691" s="44"/>
     </row>
-    <row r="692" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A692" s="44" t="s">
         <v>177</v>
       </c>
       <c r="B692" s="43"/>
       <c r="C692" s="44"/>
     </row>
-    <row r="693" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A693" s="44" t="s">
         <v>177</v>
       </c>
       <c r="B693" s="43"/>
       <c r="C693" s="44"/>
     </row>
-    <row r="694" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A694" s="44" t="s">
         <v>177</v>
       </c>
       <c r="B694" s="43"/>
       <c r="C694" s="44"/>
     </row>
-    <row r="696" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A696" s="44" t="s">
         <v>178</v>
       </c>
       <c r="B696" s="43"/>
       <c r="C696" s="44"/>
     </row>
-    <row r="697" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A697" s="44" t="s">
         <v>178</v>
       </c>
       <c r="B697" s="43"/>
       <c r="C697" s="44"/>
     </row>
-    <row r="698" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A698" s="44" t="s">
         <v>178</v>
       </c>
       <c r="B698" s="43"/>
       <c r="C698" s="44"/>
     </row>
-    <row r="699" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A699" s="44" t="s">
         <v>178</v>
       </c>
       <c r="B699" s="43"/>
       <c r="C699" s="44"/>
     </row>
-    <row r="700" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A700" s="44" t="s">
         <v>178</v>
       </c>
       <c r="B700" s="43"/>
       <c r="C700" s="44"/>
     </row>
-    <row r="701" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A701" s="44" t="s">
         <v>178</v>
       </c>
       <c r="B701" s="43"/>
       <c r="C701" s="44"/>
     </row>
-    <row r="702" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A702" s="44" t="s">
         <v>178</v>
       </c>
       <c r="B702" s="43"/>
       <c r="C702" s="44"/>
     </row>
-    <row r="703" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A703" s="44" t="s">
         <v>178</v>
       </c>
       <c r="B703" s="43"/>
       <c r="C703" s="44"/>
     </row>
-    <row r="704" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A704" s="44" t="s">
         <v>178</v>
       </c>
       <c r="B704" s="43"/>
       <c r="C704" s="44"/>
     </row>
-    <row r="705" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A705" s="44" t="s">
         <v>178</v>
       </c>
       <c r="B705" s="43"/>
       <c r="C705" s="44"/>
     </row>
-    <row r="706" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A706" s="44" t="s">
         <v>178</v>
       </c>
       <c r="B706" s="43"/>
       <c r="C706" s="44"/>
     </row>
-    <row r="707" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A707" s="44" t="s">
         <v>178</v>
       </c>
       <c r="B707" s="43"/>
       <c r="C707" s="44"/>
     </row>
-    <row r="709" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A709" s="44" t="s">
         <v>179</v>
       </c>
       <c r="B709" s="43"/>
       <c r="C709" s="44"/>
     </row>
-    <row r="710" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A710" s="44" t="s">
         <v>179</v>
       </c>
       <c r="B710" s="43"/>
       <c r="C710" s="44"/>
     </row>
-    <row r="711" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A711" s="44" t="s">
         <v>179</v>
       </c>
       <c r="B711" s="43"/>
       <c r="C711" s="44"/>
     </row>
-    <row r="712" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A712" s="44" t="s">
         <v>179</v>
       </c>
       <c r="B712" s="43"/>
       <c r="C712" s="44"/>
     </row>
-    <row r="714" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A714" s="44" t="s">
         <v>180</v>
       </c>
       <c r="B714" s="43"/>
       <c r="C714" s="44"/>
     </row>
-    <row r="715" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A715" s="44" t="s">
         <v>180</v>
       </c>
       <c r="B715" s="43"/>
       <c r="C715" s="44"/>
     </row>
-    <row r="716" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A716" s="44" t="s">
         <v>180</v>
       </c>
       <c r="B716" s="43"/>
       <c r="C716" s="44"/>
     </row>
-    <row r="717" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A717" s="44" t="s">
         <v>180</v>
       </c>
       <c r="B717" s="43"/>
       <c r="C717" s="44"/>
     </row>
-    <row r="718" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A718" s="44" t="s">
         <v>180</v>
       </c>
       <c r="B718" s="43"/>
       <c r="C718" s="44"/>
     </row>
-    <row r="719" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A719" s="44" t="s">
         <v>180</v>
       </c>
       <c r="B719" s="43"/>
       <c r="C719" s="44"/>
     </row>
-    <row r="720" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A720" s="44" t="s">
         <v>180</v>
       </c>
       <c r="B720" s="43"/>
       <c r="C720" s="44"/>
     </row>
-    <row r="721" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A721" s="44" t="s">
         <v>180</v>
       </c>
       <c r="B721" s="43"/>
       <c r="C721" s="44"/>
     </row>
-    <row r="722" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A722" s="44" t="s">
         <v>180</v>
       </c>
       <c r="B722" s="43"/>
       <c r="C722" s="44"/>
     </row>
-    <row r="723" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A723" s="44" t="s">
         <v>180</v>
       </c>
       <c r="B723" s="43"/>
       <c r="C723" s="44"/>
     </row>
-    <row r="724" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A724" s="44" t="s">
         <v>180</v>
       </c>
       <c r="B724" s="43"/>
       <c r="C724" s="44"/>
     </row>
-    <row r="725" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A725" s="44" t="s">
         <v>180</v>
       </c>
       <c r="B725" s="43"/>
       <c r="C725" s="44"/>
     </row>
-    <row r="726" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A726" s="44" t="s">
         <v>180</v>
       </c>
       <c r="B726" s="43"/>
       <c r="C726" s="44"/>
     </row>
-    <row r="727" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A727" s="44" t="s">
         <v>180</v>
       </c>
       <c r="B727" s="43"/>
       <c r="C727" s="44"/>
     </row>
-    <row r="728" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A728" s="44" t="s">
         <v>180</v>
       </c>
       <c r="B728" s="43"/>
       <c r="C728" s="44"/>
     </row>
-    <row r="729" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A729" s="44" t="s">
         <v>180</v>
       </c>
       <c r="B729" s="43"/>
       <c r="C729" s="44"/>
     </row>
-    <row r="730" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A730" s="44" t="s">
         <v>180</v>
       </c>
       <c r="B730" s="43"/>
       <c r="C730" s="44"/>
     </row>
-    <row r="731" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="731" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A731" s="44" t="s">
         <v>180</v>
       </c>
       <c r="B731" s="43"/>
       <c r="C731" s="44"/>
     </row>
-    <row r="732" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="732" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A732" s="44" t="s">
         <v>180</v>
       </c>
       <c r="B732" s="43"/>
       <c r="C732" s="44"/>
     </row>
-    <row r="733" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="733" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A733" s="44" t="s">
         <v>180</v>
       </c>
       <c r="B733" s="43"/>
       <c r="C733" s="44"/>
     </row>
-    <row r="734" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A734" s="44" t="s">
         <v>180</v>
       </c>
       <c r="B734" s="43"/>
       <c r="C734" s="44"/>
     </row>
-    <row r="735" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="735" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A735" s="44" t="s">
         <v>180</v>
       </c>
       <c r="B735" s="43"/>
       <c r="C735" s="44"/>
     </row>
-    <row r="736" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="736" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A736" s="44" t="s">
         <v>180</v>
       </c>
       <c r="B736" s="43"/>
       <c r="C736" s="44"/>
     </row>
-    <row r="737" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="737" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A737" s="44" t="s">
         <v>180</v>
       </c>
       <c r="B737" s="43"/>
       <c r="C737" s="44"/>
     </row>
-    <row r="738" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="738" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A738" s="44" t="s">
         <v>180</v>
       </c>
       <c r="B738" s="43"/>
       <c r="C738" s="44"/>
     </row>
-    <row r="739" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="739" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A739" s="44" t="s">
         <v>180</v>
       </c>
       <c r="B739" s="43"/>
       <c r="C739" s="44"/>
     </row>
-    <row r="740" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="740" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A740" s="44" t="s">
         <v>180</v>
       </c>
       <c r="B740" s="43"/>
       <c r="C740" s="44"/>
     </row>
-    <row r="742" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="742" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A742" s="44" t="s">
         <v>181</v>
       </c>
       <c r="B742" s="43"/>
       <c r="C742" s="44"/>
     </row>
-    <row r="743" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="743" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A743" s="44" t="s">
         <v>181</v>
       </c>
       <c r="B743" s="43"/>
       <c r="C743" s="44"/>
     </row>
-    <row r="744" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="744" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A744" s="44" t="s">
         <v>181</v>
       </c>
       <c r="B744" s="43"/>
       <c r="C744" s="44"/>
     </row>
-    <row r="745" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="745" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A745" s="44" t="s">
         <v>181</v>
       </c>
       <c r="B745" s="43"/>
       <c r="C745" s="44"/>
     </row>
-    <row r="746" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="746" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A746" s="44" t="s">
         <v>181</v>
       </c>
       <c r="B746" s="43"/>
       <c r="C746" s="44"/>
     </row>
-    <row r="747" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="747" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A747" s="44"/>
       <c r="B747" s="43"/>
       <c r="C747" s="44"/>
     </row>
-    <row r="748" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="748" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A748" s="44" t="s">
         <v>182</v>
       </c>
       <c r="B748" s="43"/>
       <c r="C748" s="44"/>
     </row>
-    <row r="749" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="749" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A749" s="44" t="s">
         <v>182</v>
       </c>
       <c r="B749" s="43"/>
       <c r="C749" s="44"/>
     </row>
-    <row r="750" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="750" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A750" s="44" t="s">
         <v>182</v>
       </c>
       <c r="B750" s="43"/>
       <c r="C750" s="44"/>
     </row>
-    <row r="751" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="751" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A751" s="44" t="s">
         <v>182</v>
       </c>
       <c r="B751" s="43"/>
       <c r="C751" s="44"/>
     </row>
-    <row r="752" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="752" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A752" s="44" t="s">
         <v>182</v>
       </c>
       <c r="B752" s="43"/>
       <c r="C752" s="44"/>
     </row>
-    <row r="753" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="753" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A753" s="44" t="s">
         <v>182</v>
       </c>
       <c r="B753" s="43"/>
       <c r="C753" s="44"/>
     </row>
-    <row r="754" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="754" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A754" s="44" t="s">
         <v>182</v>
       </c>
       <c r="B754" s="43"/>
       <c r="C754" s="44"/>
     </row>
-    <row r="755" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="755" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A755" s="44" t="s">
         <v>182</v>
       </c>
       <c r="B755" s="43"/>
       <c r="C755" s="44"/>
     </row>
-    <row r="756" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="756" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A756" s="44" t="s">
         <v>182</v>
       </c>
       <c r="B756" s="43"/>
       <c r="C756" s="44"/>
     </row>
-    <row r="757" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="757" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A757" s="44"/>
       <c r="B757" s="43"/>
       <c r="C757" s="44"/>
     </row>
-    <row r="758" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="758" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A758" s="44" t="s">
         <v>183</v>
       </c>
       <c r="B758" s="43"/>
       <c r="C758" s="44"/>
     </row>
-    <row r="759" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="759" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A759" s="44" t="s">
         <v>183</v>
       </c>
       <c r="B759" s="43"/>
       <c r="C759" s="44"/>
     </row>
-    <row r="760" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="760" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A760" s="44" t="s">
         <v>183</v>
       </c>
       <c r="B760" s="43"/>
       <c r="C760" s="44"/>
     </row>
-    <row r="761" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="761" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A761" s="44" t="s">
         <v>183</v>
       </c>
       <c r="B761" s="43"/>
       <c r="C761" s="44"/>
     </row>
-    <row r="762" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="762" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A762" s="44" t="s">
         <v>183</v>
       </c>
       <c r="B762" s="43"/>
       <c r="C762" s="44"/>
     </row>
-    <row r="763" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="763" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A763" s="44" t="s">
         <v>183</v>
       </c>
       <c r="B763" s="43"/>
       <c r="C763" s="44"/>
     </row>
-    <row r="764" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="764" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A764" s="44" t="s">
         <v>183</v>
       </c>
       <c r="B764" s="43"/>
       <c r="C764" s="44"/>
     </row>
-    <row r="765" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="765" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A765" s="44" t="s">
         <v>183</v>
       </c>
       <c r="B765" s="43"/>
       <c r="C765" s="44"/>
     </row>
-    <row r="766" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="766" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A766" s="44" t="s">
         <v>183</v>
       </c>
       <c r="B766" s="43"/>
       <c r="C766" s="44"/>
     </row>
-    <row r="767" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="767" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A767" s="44" t="s">
         <v>183</v>
       </c>
       <c r="B767" s="43"/>
       <c r="C767" s="44"/>
     </row>
-    <row r="768" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="768" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A768" s="44" t="s">
         <v>183</v>
       </c>
       <c r="B768" s="43"/>
       <c r="C768" s="44"/>
     </row>
-    <row r="769" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="769" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A769" s="44" t="s">
         <v>183</v>
       </c>
       <c r="B769" s="43"/>
       <c r="C769" s="44"/>
     </row>
-    <row r="770" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="770" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A770" s="44" t="s">
         <v>183</v>
       </c>
       <c r="B770" s="43"/>
       <c r="C770" s="44"/>
     </row>
-    <row r="771" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="771" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A771" s="44" t="s">
         <v>183</v>
       </c>
       <c r="B771" s="43"/>
       <c r="C771" s="44"/>
     </row>
-    <row r="772" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="772" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A772" s="44" t="s">
         <v>183</v>
       </c>
       <c r="B772" s="43"/>
       <c r="C772" s="44"/>
     </row>
-    <row r="773" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="773" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A773" s="44" t="s">
         <v>183</v>
       </c>
       <c r="B773" s="43"/>
       <c r="C773" s="44"/>
     </row>
-    <row r="774" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="774" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A774" s="44"/>
       <c r="B774" s="43"/>
       <c r="C774" s="44"/>
     </row>
-    <row r="775" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="775" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A775" s="44" t="s">
         <v>184</v>
       </c>
       <c r="B775" s="43"/>
       <c r="C775" s="44"/>
     </row>
-    <row r="776" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="776" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A776" s="44" t="s">
         <v>184</v>
       </c>
       <c r="B776" s="43"/>
       <c r="C776" s="44"/>
     </row>
-    <row r="777" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="777" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A777" s="44" t="s">
         <v>184</v>
       </c>
       <c r="B777" s="43"/>
       <c r="C777" s="44"/>
     </row>
-    <row r="778" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="778" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A778" s="44" t="s">
         <v>184</v>
       </c>
       <c r="B778" s="43"/>
       <c r="C778" s="44"/>
     </row>
-    <row r="779" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="779" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A779" s="44" t="s">
         <v>184</v>
       </c>
       <c r="B779" s="43"/>
       <c r="C779" s="44"/>
     </row>
-    <row r="780" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="780" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A780" s="44" t="s">
         <v>184</v>
       </c>
       <c r="B780" s="43"/>
       <c r="C780" s="44"/>
     </row>
-    <row r="781" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="781" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A781" s="44" t="s">
         <v>184</v>
       </c>
       <c r="B781" s="43"/>
       <c r="C781" s="44"/>
     </row>
-    <row r="782" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="782" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A782" s="44" t="s">
         <v>184</v>
       </c>
       <c r="B782" s="43"/>
       <c r="C782" s="44"/>
     </row>
-    <row r="783" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="783" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A783" s="44" t="s">
         <v>184</v>
       </c>
       <c r="B783" s="43"/>
       <c r="C783" s="44"/>
     </row>
-    <row r="784" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="784" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A784" s="44" t="s">
         <v>184</v>
       </c>
       <c r="B784" s="43"/>
       <c r="C784" s="44"/>
     </row>
-    <row r="785" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="785" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A785" s="44" t="s">
         <v>184</v>
       </c>
       <c r="B785" s="43"/>
       <c r="C785" s="44"/>
     </row>
-    <row r="786" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="786" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A786" s="44" t="s">
         <v>184</v>
       </c>
       <c r="B786" s="43"/>
       <c r="C786" s="44"/>
     </row>
-    <row r="787" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="787" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A787" s="44" t="s">
         <v>184</v>
       </c>
       <c r="B787" s="43"/>
       <c r="C787" s="44"/>
     </row>
-    <row r="788" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="788" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A788" s="44" t="s">
         <v>184</v>
       </c>
       <c r="B788" s="43"/>
       <c r="C788" s="44"/>
     </row>
-    <row r="789" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="789" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A789" s="44" t="s">
         <v>184</v>
       </c>
       <c r="B789" s="43"/>
       <c r="C789" s="44"/>
     </row>
-    <row r="790" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="790" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A790" s="44" t="s">
         <v>184</v>
       </c>
       <c r="B790" s="43"/>
       <c r="C790" s="44"/>
     </row>
-    <row r="791" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="791" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A791" s="44" t="s">
         <v>184</v>
       </c>
       <c r="B791" s="43"/>
       <c r="C791" s="44"/>
     </row>
-    <row r="792" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="792" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A792" s="44" t="s">
         <v>184</v>
       </c>
       <c r="B792" s="43"/>
       <c r="C792" s="44"/>
     </row>
-    <row r="793" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="793" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A793" s="44" t="s">
         <v>184</v>
       </c>
       <c r="B793" s="43"/>
       <c r="C793" s="44"/>
     </row>
-    <row r="794" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="794" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A794" s="44" t="s">
         <v>184</v>
       </c>
       <c r="B794" s="43"/>
       <c r="C794" s="44"/>
     </row>
-    <row r="795" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="795" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A795" s="44" t="s">
         <v>184</v>
       </c>
       <c r="B795" s="43"/>
       <c r="C795" s="44"/>
     </row>
-    <row r="796" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="796" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A796" s="44"/>
       <c r="B796" s="43"/>
       <c r="C796" s="44"/>
     </row>
-    <row r="797" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="797" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A797" s="44" t="s">
         <v>185</v>
       </c>
       <c r="B797" s="43"/>
       <c r="C797" s="44"/>
     </row>
-    <row r="798" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="798" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A798" s="44" t="s">
         <v>185</v>
       </c>
       <c r="B798" s="43"/>
       <c r="C798" s="44"/>
     </row>
-    <row r="799" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="799" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A799" s="44"/>
       <c r="B799" s="43"/>
       <c r="C799" s="44"/>
     </row>
-    <row r="800" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="800" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A800" s="44" t="s">
         <v>186</v>
       </c>
       <c r="B800" s="43"/>
       <c r="C800" s="44"/>
     </row>
-    <row r="801" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="801" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A801" s="44" t="s">
         <v>186</v>
       </c>
       <c r="B801" s="43"/>
       <c r="C801" s="44"/>
     </row>
-    <row r="803" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="803" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A803" s="44" t="s">
         <v>187</v>
       </c>
@@ -8063,7 +8108,7 @@
       <c r="L803" s="43"/>
       <c r="M803" s="44"/>
     </row>
-    <row r="804" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="804" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A804" s="44" t="s">
         <v>187</v>
       </c>
@@ -8073,7 +8118,7 @@
       <c r="L804" s="43"/>
       <c r="M804" s="44"/>
     </row>
-    <row r="805" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="805" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A805" s="44" t="s">
         <v>187</v>
       </c>
@@ -8083,7 +8128,7 @@
       <c r="L805" s="43"/>
       <c r="M805" s="44"/>
     </row>
-    <row r="806" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="806" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A806" s="44" t="s">
         <v>187</v>
       </c>
@@ -8093,7 +8138,7 @@
       <c r="L806" s="43"/>
       <c r="M806" s="44"/>
     </row>
-    <row r="807" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="807" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A807" s="44" t="s">
         <v>187</v>
       </c>
@@ -8103,7 +8148,7 @@
       <c r="L807" s="43"/>
       <c r="M807" s="44"/>
     </row>
-    <row r="808" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="808" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A808" s="44" t="s">
         <v>187</v>
       </c>
@@ -8113,7 +8158,7 @@
       <c r="L808" s="43"/>
       <c r="M808" s="44"/>
     </row>
-    <row r="809" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="809" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A809" s="44" t="s">
         <v>187</v>
       </c>
@@ -8123,7 +8168,7 @@
       <c r="L809" s="43"/>
       <c r="M809" s="44"/>
     </row>
-    <row r="810" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="810" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A810" s="44" t="s">
         <v>187</v>
       </c>
@@ -8133,7 +8178,7 @@
       <c r="L810" s="43"/>
       <c r="M810" s="44"/>
     </row>
-    <row r="811" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="811" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A811" s="44" t="s">
         <v>187</v>
       </c>
@@ -8143,7 +8188,7 @@
       <c r="L811" s="43"/>
       <c r="M811" s="44"/>
     </row>
-    <row r="812" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="812" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A812" s="44" t="s">
         <v>187</v>
       </c>
@@ -8153,194 +8198,194 @@
       <c r="L812" s="43"/>
       <c r="M812" s="44"/>
     </row>
-    <row r="814" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="814" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A814" s="41" t="s">
         <v>188</v>
       </c>
       <c r="B814" s="43"/>
       <c r="C814" s="44"/>
     </row>
-    <row r="815" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="815" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A815" s="41" t="s">
         <v>188</v>
       </c>
       <c r="B815" s="43"/>
       <c r="C815" s="44"/>
     </row>
-    <row r="816" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="816" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A816" s="41" t="s">
         <v>188</v>
       </c>
       <c r="B816" s="43"/>
       <c r="C816" s="44"/>
     </row>
-    <row r="817" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="817" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A817" s="41" t="s">
         <v>188</v>
       </c>
       <c r="B817" s="43"/>
       <c r="C817" s="44"/>
     </row>
-    <row r="818" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="818" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A818" s="41" t="s">
         <v>188</v>
       </c>
       <c r="B818" s="43"/>
       <c r="C818" s="44"/>
     </row>
-    <row r="819" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="819" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A819" s="41" t="s">
         <v>188</v>
       </c>
       <c r="B819" s="43"/>
       <c r="C819" s="44"/>
     </row>
-    <row r="820" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="820" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A820" s="41" t="s">
         <v>188</v>
       </c>
       <c r="B820" s="43"/>
       <c r="C820" s="44"/>
     </row>
-    <row r="822" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="822" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A822" s="44" t="s">
         <v>189</v>
       </c>
       <c r="B822" s="43"/>
       <c r="C822" s="44"/>
     </row>
-    <row r="823" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="823" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A823" s="44" t="s">
         <v>189</v>
       </c>
       <c r="B823" s="43"/>
       <c r="C823" s="44"/>
     </row>
-    <row r="824" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="824" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A824" s="44" t="s">
         <v>189</v>
       </c>
       <c r="B824" s="43"/>
       <c r="C824" s="44"/>
     </row>
-    <row r="825" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="825" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A825" s="44" t="s">
         <v>189</v>
       </c>
       <c r="B825" s="43"/>
       <c r="C825" s="44"/>
     </row>
-    <row r="826" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="826" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A826" s="44" t="s">
         <v>189</v>
       </c>
       <c r="B826" s="43"/>
       <c r="C826" s="44"/>
     </row>
-    <row r="828" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="828" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A828" s="41" t="s">
         <v>191</v>
       </c>
       <c r="B828" s="43"/>
       <c r="C828" s="46"/>
     </row>
-    <row r="829" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="829" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A829" s="41" t="s">
         <v>191</v>
       </c>
       <c r="B829" s="43"/>
       <c r="C829" s="44"/>
     </row>
-    <row r="830" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="830" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A830" s="41" t="s">
         <v>191</v>
       </c>
       <c r="B830" s="43"/>
       <c r="C830" s="44"/>
     </row>
-    <row r="831" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="831" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A831" s="41" t="s">
         <v>191</v>
       </c>
       <c r="B831" s="43"/>
       <c r="C831" s="44"/>
     </row>
-    <row r="832" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="832" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A832" s="41" t="s">
         <v>191</v>
       </c>
       <c r="B832" s="43"/>
       <c r="C832" s="44"/>
     </row>
-    <row r="833" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="833" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A833" s="41" t="s">
         <v>191</v>
       </c>
       <c r="B833" s="43"/>
       <c r="C833" s="44"/>
     </row>
-    <row r="834" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="834" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A834" s="41" t="s">
         <v>191</v>
       </c>
       <c r="B834" s="43"/>
       <c r="C834" s="44"/>
     </row>
-    <row r="835" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="835" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A835" s="44" t="s">
         <v>191</v>
       </c>
       <c r="B835" s="43"/>
       <c r="C835" s="44"/>
     </row>
-    <row r="837" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="837" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A837" s="41" t="s">
         <v>192</v>
       </c>
       <c r="B837" s="43"/>
       <c r="C837" s="46"/>
     </row>
-    <row r="838" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="838" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A838" s="41" t="s">
         <v>192</v>
       </c>
       <c r="B838" s="43"/>
       <c r="C838" s="44"/>
     </row>
-    <row r="839" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="839" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A839" s="41" t="s">
         <v>192</v>
       </c>
       <c r="B839" s="43"/>
       <c r="C839" s="44"/>
     </row>
-    <row r="840" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="840" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A840" s="41" t="s">
         <v>192</v>
       </c>
       <c r="B840" s="43"/>
       <c r="C840" s="44"/>
     </row>
-    <row r="842" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="842" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A842" s="44" t="s">
         <v>193</v>
       </c>
       <c r="B842" s="43"/>
       <c r="C842" s="44"/>
     </row>
-    <row r="843" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="843" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A843" s="44" t="s">
         <v>193</v>
       </c>
       <c r="B843" s="43"/>
       <c r="C843" s="44"/>
     </row>
-    <row r="845" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="845" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A845" s="56" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="846" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="846" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A846" s="56" t="s">
         <v>235</v>
       </c>
@@ -8355,21 +8400,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.3984375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="45.375" style="3" customWidth="1"/>
     <col min="2" max="2" width="36.5" style="3" customWidth="1"/>
-    <col min="3" max="3" width="15.8984375" style="14" customWidth="1"/>
-    <col min="4" max="4" width="50.8984375" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.875" style="14" customWidth="1"/>
+    <col min="4" max="4" width="50.875" style="14" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="39.5" style="3" customWidth="1"/>
     <col min="6" max="16384" width="11" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>18</v>
       </c>
@@ -8386,7 +8431,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>148</v>
       </c>
@@ -8394,7 +8439,7 @@
         <v>149</v>
       </c>
       <c r="C2" s="47">
-        <v>2022012802</v>
+        <v>2022092001</v>
       </c>
       <c r="D2" s="48" t="s">
         <v>253</v>

--- a/xlsx/CaVaTeCo/form_h_assinantes_at_forms.xlsx
+++ b/xlsx/CaVaTeCo/form_h_assinantes_at_forms.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Terra_Share\projects\CaVaTeCo_Collect\projects\A_CaVaTeCo_projects\odk_forms_wcs_nampula\xlsx\CaVaTeCo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5FBCBDF-EBFF-4666-A373-831CBDED4B66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D620AA02-84D5-4DC1-9854-D142D59C00C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1223" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1222" uniqueCount="262">
   <si>
     <t>type</t>
   </si>
@@ -135,9 +135,6 @@
     <t>documents</t>
   </si>
   <si>
-    <t>Numero de documento</t>
-  </si>
-  <si>
     <t>no-calendar</t>
   </si>
   <si>
@@ -372,9 +369,6 @@
     <t>regex(., "^[a-zA-Z0-9. _-]{1,25}$")</t>
   </si>
   <si>
-    <t>Resposta invalida - Os campos de numero ou local de emissão do documento não podia incluir um novo paragrafo. Faça a favor de eliminar qualquer linha adicional.</t>
-  </si>
-  <si>
     <t>id_place_issued</t>
   </si>
   <si>
@@ -429,9 +423,6 @@
     <t>Assinatura</t>
   </si>
   <si>
-    <t>Numero de telemóvel</t>
-  </si>
-  <si>
     <t>family_name</t>
   </si>
   <si>
@@ -480,9 +471,6 @@
     <t xml:space="preserve">Form H - Registrar assinantes de formulários do AT </t>
   </si>
   <si>
-    <t>form_h_assinantes_at</t>
-  </si>
-  <si>
     <t>assoc_id_key</t>
   </si>
   <si>
@@ -625,12 +613,6 @@
   </si>
   <si>
     <t>&lt;br/&gt; &lt;h1&gt;Cadeia de Valor de Terra Comunitária&lt;/h1&gt;&lt;br/&gt; &lt;h2&gt;${project}&lt;/h2&gt;&lt;span style="color:#57b055"&gt;${my_form_name}&lt;/span&gt; &lt;br/&gt;</t>
-  </si>
-  <si>
-    <t>&lt;span style="color:#FF0000"&gt;${project}&lt;/span&gt;&lt;br/&gt; &lt;span style="color:#57b055"&gt;${my_form_name}&lt;/span&gt; &lt;br/&gt;
-Este formulário é utilizado para gravar informação sobre as pessoas que vão assinar o formulário 1 que faz parte do Anexo Técnico. Deviam ser gravados os detalhes de pelo menos três representantes da comunidade e um facilitador do processo.
-O técnico pode usar o formulário para capturar informação sobre cada pessoa, incluindo a assinatura digital.
-Por favor deslizar para a frente para continuar.</t>
   </si>
   <si>
     <t>consent_note</t>
@@ -749,9 +731,6 @@
     <t>searchtext</t>
   </si>
   <si>
-    <t>Digite a primeira letra do seu nome para filtrar a lista de enumeradores já registadas:</t>
-  </si>
-  <si>
     <t>select_one enum_name_id</t>
   </si>
   <si>
@@ -776,9 +755,6 @@
     <t>. &lt;= today()</t>
   </si>
   <si>
-    <t>"WCS - Futura Azul"</t>
-  </si>
-  <si>
     <t>search('enum_names_wcs_nampula', 'startswith', 'enumerator_name', ${searchtext})</t>
   </si>
   <si>
@@ -797,9 +773,6 @@
     <t>pulldata('enum_names_wcs_nampula', 'enumerator_name', 'name_id_key', ${tec_id_sign})</t>
   </si>
   <si>
-    <t>http://cavateco.terrafirma.co.mz:8080/wcs_nampula/submission</t>
-  </si>
-  <si>
     <t>terrafirma_wcs.jpg</t>
   </si>
   <si>
@@ -816,15 +789,55 @@
   </si>
   <si>
     <t>consent_cisena.mp3</t>
+  </si>
+  <si>
+    <t>assinantes_at</t>
+  </si>
+  <si>
+    <t>&lt;span style="color:#FF0000"&gt;${project}&lt;/span&gt;&lt;br/&gt; &lt;span style="color:#57b055"&gt;${my_form_name}&lt;/span&gt; &lt;br/&gt;
+Este formulário é utilizado para gravar informação sobre as pessoas que vão assinar o formulário 1 que faz parte do Anexo Técnico. Devem ser gravados os detalhes de pelo menos três representantes da comunidade e um facilitador do processo.
+O técnico pode usar o formulário para capturar informação sobre cada pessoa, incluindo a assinatura digital.
+Por favor deslizar para a frente para continuar.</t>
+  </si>
+  <si>
+    <t>Número de documento</t>
+  </si>
+  <si>
+    <t>Tire uma fotografia da frente do documento de identificação</t>
+  </si>
+  <si>
+    <t>Tire uma fotografia do verso do documento de identificação</t>
+  </si>
+  <si>
+    <t>Número de telemóvel</t>
+  </si>
+  <si>
+    <t>Resposta inválida - Os campos do número ou local de emissão do documento não devem incluir um novo paragrafo. Faça o favor de eliminar qualquer linha adicional.</t>
+  </si>
+  <si>
+    <t>consent_ciyao.mp3</t>
+  </si>
+  <si>
+    <t>"WCS - Futuro Azul"</t>
+  </si>
+  <si>
+    <t>Digite a primeira letra do seu nome para filtrar a lista de enumeradores já registados:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="34" x14ac:knownFonts="1">
+  <fonts count="35" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1096,401 +1109,408 @@
   </borders>
   <cellStyleXfs count="247">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="233" applyFont="1"/>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="242" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="233" applyFont="1"/>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="242" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="242" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="242" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="246"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="246" applyFill="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="246" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="246"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="246" applyFill="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="246" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="246" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="246" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="246" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="246" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="31" fillId="0" borderId="0" xfId="246" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="32" fillId="0" borderId="0" xfId="246" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="245" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="0" xfId="245" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="246" applyFont="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="246" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
+      <alignment horizontal="right" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="1"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -2081,11 +2101,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S80"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="E23" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P32" sqref="P32"/>
+      <selection pane="bottomRight" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2149,7 +2169,7 @@
         <v>10</v>
       </c>
       <c r="M1" s="8" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="N1" s="6" t="s">
         <v>11</v>
@@ -2158,7 +2178,7 @@
         <v>12</v>
       </c>
       <c r="P1" s="6" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="Q1" s="6" t="s">
         <v>13</v>
@@ -2167,7 +2187,7 @@
         <v>31</v>
       </c>
       <c r="S1" s="49" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="3" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
@@ -2180,46 +2200,46 @@
     </row>
     <row r="4" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="C4" s="23" t="s">
         <v>90</v>
-      </c>
-      <c r="B4" s="29" t="s">
-        <v>90</v>
-      </c>
-      <c r="C4" s="23" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:19" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="39" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B5" s="40" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="N5" s="39" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" spans="1:19" s="50" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="50" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B6" s="51" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="N6" s="57" t="s">
-        <v>246</v>
+        <v>260</v>
       </c>
     </row>
     <row r="7" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="B7" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="B7" s="30" t="s">
-        <v>84</v>
-      </c>
       <c r="N7" s="23" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
@@ -2227,7 +2247,7 @@
         <v>22</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C8" s="2"/>
       <c r="L8" s="23" t="s">
@@ -2236,25 +2256,25 @@
     </row>
     <row r="9" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O9" s="58" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="P9" s="39"/>
     </row>
     <row r="10" spans="1:19" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C10" s="52" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="11" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
@@ -2265,13 +2285,13 @@
     </row>
     <row r="12" spans="1:19" s="23" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="B12" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" s="52" t="s">
-        <v>198</v>
+      <c r="C12" s="70" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="13" spans="1:19" s="59" customFormat="1" x14ac:dyDescent="0.25">
@@ -2279,10 +2299,10 @@
         <v>26</v>
       </c>
       <c r="B13" s="60" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="C13" s="59" t="s">
-        <v>237</v>
+        <v>261</v>
       </c>
       <c r="J13" s="59" t="s">
         <v>21</v>
@@ -2290,35 +2310,35 @@
     </row>
     <row r="14" spans="1:19" s="59" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="59" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="B14" s="60" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="C14" s="61" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D14" s="61"/>
       <c r="F14" s="62" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="G14" s="62"/>
       <c r="J14" s="59" t="s">
         <v>21</v>
       </c>
       <c r="L14" s="63" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
     </row>
     <row r="15" spans="1:19" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="59" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B15" s="60" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="N15" s="63" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
     </row>
     <row r="16" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
@@ -2326,121 +2346,121 @@
         <v>17</v>
       </c>
       <c r="B16" s="29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H16" s="23" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="J16" s="23" t="s">
         <v>21</v>
       </c>
       <c r="L16" s="23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:19" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="16" t="s">
         <v>76</v>
-      </c>
-      <c r="B17" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="C17" s="16" t="s">
-        <v>77</v>
       </c>
       <c r="J17" s="16" t="s">
         <v>21</v>
       </c>
       <c r="L17" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:19" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="B18" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="C18" s="16" t="s">
+      <c r="D18" s="16" t="s">
         <v>79</v>
-      </c>
-      <c r="D18" s="16" t="s">
-        <v>80</v>
       </c>
       <c r="J18" s="16" t="s">
         <v>21</v>
       </c>
       <c r="L18" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:19" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="32" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B19" s="29" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C19" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="D19" s="16" t="s">
         <v>81</v>
-      </c>
-      <c r="D19" s="16" t="s">
-        <v>82</v>
       </c>
       <c r="J19" s="16" t="s">
         <v>21</v>
       </c>
       <c r="L19" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:19" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="39" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B20" s="38" t="s">
+        <v>84</v>
+      </c>
+      <c r="C20" s="39" t="s">
         <v>85</v>
-      </c>
-      <c r="C20" s="39" t="s">
-        <v>86</v>
       </c>
       <c r="J20" s="39" t="s">
         <v>21</v>
       </c>
       <c r="L20" s="58" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
     </row>
     <row r="21" spans="1:19" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="59" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B21" s="60" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="N21" s="63" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
     </row>
     <row r="22" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="C22" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="29" t="s">
-        <v>96</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>37</v>
-      </c>
       <c r="F22" s="34" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="H22" s="34" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="J22" s="33" t="s">
         <v>21</v>
@@ -2451,38 +2471,38 @@
         <v>29</v>
       </c>
       <c r="B23" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="C23" s="34" t="s">
+        <v>137</v>
+      </c>
+      <c r="E23" s="23" t="s">
         <v>97</v>
-      </c>
-      <c r="C23" s="34" t="s">
-        <v>140</v>
-      </c>
-      <c r="E23" s="23" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="24" spans="1:19" s="50" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="53" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B24" s="51" t="s">
-        <v>199</v>
-      </c>
-      <c r="C24" s="52" t="s">
-        <v>200</v>
+        <v>194</v>
+      </c>
+      <c r="C24" s="70" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="25" spans="1:19" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="50" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="B25" s="51" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C25" s="52" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="D25" s="50" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="26" spans="1:19" s="50" customFormat="1" x14ac:dyDescent="0.25">
@@ -2490,16 +2510,16 @@
         <v>26</v>
       </c>
       <c r="B26" s="51" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="C26" s="53" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="G26" s="53" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="P26" s="53" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="Q26" s="53"/>
       <c r="R26" s="53"/>
@@ -2512,16 +2532,16 @@
         <v>26</v>
       </c>
       <c r="B27" s="51" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C27" s="53" t="s">
+        <v>200</v>
+      </c>
+      <c r="G27" s="53" t="s">
+        <v>204</v>
+      </c>
+      <c r="P27" s="53" t="s">
         <v>205</v>
-      </c>
-      <c r="G27" s="53" t="s">
-        <v>209</v>
-      </c>
-      <c r="P27" s="53" t="s">
-        <v>210</v>
       </c>
       <c r="Q27" s="53"/>
       <c r="R27" s="53"/>
@@ -2534,16 +2554,16 @@
         <v>26</v>
       </c>
       <c r="B28" s="51" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C28" s="53" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="G28" s="53" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="P28" s="53" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="Q28" s="53"/>
       <c r="R28" s="53"/>
@@ -2556,16 +2576,16 @@
         <v>26</v>
       </c>
       <c r="B29" s="51" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="C29" s="53" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="G29" s="53" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="P29" s="53" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="Q29" s="53"/>
       <c r="R29" s="53"/>
@@ -2578,16 +2598,16 @@
         <v>26</v>
       </c>
       <c r="B30" s="51" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C30" s="53" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="G30" s="53" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="P30" s="69" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="Q30" s="53"/>
       <c r="R30" s="53"/>
@@ -2600,16 +2620,16 @@
         <v>26</v>
       </c>
       <c r="B31" s="51" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="C31" s="53" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="G31" s="53" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="P31" s="69" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="Q31" s="53"/>
       <c r="R31" s="53"/>
@@ -2622,16 +2642,16 @@
         <v>26</v>
       </c>
       <c r="B32" s="51" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C32" s="53" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="G32" s="53" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="P32" s="53" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="Q32" s="53"/>
       <c r="R32" s="53"/>
@@ -2644,16 +2664,16 @@
         <v>26</v>
       </c>
       <c r="B33" s="51" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="C33" s="53" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="G33" s="53" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="P33" s="53" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="Q33" s="53"/>
       <c r="R33" s="53"/>
@@ -2666,16 +2686,16 @@
         <v>26</v>
       </c>
       <c r="B34" s="51" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="C34" s="53" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="G34" s="53" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="P34" s="53" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="Q34" s="53"/>
       <c r="R34" s="53"/>
@@ -2688,16 +2708,16 @@
         <v>26</v>
       </c>
       <c r="B35" s="51" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="C35" s="53" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="G35" s="53" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="P35" s="53" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="Q35" s="53"/>
       <c r="R35" s="53"/>
@@ -2710,16 +2730,16 @@
         <v>26</v>
       </c>
       <c r="B36" s="51" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C36" s="53" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="G36" s="53" t="s">
-        <v>230</v>
-      </c>
-      <c r="P36" s="53" t="s">
-        <v>213</v>
+        <v>225</v>
+      </c>
+      <c r="P36" s="72" t="s">
+        <v>259</v>
       </c>
       <c r="Q36" s="53"/>
       <c r="R36" s="53"/>
@@ -2732,16 +2752,16 @@
         <v>26</v>
       </c>
       <c r="B37" s="51" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C37" s="53" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="G37" s="53" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="P37" s="53" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="Q37" s="53"/>
       <c r="R37" s="53"/>
@@ -2754,16 +2774,16 @@
         <v>26</v>
       </c>
       <c r="B38" s="68" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="C38" s="53" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="G38" s="69" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="P38" s="69" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="Q38" s="53"/>
       <c r="R38" s="53"/>
@@ -2779,7 +2799,7 @@
         <v>32</v>
       </c>
       <c r="C39" s="50" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="J39" s="50" t="s">
         <v>21</v>
@@ -2788,7 +2808,7 @@
         <v>32</v>
       </c>
       <c r="M39" s="55" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
     </row>
     <row r="40" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -2796,10 +2816,10 @@
         <v>22</v>
       </c>
       <c r="B40" s="20" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L40" s="12" t="s">
         <v>28</v>
@@ -2810,10 +2830,10 @@
         <v>26</v>
       </c>
       <c r="B41" s="29" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C41" s="23" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J41" s="12" t="s">
         <v>21</v>
@@ -2824,10 +2844,10 @@
         <v>26</v>
       </c>
       <c r="B42" s="29" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C42" s="23" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J42" s="12" t="s">
         <v>21</v>
@@ -2835,22 +2855,22 @@
     </row>
     <row r="43" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="39" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B43" s="29" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C43" s="23" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D43" s="39" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="J43" s="12" t="s">
         <v>21</v>
       </c>
       <c r="L43" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="44" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
@@ -2861,22 +2881,22 @@
     </row>
     <row r="45" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="39" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B45" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="C45" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="C45" s="23" t="s">
-        <v>100</v>
-      </c>
       <c r="D45" s="39" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="J45" s="23" t="s">
         <v>21</v>
       </c>
       <c r="L45" s="23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="46" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
@@ -2884,39 +2904,39 @@
         <v>17</v>
       </c>
       <c r="B46" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="C46" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="C46" s="23" t="s">
+      <c r="G46" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="G46" s="23" t="s">
-        <v>103</v>
-      </c>
       <c r="H46" s="23" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="L46" s="23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="47" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="39" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B47" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="C47" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="C47" s="23" t="s">
+      <c r="D47" s="39" t="s">
+        <v>155</v>
+      </c>
+      <c r="G47" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="D47" s="39" t="s">
-        <v>159</v>
-      </c>
-      <c r="G47" s="23" t="s">
-        <v>106</v>
-      </c>
       <c r="L47" s="23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="48" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
@@ -2924,10 +2944,10 @@
         <v>22</v>
       </c>
       <c r="B48" s="20" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L48" s="23" t="s">
         <v>28</v>
@@ -2935,22 +2955,22 @@
     </row>
     <row r="49" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="39" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B49" s="29" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C49" s="23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D49" s="39" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="J49" s="23" t="s">
         <v>21</v>
       </c>
       <c r="L49" s="23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="50" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.25">
@@ -2958,16 +2978,16 @@
         <v>26</v>
       </c>
       <c r="B50" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="C50" s="71" t="s">
+        <v>254</v>
+      </c>
+      <c r="H50" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="C50" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="H50" s="23" t="s">
-        <v>112</v>
-      </c>
       <c r="I50" s="23" t="s">
-        <v>113</v>
+        <v>258</v>
       </c>
     </row>
     <row r="51" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.25">
@@ -2975,16 +2995,16 @@
         <v>26</v>
       </c>
       <c r="B51" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="C51" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="H51" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="C51" s="23" t="s">
-        <v>115</v>
-      </c>
-      <c r="H51" s="23" t="s">
-        <v>116</v>
-      </c>
       <c r="I51" s="23" t="s">
-        <v>113</v>
+        <v>258</v>
       </c>
     </row>
     <row r="52" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.25">
@@ -2992,16 +3012,16 @@
         <v>17</v>
       </c>
       <c r="B52" s="29" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C52" s="23" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H52" s="23" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="L52" s="23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="53" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.25">
@@ -3009,27 +3029,27 @@
         <v>17</v>
       </c>
       <c r="B53" s="29" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C53" s="23" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="L53" s="23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="54" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="39" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B54" s="29" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C54" s="23" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D54" s="39" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="55" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.25">
@@ -3043,10 +3063,10 @@
         <v>27</v>
       </c>
       <c r="B56" s="29" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C56" s="23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J56" s="23" t="s">
         <v>21</v>
@@ -3057,10 +3077,10 @@
         <v>27</v>
       </c>
       <c r="B57" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="C57" s="23" t="s">
-        <v>125</v>
+        <v>122</v>
+      </c>
+      <c r="C57" s="71" t="s">
+        <v>255</v>
       </c>
       <c r="J57" s="23" t="s">
         <v>21</v>
@@ -3071,10 +3091,10 @@
         <v>27</v>
       </c>
       <c r="B58" s="29" t="s">
-        <v>126</v>
-      </c>
-      <c r="C58" s="23" t="s">
-        <v>127</v>
+        <v>124</v>
+      </c>
+      <c r="C58" s="71" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="59" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.25">
@@ -3082,16 +3102,16 @@
         <v>26</v>
       </c>
       <c r="B59" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="C59" s="71" t="s">
+        <v>257</v>
+      </c>
+      <c r="H59" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="L59" s="23" t="s">
         <v>128</v>
-      </c>
-      <c r="C59" s="23" t="s">
-        <v>132</v>
-      </c>
-      <c r="H59" s="23" t="s">
-        <v>129</v>
-      </c>
-      <c r="L59" s="23" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="60" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.25">
@@ -3102,17 +3122,17 @@
     </row>
     <row r="61" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B61" s="35" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C61" s="34" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F61" s="34"/>
       <c r="H61" s="34" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="J61" s="33" t="s">
         <v>21</v>
@@ -3123,42 +3143,42 @@
         <v>29</v>
       </c>
       <c r="B62" s="20" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C62" s="34" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E62" s="34" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="63" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="64" t="s">
+        <v>232</v>
+      </c>
+      <c r="B63" s="67" t="s">
         <v>238</v>
       </c>
-      <c r="B63" s="67" t="s">
-        <v>244</v>
-      </c>
       <c r="C63" s="39" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="D63" s="39"/>
       <c r="J63" s="23" t="s">
         <v>21</v>
       </c>
       <c r="L63" s="64" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
     </row>
     <row r="64" spans="1:14" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="59" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B64" s="67" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="N64" s="63" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
     </row>
     <row r="65" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.25">
@@ -3166,10 +3186,10 @@
         <v>22</v>
       </c>
       <c r="B65" s="20" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L65" s="23" t="s">
         <v>28</v>
@@ -3177,22 +3197,22 @@
     </row>
     <row r="66" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="39" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B66" s="29" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C66" s="23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D66" s="39" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="J66" s="23" t="s">
         <v>21</v>
       </c>
       <c r="L66" s="23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="67" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.25">
@@ -3200,16 +3220,16 @@
         <v>26</v>
       </c>
       <c r="B67" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="C67" s="71" t="s">
+        <v>254</v>
+      </c>
+      <c r="H67" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="C67" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="H67" s="23" t="s">
-        <v>112</v>
-      </c>
-      <c r="I67" s="23" t="s">
-        <v>113</v>
+      <c r="I67" s="71" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="68" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.25">
@@ -3217,16 +3237,16 @@
         <v>26</v>
       </c>
       <c r="B68" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="C68" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="H68" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="C68" s="23" t="s">
-        <v>115</v>
-      </c>
-      <c r="H68" s="23" t="s">
-        <v>116</v>
-      </c>
       <c r="I68" s="23" t="s">
-        <v>113</v>
+        <v>258</v>
       </c>
     </row>
     <row r="69" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.25">
@@ -3234,16 +3254,16 @@
         <v>17</v>
       </c>
       <c r="B69" s="29" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C69" s="23" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H69" s="23" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="L69" s="23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="70" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.25">
@@ -3251,27 +3271,27 @@
         <v>17</v>
       </c>
       <c r="B70" s="29" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C70" s="23" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="L70" s="23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="71" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="39" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B71" s="29" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C71" s="23" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D71" s="39" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="72" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.25">
@@ -3285,10 +3305,10 @@
         <v>27</v>
       </c>
       <c r="B73" s="29" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C73" s="34" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="J73" s="23" t="s">
         <v>21</v>
@@ -3302,7 +3322,7 @@
         <v>32</v>
       </c>
       <c r="C74" s="23" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="J74" s="23" t="s">
         <v>21</v>
@@ -3316,10 +3336,10 @@
         <v>27</v>
       </c>
       <c r="B75" s="29" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C75" s="23" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="J75" s="23" t="s">
         <v>21</v>
@@ -3330,10 +3350,10 @@
         <v>27</v>
       </c>
       <c r="B76" s="29" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C76" s="23" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="77" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.25">
@@ -3341,16 +3361,16 @@
         <v>26</v>
       </c>
       <c r="B77" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="C77" s="71" t="s">
+        <v>257</v>
+      </c>
+      <c r="H77" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="L77" s="23" t="s">
         <v>128</v>
-      </c>
-      <c r="C77" s="23" t="s">
-        <v>132</v>
-      </c>
-      <c r="H77" s="23" t="s">
-        <v>129</v>
-      </c>
-      <c r="L77" s="23" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="78" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -3358,10 +3378,10 @@
         <v>26</v>
       </c>
       <c r="B78" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="C78" s="13" t="s">
         <v>48</v>
-      </c>
-      <c r="C78" s="13" t="s">
-        <v>49</v>
       </c>
       <c r="J78" s="12" t="s">
         <v>21</v>
@@ -3431,135 +3451,135 @@
     </row>
     <row r="4" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B4" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" s="28" t="s">
         <v>71</v>
-      </c>
-      <c r="C4" s="28" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B5" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="28" t="s">
         <v>57</v>
-      </c>
-      <c r="C5" s="28" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B6" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" s="28" t="s">
         <v>59</v>
-      </c>
-      <c r="C6" s="28" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B7" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" s="28" t="s">
         <v>65</v>
-      </c>
-      <c r="C7" s="28" t="s">
-        <v>66</v>
       </c>
       <c r="D7" s="15"/>
       <c r="E7" s="15"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="B8" s="27" t="s">
+      <c r="C8" s="28" t="s">
         <v>55</v>
-      </c>
-      <c r="C8" s="28" t="s">
-        <v>56</v>
       </c>
       <c r="D8" s="15"/>
       <c r="E8" s="15"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B9" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" s="28" t="s">
         <v>69</v>
-      </c>
-      <c r="C9" s="28" t="s">
-        <v>70</v>
       </c>
       <c r="D9" s="15"/>
       <c r="E9" s="15"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B10" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" s="28" t="s">
         <v>73</v>
-      </c>
-      <c r="C10" s="28" t="s">
-        <v>74</v>
       </c>
       <c r="D10" s="15"/>
       <c r="E10" s="15"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B11" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" s="28" t="s">
         <v>61</v>
-      </c>
-      <c r="C11" s="28" t="s">
-        <v>62</v>
       </c>
       <c r="D11" s="15"/>
       <c r="E11" s="15"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B12" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" s="28" t="s">
         <v>67</v>
-      </c>
-      <c r="C12" s="28" t="s">
-        <v>68</v>
       </c>
       <c r="D12" s="15"/>
       <c r="E12" s="15"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B13" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" s="28" t="s">
         <v>63</v>
-      </c>
-      <c r="C13" s="28" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="36" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B15" s="37" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C15" s="36" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -3584,13 +3604,13 @@
     </row>
     <row r="20" spans="1:3" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="65" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="B20" s="66" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C20" s="65" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -3619,7 +3639,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="41" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B1" s="41" t="s">
         <v>1</v>
@@ -3628,1661 +3648,1661 @@
         <v>2</v>
       </c>
       <c r="D1" s="41" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="E1" s="41" t="s">
-        <v>53</v>
-      </c>
       <c r="F1" s="41" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G1" s="41" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="41" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="41" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="41" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="41" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="41" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="41" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="41" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="41" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="41" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="41" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" s="41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" s="41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" s="41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" s="41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" s="41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" s="41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" s="41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" s="41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" s="41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" s="41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" s="41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" s="41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" s="41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" s="41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" s="41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" s="41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" s="41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" s="41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" s="41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" s="41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" s="41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" s="41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" s="41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" s="41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" s="41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" s="41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" s="41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" s="41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" s="41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" s="41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" s="41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" s="41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" s="41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" s="41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" s="41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" s="41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" s="41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" s="41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" s="41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" s="41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" s="41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" s="41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" s="41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" s="41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" s="41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" s="41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" s="41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" s="41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117" s="41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" s="41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" s="41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" s="41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" s="41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" s="41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123" s="41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" s="41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125" s="41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126" s="41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" s="41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128" s="41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129" s="41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" s="41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" s="41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132" s="41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133" s="41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134" s="41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135" s="41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136" s="41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137" s="41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138" s="41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139" s="41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140" s="41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141" s="41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142" s="41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143" s="41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A144" s="41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145" s="41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146" s="41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147" s="41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148" s="41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149" s="41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150" s="41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151" s="41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152" s="41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A153" s="41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154" s="41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155" s="41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A156" s="41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157" s="41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A158" s="41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A159" s="41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A160" s="41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161" s="41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A162" s="41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A164" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A165" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A166" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A167" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A168" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A169" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A170" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A171" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A172" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A173" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A174" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A175" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A176" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A177" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A178" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A179" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A180" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A181" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A182" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A183" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A184" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A185" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A186" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A187" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A188" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A189" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A190" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A191" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A192" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A193" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A194" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A195" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A196" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A197" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A198" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A199" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A200" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A201" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A202" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A203" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A204" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A205" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A206" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A207" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A208" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A209" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A210" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A211" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A212" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A213" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A214" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A215" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A216" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A217" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A218" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A219" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A220" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A221" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A222" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A223" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A224" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A225" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A226" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A227" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A228" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A229" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A230" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A231" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A232" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A233" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A234" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A235" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A236" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A237" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A238" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A239" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A240" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A241" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A242" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A243" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A244" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A245" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A246" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A247" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A248" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A249" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A250" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A251" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A252" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A253" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A254" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A255" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A256" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A257" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A258" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A259" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A260" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A261" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A262" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A263" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A264" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A265" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A266" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A267" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A268" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A269" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A270" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A271" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A272" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A273" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A274" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A275" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A276" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A277" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A278" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A279" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A280" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A281" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A282" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A283" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="284" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A284" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A285" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="286" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A286" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="287" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A287" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A288" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A289" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A290" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A291" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="292" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A292" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="293" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A293" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A294" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="295" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A295" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="296" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A296" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="297" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A297" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="298" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A298" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="299" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A299" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="300" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A300" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="301" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A301" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="302" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A302" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="303" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A303" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="304" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A304" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A305" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="306" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A306" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="307" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A307" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="308" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A308" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="309" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A309" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="310" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A310" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="311" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A311" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="312" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A312" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="313" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A313" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="314" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A314" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="315" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A315" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="316" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A316" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="317" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A317" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="318" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A318" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="319" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A319" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="320" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A320" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A321" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A322" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A323" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A324" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A325" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A326" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A327" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A328" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A329" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A330" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A331" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A332" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B332" s="42"/>
       <c r="C332" s="42"/>
@@ -5291,7 +5311,7 @@
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A333" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B333" s="42"/>
       <c r="C333" s="42"/>
@@ -5300,7 +5320,7 @@
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A334" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B334" s="42"/>
       <c r="C334" s="42"/>
@@ -5309,7 +5329,7 @@
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A335" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B335" s="42"/>
       <c r="C335" s="42"/>
@@ -5318,7 +5338,7 @@
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A336" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B336" s="42"/>
       <c r="C336" s="42"/>
@@ -5327,7 +5347,7 @@
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A337" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B337" s="42"/>
       <c r="C337" s="42"/>
@@ -5336,7 +5356,7 @@
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A338" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B338" s="42"/>
       <c r="C338" s="42"/>
@@ -5345,7 +5365,7 @@
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A339" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B339" s="42"/>
       <c r="C339" s="42"/>
@@ -5354,7 +5374,7 @@
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A340" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B340" s="42"/>
       <c r="C340" s="42"/>
@@ -5363,7 +5383,7 @@
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A341" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B341" s="42"/>
       <c r="C341" s="42"/>
@@ -5372,7 +5392,7 @@
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A342" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B342" s="42"/>
       <c r="C342" s="42"/>
@@ -5381,7 +5401,7 @@
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A343" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B343" s="42"/>
       <c r="C343" s="42"/>
@@ -5390,7 +5410,7 @@
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A344" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B344" s="42"/>
       <c r="C344" s="42"/>
@@ -5399,7 +5419,7 @@
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A345" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B345" s="42"/>
       <c r="C345" s="42"/>
@@ -5408,7 +5428,7 @@
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A346" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B346" s="42"/>
       <c r="C346" s="42"/>
@@ -5417,7 +5437,7 @@
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A347" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B347" s="42"/>
       <c r="C347" s="42"/>
@@ -5426,7 +5446,7 @@
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A348" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B348" s="42"/>
       <c r="C348" s="42"/>
@@ -5435,7 +5455,7 @@
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A349" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B349" s="42"/>
       <c r="C349" s="42"/>
@@ -5444,7 +5464,7 @@
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A350" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B350" s="42"/>
       <c r="C350" s="42"/>
@@ -5453,7 +5473,7 @@
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A351" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B351" s="42"/>
       <c r="C351" s="42"/>
@@ -5462,7 +5482,7 @@
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A352" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B352" s="42"/>
       <c r="C352" s="42"/>
@@ -5471,7 +5491,7 @@
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A353" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B353" s="42"/>
       <c r="C353" s="42"/>
@@ -5480,7 +5500,7 @@
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A354" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B354" s="42"/>
       <c r="C354" s="42"/>
@@ -5489,7 +5509,7 @@
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A355" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B355" s="42"/>
       <c r="C355" s="42"/>
@@ -5498,7 +5518,7 @@
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A356" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B356" s="42"/>
       <c r="C356" s="42"/>
@@ -5507,7 +5527,7 @@
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A357" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B357" s="42"/>
       <c r="C357" s="42"/>
@@ -5516,7 +5536,7 @@
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A358" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B358" s="42"/>
       <c r="C358" s="42"/>
@@ -5525,7 +5545,7 @@
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A359" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B359" s="42"/>
       <c r="C359" s="42"/>
@@ -5534,7 +5554,7 @@
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A360" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B360" s="42"/>
       <c r="C360" s="42"/>
@@ -5543,7 +5563,7 @@
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A361" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B361" s="42"/>
       <c r="C361" s="42"/>
@@ -5552,7 +5572,7 @@
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A362" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B362" s="42"/>
       <c r="C362" s="42"/>
@@ -5561,7 +5581,7 @@
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A363" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B363" s="42"/>
       <c r="C363" s="42"/>
@@ -5570,7 +5590,7 @@
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A364" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B364" s="42"/>
       <c r="C364" s="42"/>
@@ -5579,7 +5599,7 @@
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A365" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B365" s="42"/>
       <c r="C365" s="42"/>
@@ -5588,7 +5608,7 @@
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A366" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B366" s="42"/>
       <c r="C366" s="42"/>
@@ -5597,7 +5617,7 @@
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A367" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B367" s="42"/>
       <c r="C367" s="42"/>
@@ -5606,7 +5626,7 @@
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A368" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B368" s="42"/>
       <c r="C368" s="42"/>
@@ -5615,7 +5635,7 @@
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A369" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B369" s="42"/>
       <c r="C369" s="42"/>
@@ -5624,7 +5644,7 @@
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A370" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B370" s="42"/>
       <c r="C370" s="42"/>
@@ -5633,7 +5653,7 @@
     </row>
     <row r="371" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A371" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B371" s="42"/>
       <c r="C371" s="42"/>
@@ -5642,7 +5662,7 @@
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A372" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B372" s="42"/>
       <c r="C372" s="42"/>
@@ -5651,7 +5671,7 @@
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A373" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B373" s="42"/>
       <c r="C373" s="42"/>
@@ -5660,7 +5680,7 @@
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A374" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B374" s="42"/>
       <c r="C374" s="42"/>
@@ -5669,7 +5689,7 @@
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A375" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B375" s="42"/>
       <c r="C375" s="42"/>
@@ -5678,7 +5698,7 @@
     </row>
     <row r="376" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A376" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B376" s="42"/>
       <c r="C376" s="42"/>
@@ -5687,7 +5707,7 @@
     </row>
     <row r="377" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A377" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B377" s="42"/>
       <c r="C377" s="42"/>
@@ -5696,1050 +5716,1050 @@
     </row>
     <row r="378" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A378" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="379" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A379" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="380" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A380" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="381" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A381" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="382" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A382" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="383" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A383" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="384" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A384" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="385" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A385" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="386" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A386" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="387" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A387" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="388" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A388" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="389" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A389" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="390" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A390" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="391" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A391" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="392" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A392" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="393" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A393" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="394" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A394" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="395" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A395" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="396" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A396" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="397" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A397" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="398" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A398" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="399" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A399" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="400" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A400" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="401" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A401" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="402" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A402" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="403" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A403" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="404" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A404" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="405" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A405" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="406" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A406" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="407" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A407" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="408" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A408" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="409" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A409" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="410" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A410" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="411" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A411" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="412" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A412" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="413" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A413" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="414" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A414" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="415" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A415" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="416" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A416" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="417" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A417" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="418" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A418" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="419" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A419" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="420" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A420" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="421" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A421" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="422" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A422" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="423" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A423" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="424" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A424" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="425" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A425" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="426" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A426" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="427" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A427" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="428" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A428" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="429" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A429" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="430" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A430" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="431" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A431" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="432" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A432" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="433" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A433" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="434" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A434" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="435" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A435" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="436" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A436" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="437" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A437" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="438" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A438" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="439" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A439" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="440" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A440" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="441" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A441" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="442" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A442" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="443" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A443" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="444" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A444" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="445" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A445" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="446" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A446" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="447" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A447" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="448" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A448" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="449" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A449" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="450" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A450" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="451" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A451" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="452" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A452" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="453" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A453" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="454" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A454" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="455" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A455" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="456" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A456" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="457" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A457" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="458" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A458" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="459" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A459" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="460" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A460" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="461" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A461" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="462" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A462" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="463" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A463" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="464" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A464" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="465" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A465" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="466" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A466" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="467" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A467" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="468" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A468" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="469" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A469" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="470" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A470" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="471" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A471" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="472" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A472" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="473" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A473" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="474" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A474" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="475" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A475" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="476" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A476" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="477" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A477" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="478" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A478" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="479" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A479" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="480" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A480" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="481" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A481" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="482" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A482" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="483" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A483" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="484" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A484" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="485" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A485" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="486" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A486" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="487" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A487" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="488" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A488" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="489" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A489" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="490" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A490" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="491" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A491" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="492" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A492" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="493" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A493" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="494" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A494" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="495" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A495" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="496" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A496" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="497" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A497" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="498" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A498" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="499" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A499" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="500" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A500" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="501" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A501" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="502" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A502" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="503" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A503" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="504" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A504" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="505" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A505" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="506" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A506" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="507" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A507" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="508" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A508" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="509" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A509" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="510" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A510" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="511" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A511" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="512" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A512" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="513" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A513" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="514" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A514" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="515" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A515" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="516" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A516" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="517" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A517" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="518" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A518" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="519" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A519" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="520" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A520" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="521" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A521" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="522" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A522" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="523" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A523" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="524" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A524" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="525" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A525" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="526" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A526" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="527" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A527" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="528" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A528" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="529" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A529" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="530" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A530" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="531" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A531" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="532" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A532" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="533" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A533" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="534" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A534" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="535" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A535" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="536" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A536" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="537" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A537" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="538" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A538" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="539" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A539" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="540" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A540" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="541" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A541" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="542" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A542" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="543" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A543" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="544" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A544" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="545" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A545" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="546" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A546" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="547" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A547" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="548" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A548" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="549" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A549" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="550" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A550" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="551" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A551" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="552" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A552" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="553" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A553" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="554" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A554" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="555" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A555" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="556" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A556" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="557" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A557" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="558" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A558" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="559" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A559" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="560" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A560" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="561" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A561" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="562" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A562" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="563" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A563" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="564" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A564" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="565" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A565" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="566" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A566" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="567" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A567" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="568" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A568" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="569" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A569" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="570" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A570" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="571" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A571" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="572" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A572" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="573" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A573" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="574" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A574" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="575" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A575" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="576" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A576" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="577" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A577" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="578" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A578" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="579" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A579" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="580" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A580" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="581" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A581" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="582" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A582" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="584" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A584" s="41" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B584" s="43"/>
     </row>
     <row r="585" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A585" s="41" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B585" s="43"/>
     </row>
     <row r="586" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A586" s="41" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B586" s="43"/>
     </row>
     <row r="587" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A587" s="41" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B587" s="43"/>
     </row>
@@ -6748,19 +6768,19 @@
     </row>
     <row r="589" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A589" s="41" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B589" s="43"/>
     </row>
     <row r="590" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A590" s="41" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B590" s="43"/>
     </row>
     <row r="591" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A591" s="41" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B591" s="43"/>
     </row>
@@ -6853,13 +6873,13 @@
     </row>
     <row r="608" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A608" s="41" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B608" s="43"/>
     </row>
     <row r="609" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A609" s="41" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B609" s="43"/>
     </row>
@@ -6868,25 +6888,25 @@
     </row>
     <row r="611" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A611" s="41" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B611" s="43"/>
     </row>
     <row r="612" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A612" s="41" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B612" s="43"/>
     </row>
     <row r="613" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A613" s="41" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B613" s="43"/>
     </row>
     <row r="614" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A614" s="41" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B614" s="43"/>
     </row>
@@ -6895,31 +6915,31 @@
     </row>
     <row r="616" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A616" s="41" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B616" s="43"/>
     </row>
     <row r="617" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A617" s="41" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B617" s="43"/>
     </row>
     <row r="618" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A618" s="41" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B618" s="43"/>
     </row>
     <row r="619" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A619" s="41" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B619" s="43"/>
     </row>
     <row r="620" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A620" s="41" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B620" s="43"/>
     </row>
@@ -6928,131 +6948,131 @@
     </row>
     <row r="622" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A622" s="41" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B622" s="43"/>
     </row>
     <row r="623" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A623" s="41" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B623" s="43"/>
     </row>
     <row r="626" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A626" s="44" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B626" s="43"/>
       <c r="C626" s="44"/>
     </row>
     <row r="627" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A627" s="44" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B627" s="43"/>
       <c r="C627" s="44"/>
     </row>
     <row r="628" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A628" s="44" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B628" s="43"/>
       <c r="C628" s="44"/>
     </row>
     <row r="629" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A629" s="44" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B629" s="43"/>
       <c r="C629" s="44"/>
     </row>
     <row r="630" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A630" s="44" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B630" s="43"/>
       <c r="C630" s="44"/>
     </row>
     <row r="631" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A631" s="44" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B631" s="43"/>
       <c r="C631" s="44"/>
     </row>
     <row r="632" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A632" s="44" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B632" s="43"/>
       <c r="C632" s="44"/>
     </row>
     <row r="633" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A633" s="44" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B633" s="43"/>
       <c r="C633" s="44"/>
     </row>
     <row r="634" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A634" s="44" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B634" s="43"/>
       <c r="C634" s="44"/>
     </row>
     <row r="635" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A635" s="44" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B635" s="43"/>
       <c r="C635" s="44"/>
     </row>
     <row r="636" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A636" s="44" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B636" s="43"/>
       <c r="C636" s="44"/>
     </row>
     <row r="637" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A637" s="44" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B637" s="43"/>
       <c r="C637" s="44"/>
     </row>
     <row r="638" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A638" s="44" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B638" s="43"/>
       <c r="C638" s="44"/>
     </row>
     <row r="639" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A639" s="44" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B639" s="43"/>
       <c r="C639" s="44"/>
     </row>
     <row r="640" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A640" s="44" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B640" s="43"/>
       <c r="C640" s="44"/>
     </row>
     <row r="641" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A641" s="44" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B641" s="43"/>
       <c r="C641" s="44"/>
     </row>
     <row r="642" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A642" s="44" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B642" s="43"/>
       <c r="C642" s="44"/>
@@ -7064,168 +7084,168 @@
     </row>
     <row r="644" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A644" s="44" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B644" s="45"/>
       <c r="C644" s="44"/>
     </row>
     <row r="645" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A645" s="44" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B645" s="45"/>
       <c r="C645" s="44"/>
     </row>
     <row r="647" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A647" s="44" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B647" s="43"/>
       <c r="C647" s="44"/>
     </row>
     <row r="648" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A648" s="44" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B648" s="43"/>
       <c r="C648" s="44"/>
     </row>
     <row r="649" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A649" s="44" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B649" s="43"/>
       <c r="C649" s="44"/>
     </row>
     <row r="650" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A650" s="44" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B650" s="43"/>
       <c r="C650" s="44"/>
     </row>
     <row r="651" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A651" s="44" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B651" s="43"/>
       <c r="C651" s="44"/>
     </row>
     <row r="652" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A652" s="44" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B652" s="43"/>
       <c r="C652" s="44"/>
     </row>
     <row r="653" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A653" s="44" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B653" s="43"/>
       <c r="C653" s="44"/>
     </row>
     <row r="654" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A654" s="44" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B654" s="43"/>
       <c r="C654" s="44"/>
     </row>
     <row r="655" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A655" s="44" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B655" s="43"/>
       <c r="C655" s="44"/>
     </row>
     <row r="656" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A656" s="44" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B656" s="43"/>
       <c r="C656" s="44"/>
     </row>
     <row r="657" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A657" s="44" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B657" s="43"/>
       <c r="C657" s="44"/>
     </row>
     <row r="658" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A658" s="44" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B658" s="43"/>
       <c r="C658" s="44"/>
     </row>
     <row r="659" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A659" s="44" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B659" s="43"/>
       <c r="C659" s="44"/>
     </row>
     <row r="660" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A660" s="44" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B660" s="43"/>
       <c r="C660" s="44"/>
     </row>
     <row r="661" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A661" s="44" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B661" s="43"/>
       <c r="C661" s="44"/>
     </row>
     <row r="662" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A662" s="44" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B662" s="43"/>
       <c r="C662" s="44"/>
     </row>
     <row r="663" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A663" s="44" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B663" s="43"/>
       <c r="C663" s="44"/>
     </row>
     <row r="664" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A664" s="44" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B664" s="43"/>
       <c r="C664" s="44"/>
     </row>
     <row r="665" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A665" s="44" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B665" s="43"/>
       <c r="C665" s="44"/>
     </row>
     <row r="668" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A668" s="44" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B668" s="43"/>
       <c r="C668" s="44"/>
     </row>
     <row r="669" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A669" s="44" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B669" s="43"/>
       <c r="C669" s="44"/>
     </row>
     <row r="670" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A670" s="44" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B670" s="43"/>
       <c r="C670" s="44"/>
@@ -7242,483 +7262,483 @@
     </row>
     <row r="673" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A673" s="44" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B673" s="43"/>
       <c r="C673" s="44"/>
     </row>
     <row r="674" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A674" s="44" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B674" s="43"/>
       <c r="C674" s="44"/>
     </row>
     <row r="675" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A675" s="44" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B675" s="43"/>
       <c r="C675" s="44"/>
     </row>
     <row r="676" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A676" s="44" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B676" s="43"/>
       <c r="C676" s="44"/>
     </row>
     <row r="677" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A677" s="44" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B677" s="43"/>
       <c r="C677" s="44"/>
     </row>
     <row r="678" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A678" s="44" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B678" s="43"/>
       <c r="C678" s="44"/>
     </row>
     <row r="679" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A679" s="44" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B679" s="43"/>
       <c r="C679" s="44"/>
     </row>
     <row r="680" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A680" s="44" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B680" s="43"/>
       <c r="C680" s="44"/>
     </row>
     <row r="681" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A681" s="44" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B681" s="43"/>
       <c r="C681" s="44"/>
     </row>
     <row r="682" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A682" s="44" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B682" s="43"/>
       <c r="C682" s="44"/>
     </row>
     <row r="684" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A684" s="44" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B684" s="43"/>
       <c r="C684" s="44"/>
     </row>
     <row r="685" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A685" s="44" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B685" s="43"/>
       <c r="C685" s="44"/>
     </row>
     <row r="686" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A686" s="44" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B686" s="43"/>
       <c r="C686" s="44"/>
     </row>
     <row r="687" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A687" s="44" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B687" s="43"/>
       <c r="C687" s="44"/>
     </row>
     <row r="688" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A688" s="44" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B688" s="43"/>
       <c r="C688" s="44"/>
     </row>
     <row r="689" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A689" s="44" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B689" s="43"/>
       <c r="C689" s="44"/>
     </row>
     <row r="690" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A690" s="44" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B690" s="43"/>
       <c r="C690" s="44"/>
     </row>
     <row r="691" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A691" s="44" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B691" s="43"/>
       <c r="C691" s="44"/>
     </row>
     <row r="692" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A692" s="44" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B692" s="43"/>
       <c r="C692" s="44"/>
     </row>
     <row r="693" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A693" s="44" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B693" s="43"/>
       <c r="C693" s="44"/>
     </row>
     <row r="694" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A694" s="44" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B694" s="43"/>
       <c r="C694" s="44"/>
     </row>
     <row r="696" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A696" s="44" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B696" s="43"/>
       <c r="C696" s="44"/>
     </row>
     <row r="697" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A697" s="44" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B697" s="43"/>
       <c r="C697" s="44"/>
     </row>
     <row r="698" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A698" s="44" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B698" s="43"/>
       <c r="C698" s="44"/>
     </row>
     <row r="699" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A699" s="44" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B699" s="43"/>
       <c r="C699" s="44"/>
     </row>
     <row r="700" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A700" s="44" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B700" s="43"/>
       <c r="C700" s="44"/>
     </row>
     <row r="701" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A701" s="44" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B701" s="43"/>
       <c r="C701" s="44"/>
     </row>
     <row r="702" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A702" s="44" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B702" s="43"/>
       <c r="C702" s="44"/>
     </row>
     <row r="703" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A703" s="44" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B703" s="43"/>
       <c r="C703" s="44"/>
     </row>
     <row r="704" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A704" s="44" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B704" s="43"/>
       <c r="C704" s="44"/>
     </row>
     <row r="705" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A705" s="44" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B705" s="43"/>
       <c r="C705" s="44"/>
     </row>
     <row r="706" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A706" s="44" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B706" s="43"/>
       <c r="C706" s="44"/>
     </row>
     <row r="707" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A707" s="44" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B707" s="43"/>
       <c r="C707" s="44"/>
     </row>
     <row r="709" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A709" s="44" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B709" s="43"/>
       <c r="C709" s="44"/>
     </row>
     <row r="710" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A710" s="44" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B710" s="43"/>
       <c r="C710" s="44"/>
     </row>
     <row r="711" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A711" s="44" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B711" s="43"/>
       <c r="C711" s="44"/>
     </row>
     <row r="712" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A712" s="44" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B712" s="43"/>
       <c r="C712" s="44"/>
     </row>
     <row r="714" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A714" s="44" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B714" s="43"/>
       <c r="C714" s="44"/>
     </row>
     <row r="715" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A715" s="44" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B715" s="43"/>
       <c r="C715" s="44"/>
     </row>
     <row r="716" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A716" s="44" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B716" s="43"/>
       <c r="C716" s="44"/>
     </row>
     <row r="717" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A717" s="44" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B717" s="43"/>
       <c r="C717" s="44"/>
     </row>
     <row r="718" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A718" s="44" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B718" s="43"/>
       <c r="C718" s="44"/>
     </row>
     <row r="719" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A719" s="44" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B719" s="43"/>
       <c r="C719" s="44"/>
     </row>
     <row r="720" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A720" s="44" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B720" s="43"/>
       <c r="C720" s="44"/>
     </row>
     <row r="721" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A721" s="44" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B721" s="43"/>
       <c r="C721" s="44"/>
     </row>
     <row r="722" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A722" s="44" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B722" s="43"/>
       <c r="C722" s="44"/>
     </row>
     <row r="723" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A723" s="44" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B723" s="43"/>
       <c r="C723" s="44"/>
     </row>
     <row r="724" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A724" s="44" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B724" s="43"/>
       <c r="C724" s="44"/>
     </row>
     <row r="725" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A725" s="44" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B725" s="43"/>
       <c r="C725" s="44"/>
     </row>
     <row r="726" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A726" s="44" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B726" s="43"/>
       <c r="C726" s="44"/>
     </row>
     <row r="727" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A727" s="44" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B727" s="43"/>
       <c r="C727" s="44"/>
     </row>
     <row r="728" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A728" s="44" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B728" s="43"/>
       <c r="C728" s="44"/>
     </row>
     <row r="729" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A729" s="44" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B729" s="43"/>
       <c r="C729" s="44"/>
     </row>
     <row r="730" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A730" s="44" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B730" s="43"/>
       <c r="C730" s="44"/>
     </row>
     <row r="731" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A731" s="44" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B731" s="43"/>
       <c r="C731" s="44"/>
     </row>
     <row r="732" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A732" s="44" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B732" s="43"/>
       <c r="C732" s="44"/>
     </row>
     <row r="733" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A733" s="44" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B733" s="43"/>
       <c r="C733" s="44"/>
     </row>
     <row r="734" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A734" s="44" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B734" s="43"/>
       <c r="C734" s="44"/>
     </row>
     <row r="735" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A735" s="44" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B735" s="43"/>
       <c r="C735" s="44"/>
     </row>
     <row r="736" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A736" s="44" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B736" s="43"/>
       <c r="C736" s="44"/>
     </row>
     <row r="737" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A737" s="44" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B737" s="43"/>
       <c r="C737" s="44"/>
     </row>
     <row r="738" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A738" s="44" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B738" s="43"/>
       <c r="C738" s="44"/>
     </row>
     <row r="739" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A739" s="44" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B739" s="43"/>
       <c r="C739" s="44"/>
     </row>
     <row r="740" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A740" s="44" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B740" s="43"/>
       <c r="C740" s="44"/>
     </row>
     <row r="742" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A742" s="44" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B742" s="43"/>
       <c r="C742" s="44"/>
     </row>
     <row r="743" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A743" s="44" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B743" s="43"/>
       <c r="C743" s="44"/>
     </row>
     <row r="744" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A744" s="44" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B744" s="43"/>
       <c r="C744" s="44"/>
     </row>
     <row r="745" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A745" s="44" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B745" s="43"/>
       <c r="C745" s="44"/>
     </row>
     <row r="746" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A746" s="44" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B746" s="43"/>
       <c r="C746" s="44"/>
@@ -7730,63 +7750,63 @@
     </row>
     <row r="748" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A748" s="44" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B748" s="43"/>
       <c r="C748" s="44"/>
     </row>
     <row r="749" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A749" s="44" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B749" s="43"/>
       <c r="C749" s="44"/>
     </row>
     <row r="750" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A750" s="44" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B750" s="43"/>
       <c r="C750" s="44"/>
     </row>
     <row r="751" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A751" s="44" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B751" s="43"/>
       <c r="C751" s="44"/>
     </row>
     <row r="752" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A752" s="44" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B752" s="43"/>
       <c r="C752" s="44"/>
     </row>
     <row r="753" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A753" s="44" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B753" s="43"/>
       <c r="C753" s="44"/>
     </row>
     <row r="754" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A754" s="44" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B754" s="43"/>
       <c r="C754" s="44"/>
     </row>
     <row r="755" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A755" s="44" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B755" s="43"/>
       <c r="C755" s="44"/>
     </row>
     <row r="756" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A756" s="44" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B756" s="43"/>
       <c r="C756" s="44"/>
@@ -7798,112 +7818,112 @@
     </row>
     <row r="758" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A758" s="44" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B758" s="43"/>
       <c r="C758" s="44"/>
     </row>
     <row r="759" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A759" s="44" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B759" s="43"/>
       <c r="C759" s="44"/>
     </row>
     <row r="760" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A760" s="44" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B760" s="43"/>
       <c r="C760" s="44"/>
     </row>
     <row r="761" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A761" s="44" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B761" s="43"/>
       <c r="C761" s="44"/>
     </row>
     <row r="762" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A762" s="44" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B762" s="43"/>
       <c r="C762" s="44"/>
     </row>
     <row r="763" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A763" s="44" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B763" s="43"/>
       <c r="C763" s="44"/>
     </row>
     <row r="764" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A764" s="44" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B764" s="43"/>
       <c r="C764" s="44"/>
     </row>
     <row r="765" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A765" s="44" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B765" s="43"/>
       <c r="C765" s="44"/>
     </row>
     <row r="766" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A766" s="44" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B766" s="43"/>
       <c r="C766" s="44"/>
     </row>
     <row r="767" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A767" s="44" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B767" s="43"/>
       <c r="C767" s="44"/>
     </row>
     <row r="768" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A768" s="44" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B768" s="43"/>
       <c r="C768" s="44"/>
     </row>
     <row r="769" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A769" s="44" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B769" s="43"/>
       <c r="C769" s="44"/>
     </row>
     <row r="770" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A770" s="44" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B770" s="43"/>
       <c r="C770" s="44"/>
     </row>
     <row r="771" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A771" s="44" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B771" s="43"/>
       <c r="C771" s="44"/>
     </row>
     <row r="772" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A772" s="44" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B772" s="43"/>
       <c r="C772" s="44"/>
     </row>
     <row r="773" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A773" s="44" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B773" s="43"/>
       <c r="C773" s="44"/>
@@ -7915,147 +7935,147 @@
     </row>
     <row r="775" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A775" s="44" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B775" s="43"/>
       <c r="C775" s="44"/>
     </row>
     <row r="776" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A776" s="44" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B776" s="43"/>
       <c r="C776" s="44"/>
     </row>
     <row r="777" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A777" s="44" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B777" s="43"/>
       <c r="C777" s="44"/>
     </row>
     <row r="778" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A778" s="44" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B778" s="43"/>
       <c r="C778" s="44"/>
     </row>
     <row r="779" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A779" s="44" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B779" s="43"/>
       <c r="C779" s="44"/>
     </row>
     <row r="780" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A780" s="44" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B780" s="43"/>
       <c r="C780" s="44"/>
     </row>
     <row r="781" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A781" s="44" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B781" s="43"/>
       <c r="C781" s="44"/>
     </row>
     <row r="782" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A782" s="44" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B782" s="43"/>
       <c r="C782" s="44"/>
     </row>
     <row r="783" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A783" s="44" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B783" s="43"/>
       <c r="C783" s="44"/>
     </row>
     <row r="784" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A784" s="44" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B784" s="43"/>
       <c r="C784" s="44"/>
     </row>
     <row r="785" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A785" s="44" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B785" s="43"/>
       <c r="C785" s="44"/>
     </row>
     <row r="786" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A786" s="44" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B786" s="43"/>
       <c r="C786" s="44"/>
     </row>
     <row r="787" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A787" s="44" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B787" s="43"/>
       <c r="C787" s="44"/>
     </row>
     <row r="788" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A788" s="44" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B788" s="43"/>
       <c r="C788" s="44"/>
     </row>
     <row r="789" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A789" s="44" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B789" s="43"/>
       <c r="C789" s="44"/>
     </row>
     <row r="790" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A790" s="44" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B790" s="43"/>
       <c r="C790" s="44"/>
     </row>
     <row r="791" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A791" s="44" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B791" s="43"/>
       <c r="C791" s="44"/>
     </row>
     <row r="792" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A792" s="44" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B792" s="43"/>
       <c r="C792" s="44"/>
     </row>
     <row r="793" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A793" s="44" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B793" s="43"/>
       <c r="C793" s="44"/>
     </row>
     <row r="794" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A794" s="44" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B794" s="43"/>
       <c r="C794" s="44"/>
     </row>
     <row r="795" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A795" s="44" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B795" s="43"/>
       <c r="C795" s="44"/>
@@ -8067,14 +8087,14 @@
     </row>
     <row r="797" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A797" s="44" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B797" s="43"/>
       <c r="C797" s="44"/>
     </row>
     <row r="798" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A798" s="44" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B798" s="43"/>
       <c r="C798" s="44"/>
@@ -8086,21 +8106,21 @@
     </row>
     <row r="800" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A800" s="44" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B800" s="43"/>
       <c r="C800" s="44"/>
     </row>
     <row r="801" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A801" s="44" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B801" s="43"/>
       <c r="C801" s="44"/>
     </row>
     <row r="803" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A803" s="44" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B803" s="43"/>
       <c r="C803" s="44"/>
@@ -8110,7 +8130,7 @@
     </row>
     <row r="804" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A804" s="44" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B804" s="43"/>
       <c r="C804" s="44"/>
@@ -8120,7 +8140,7 @@
     </row>
     <row r="805" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A805" s="44" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B805" s="43"/>
       <c r="C805" s="44"/>
@@ -8130,7 +8150,7 @@
     </row>
     <row r="806" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A806" s="44" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B806" s="43"/>
       <c r="C806" s="44"/>
@@ -8140,7 +8160,7 @@
     </row>
     <row r="807" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A807" s="44" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B807" s="43"/>
       <c r="C807" s="44"/>
@@ -8150,7 +8170,7 @@
     </row>
     <row r="808" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A808" s="44" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B808" s="43"/>
       <c r="C808" s="44"/>
@@ -8160,7 +8180,7 @@
     </row>
     <row r="809" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A809" s="44" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B809" s="43"/>
       <c r="C809" s="44"/>
@@ -8170,7 +8190,7 @@
     </row>
     <row r="810" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A810" s="44" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B810" s="43"/>
       <c r="C810" s="44"/>
@@ -8180,7 +8200,7 @@
     </row>
     <row r="811" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A811" s="44" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B811" s="43"/>
       <c r="C811" s="44"/>
@@ -8190,7 +8210,7 @@
     </row>
     <row r="812" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A812" s="44" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B812" s="43"/>
       <c r="C812" s="44"/>
@@ -8200,194 +8220,194 @@
     </row>
     <row r="814" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A814" s="41" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B814" s="43"/>
       <c r="C814" s="44"/>
     </row>
     <row r="815" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A815" s="41" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B815" s="43"/>
       <c r="C815" s="44"/>
     </row>
     <row r="816" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A816" s="41" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B816" s="43"/>
       <c r="C816" s="44"/>
     </row>
     <row r="817" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A817" s="41" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B817" s="43"/>
       <c r="C817" s="44"/>
     </row>
     <row r="818" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A818" s="41" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B818" s="43"/>
       <c r="C818" s="44"/>
     </row>
     <row r="819" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A819" s="41" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B819" s="43"/>
       <c r="C819" s="44"/>
     </row>
     <row r="820" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A820" s="41" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B820" s="43"/>
       <c r="C820" s="44"/>
     </row>
     <row r="822" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A822" s="44" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B822" s="43"/>
       <c r="C822" s="44"/>
     </row>
     <row r="823" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A823" s="44" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B823" s="43"/>
       <c r="C823" s="44"/>
     </row>
     <row r="824" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A824" s="44" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B824" s="43"/>
       <c r="C824" s="44"/>
     </row>
     <row r="825" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A825" s="44" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B825" s="43"/>
       <c r="C825" s="44"/>
     </row>
     <row r="826" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A826" s="44" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B826" s="43"/>
       <c r="C826" s="44"/>
     </row>
     <row r="828" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A828" s="41" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B828" s="43"/>
       <c r="C828" s="46"/>
     </row>
     <row r="829" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A829" s="41" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B829" s="43"/>
       <c r="C829" s="44"/>
     </row>
     <row r="830" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A830" s="41" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B830" s="43"/>
       <c r="C830" s="44"/>
     </row>
     <row r="831" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A831" s="41" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B831" s="43"/>
       <c r="C831" s="44"/>
     </row>
     <row r="832" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A832" s="41" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B832" s="43"/>
       <c r="C832" s="44"/>
     </row>
     <row r="833" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A833" s="41" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B833" s="43"/>
       <c r="C833" s="44"/>
     </row>
     <row r="834" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A834" s="41" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B834" s="43"/>
       <c r="C834" s="44"/>
     </row>
     <row r="835" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A835" s="44" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B835" s="43"/>
       <c r="C835" s="44"/>
     </row>
     <row r="837" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A837" s="41" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B837" s="43"/>
       <c r="C837" s="46"/>
     </row>
     <row r="838" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A838" s="41" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B838" s="43"/>
       <c r="C838" s="44"/>
     </row>
     <row r="839" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A839" s="41" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B839" s="43"/>
       <c r="C839" s="44"/>
     </row>
     <row r="840" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A840" s="41" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B840" s="43"/>
       <c r="C840" s="44"/>
     </row>
     <row r="842" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A842" s="44" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B842" s="43"/>
       <c r="C842" s="44"/>
     </row>
     <row r="843" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A843" s="44" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B843" s="43"/>
       <c r="C843" s="44"/>
     </row>
     <row r="845" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A845" s="56" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
     </row>
     <row r="846" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A846" s="56" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -8400,7 +8420,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -8422,10 +8442,10 @@
         <v>19</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>24</v>
@@ -8433,25 +8453,20 @@
     </row>
     <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>149</v>
+        <v>252</v>
       </c>
       <c r="C2" s="47">
-        <v>2022092001</v>
-      </c>
-      <c r="D2" s="48" t="s">
-        <v>253</v>
-      </c>
+        <v>2023316</v>
+      </c>
+      <c r="D2" s="48"/>
       <c r="E2" s="64" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" display="http://cavateco.terrafirma.co.mz:8080/sandbox/submission" xr:uid="{21B892C1-E1CD-46A6-B2CA-765799C0D354}"/>
-  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>

--- a/xlsx/CaVaTeCo/form_h_assinantes_at_forms.xlsx
+++ b/xlsx/CaVaTeCo/form_h_assinantes_at_forms.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26501"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Terra_Share\projects\CaVaTeCo_Collect\projects\A_CaVaTeCo_projects\odk_forms_wcs_nampula\xlsx\CaVaTeCo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D620AA02-84D5-4DC1-9854-D142D59C00C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38115CFA-FFC0-42E6-8336-4BCBE74482CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17496" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1222" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1226" uniqueCount="260">
   <si>
     <t>type</t>
   </si>
@@ -291,9 +291,6 @@
     <t>Selecionar a associação</t>
   </si>
   <si>
-    <t>assocs</t>
-  </si>
-  <si>
     <t>post_id</t>
   </si>
   <si>
@@ -465,15 +462,9 @@
     <t>${facilitator_number}</t>
   </si>
   <si>
-    <t>tec_name_sign</t>
-  </si>
-  <si>
     <t xml:space="preserve">Form H - Registrar assinantes de formulários do AT </t>
   </si>
   <si>
-    <t>assoc_id_key</t>
-  </si>
-  <si>
     <t>assoc_name</t>
   </si>
   <si>
@@ -511,18 +502,6 @@
   </si>
   <si>
     <t>select_one_external documents</t>
-  </si>
-  <si>
-    <t>name_id_key</t>
-  </si>
-  <si>
-    <t>enumerator_name</t>
-  </si>
-  <si>
-    <t>select_one assocs</t>
-  </si>
-  <si>
-    <t>Introduza o nome do facilitador que vai assinar&lt;br&gt;Nome do(a) técnico(a):</t>
   </si>
   <si>
     <t>themes</t>
@@ -731,9 +710,6 @@
     <t>searchtext</t>
   </si>
   <si>
-    <t>select_one enum_name_id</t>
-  </si>
-  <si>
     <t>enum_name_id</t>
   </si>
   <si>
@@ -749,28 +725,7 @@
     <t>concat('AT_signatories','_',${assoc_name})</t>
   </si>
   <si>
-    <t>tec_id_sign</t>
-  </si>
-  <si>
     <t>. &lt;= today()</t>
-  </si>
-  <si>
-    <t>search('enum_names_wcs_nampula', 'startswith', 'enumerator_name', ${searchtext})</t>
-  </si>
-  <si>
-    <t>pulldata('enum_names_wcs_nampula', 'enumerator_name', 'name_id_key', ${enum_name_id})</t>
-  </si>
-  <si>
-    <t>search('assoc_names_wcs_nampula', 'matches', 'post_id', ${post_id})</t>
-  </si>
-  <si>
-    <t>pulldata('assoc_names_wcs_nampula', 'assoc_name', 'assoc_id_key', ${assoc_id})</t>
-  </si>
-  <si>
-    <t>search('enum_names_wcs_nampula')</t>
-  </si>
-  <si>
-    <t>pulldata('enum_names_wcs_nampula', 'enumerator_name', 'name_id_key', ${tec_id_sign})</t>
   </si>
   <si>
     <t>terrafirma_wcs.jpg</t>
@@ -821,7 +776,46 @@
     <t>"WCS - Futuro Azul"</t>
   </si>
   <si>
-    <t>Digite a primeira letra do seu nome para filtrar a lista de enumeradores já registados:</t>
+    <t>Digite a primeira letra do seu nome para filtrar a lista de enumeradores já registadas:</t>
+  </si>
+  <si>
+    <t>select_one_from_file enum_names.csv</t>
+  </si>
+  <si>
+    <t>starts-with(label,${searchtext})</t>
+  </si>
+  <si>
+    <t>instance('enum_names')/root/item[name=${enum_name_id}]/enumerator_name</t>
+  </si>
+  <si>
+    <t>searchtext_1</t>
+  </si>
+  <si>
+    <t>Digite a primeira letra da associação para filtrar a lista de associações já registadas:</t>
+  </si>
+  <si>
+    <t>select_one_from_file assoc_names.csv</t>
+  </si>
+  <si>
+    <t>starts-with(label,${searchtext_1})</t>
+  </si>
+  <si>
+    <t>&lt;h3&gt;Se o nome &lt;span style="color:#FF6347"&gt;não aparece&lt;/span&gt; em baixo, quer dizer que ainda não foi feito o registo da associação, ou que houve problema na actualização do sistema. Não será possível continuar. Deve conferir o registo de associação através do 'Formulário F - Registo de Associação', e depois actualizar os dados, e voltar a repetir o registo de membros mais tarde.  Pode fechar o Formulário sem gravar.</t>
+  </si>
+  <si>
+    <t>instance('assoc_names')/root/item[name=${assoc_id}]/assoc_name</t>
+  </si>
+  <si>
+    <t>searchtext_2</t>
+  </si>
+  <si>
+    <t>enum_name_id_sign</t>
+  </si>
+  <si>
+    <t>enum_name_sign</t>
+  </si>
+  <si>
+    <t>starts-with(label,${searchtext_2})</t>
   </si>
 </sst>
 </file>
@@ -1356,7 +1350,7 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1459,9 +1453,6 @@
     <xf numFmtId="0" fontId="28" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="0" xfId="245" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1489,16 +1480,9 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1513,6 +1497,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="245" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="247">
@@ -2099,39 +2089,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S80"/>
+  <dimension ref="A1:S82"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C46" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C14" sqref="C14"/>
+      <selection pane="bottomRight" activeCell="F65" sqref="F65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.75" style="3" customWidth="1"/>
-    <col min="2" max="2" width="20.25" style="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="66.625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="38.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.69921875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="20.19921875" style="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="66.59765625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="38.69921875" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="62.625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="62.59765625" style="3" customWidth="1"/>
     <col min="7" max="7" width="21.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.59765625" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.3984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.59765625" style="3" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.875" style="3" customWidth="1"/>
-    <col min="14" max="14" width="9.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.8984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.8984375" style="3" customWidth="1"/>
+    <col min="14" max="14" width="9.19921875" style="3" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="11.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="19.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="20.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.8984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.09765625" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="20.19921875" style="3" bestFit="1" customWidth="1"/>
     <col min="19" max="16384" width="11" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="9" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" s="9" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -2169,7 +2159,7 @@
         <v>10</v>
       </c>
       <c r="M1" s="8" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="N1" s="6" t="s">
         <v>11</v>
@@ -2178,7 +2168,7 @@
         <v>12</v>
       </c>
       <c r="P1" s="6" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="Q1" s="6" t="s">
         <v>13</v>
@@ -2186,11 +2176,11 @@
       <c r="R1" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="S1" s="49" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S1" s="48" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="23" t="s">
         <v>16</v>
       </c>
@@ -2198,40 +2188,40 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="C4" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="B4" s="29" t="s">
-        <v>89</v>
-      </c>
-      <c r="C4" s="23" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:19" s="39" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="39" t="s">
         <v>82</v>
       </c>
       <c r="B5" s="40" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="N5" s="39" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" s="50" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="50" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" s="49" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="49" t="s">
         <v>82</v>
       </c>
-      <c r="B6" s="51" t="s">
-        <v>192</v>
-      </c>
-      <c r="N6" s="57" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="50" t="s">
+        <v>185</v>
+      </c>
+      <c r="N6" s="56" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="23" t="s">
         <v>82</v>
       </c>
@@ -2239,109 +2229,107 @@
         <v>83</v>
       </c>
       <c r="N7" s="23" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C8" s="2"/>
       <c r="L8" s="23" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="23" t="s">
         <v>38</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>91</v>
-      </c>
-      <c r="O9" s="58" t="s">
-        <v>246</v>
+        <v>90</v>
+      </c>
+      <c r="O9" s="57" t="s">
+        <v>231</v>
       </c>
       <c r="P9" s="39"/>
     </row>
-    <row r="10" spans="1:19" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" s="23" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="23" t="s">
         <v>38</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>92</v>
-      </c>
-      <c r="C10" s="52" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+      <c r="C10" s="51" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B11" s="29"/>
     </row>
-    <row r="12" spans="1:19" s="23" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" s="23" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="31" t="s">
         <v>38</v>
       </c>
       <c r="B12" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="70" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" s="59" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="59" t="s">
+      <c r="C12" s="66" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" s="58" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="60" t="s">
-        <v>231</v>
-      </c>
-      <c r="C13" s="59" t="s">
-        <v>261</v>
-      </c>
-      <c r="J13" s="59" t="s">
+      <c r="B13" s="59" t="s">
+        <v>224</v>
+      </c>
+      <c r="C13" s="58" t="s">
+        <v>246</v>
+      </c>
+      <c r="J13" s="58" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:19" s="59" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="59" t="s">
-        <v>232</v>
-      </c>
-      <c r="B14" s="60" t="s">
-        <v>233</v>
-      </c>
-      <c r="C14" s="61" t="s">
-        <v>234</v>
-      </c>
-      <c r="D14" s="61"/>
-      <c r="F14" s="62" t="s">
-        <v>235</v>
-      </c>
-      <c r="G14" s="62"/>
-      <c r="J14" s="59" t="s">
+    <row r="14" spans="1:19" s="58" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="60" t="s">
+        <v>247</v>
+      </c>
+      <c r="B14" s="70" t="s">
+        <v>225</v>
+      </c>
+      <c r="C14" s="60" t="s">
+        <v>226</v>
+      </c>
+      <c r="D14" s="58" t="s">
+        <v>248</v>
+      </c>
+      <c r="F14" s="60" t="s">
+        <v>227</v>
+      </c>
+      <c r="J14" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="L14" s="63" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" s="59" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="59" t="s">
+    </row>
+    <row r="15" spans="1:19" s="58" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="58" t="s">
         <v>82</v>
       </c>
-      <c r="B15" s="60" t="s">
-        <v>236</v>
-      </c>
-      <c r="N15" s="63" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="59" t="s">
+        <v>228</v>
+      </c>
+      <c r="N15" s="58" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="23" t="s">
         <v>17</v>
       </c>
@@ -2349,10 +2337,10 @@
         <v>37</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H16" s="23" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="J16" s="23" t="s">
         <v>21</v>
@@ -2361,7 +2349,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:19" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="16" t="s">
         <v>75</v>
       </c>
@@ -2378,7 +2366,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:19" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="16" t="s">
         <v>77</v>
       </c>
@@ -2398,12 +2386,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:19" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="32" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B19" s="29" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C19" s="16" t="s">
         <v>80</v>
@@ -2418,987 +2406,1020 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:19" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="39" t="s">
-        <v>162</v>
-      </c>
-      <c r="B20" s="38" t="s">
+    <row r="20" spans="1:19" s="58" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="58" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="59" t="s">
+        <v>250</v>
+      </c>
+      <c r="C20" s="58" t="s">
+        <v>251</v>
+      </c>
+      <c r="J20" s="58" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" s="58" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="60" t="s">
+        <v>252</v>
+      </c>
+      <c r="B21" s="70" t="s">
         <v>84</v>
       </c>
-      <c r="C20" s="39" t="s">
+      <c r="C21" s="60" t="s">
         <v>85</v>
       </c>
-      <c r="J20" s="39" t="s">
+      <c r="D21" s="58" t="s">
+        <v>253</v>
+      </c>
+      <c r="F21" s="60" t="s">
+        <v>254</v>
+      </c>
+      <c r="J21" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="L20" s="58" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" s="64" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="59" t="s">
+    </row>
+    <row r="22" spans="1:19" s="58" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="58" t="s">
         <v>82</v>
       </c>
-      <c r="B21" s="60" t="s">
-        <v>147</v>
-      </c>
-      <c r="N21" s="63" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="12" t="s">
+      <c r="B22" s="59" t="s">
+        <v>144</v>
+      </c>
+      <c r="N22" s="58" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="29" t="s">
+      <c r="B23" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="F23" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="H23" s="34" t="s">
+        <v>134</v>
+      </c>
+      <c r="J23" s="33" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="C22" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="F22" s="34" t="s">
-        <v>134</v>
-      </c>
-      <c r="H22" s="34" t="s">
-        <v>135</v>
-      </c>
-      <c r="J22" s="33" t="s">
+      <c r="C24" s="34" t="s">
+        <v>136</v>
+      </c>
+      <c r="E24" s="23" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" s="49" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="52" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" s="50" t="s">
+        <v>187</v>
+      </c>
+      <c r="C25" s="66" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" s="49" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="49" t="s">
+        <v>189</v>
+      </c>
+      <c r="B26" s="50" t="s">
+        <v>190</v>
+      </c>
+      <c r="C26" s="51" t="s">
+        <v>191</v>
+      </c>
+      <c r="D26" s="49" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" s="49" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="52" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="50" t="s">
+        <v>192</v>
+      </c>
+      <c r="C27" s="52" t="s">
+        <v>193</v>
+      </c>
+      <c r="G27" s="52" t="s">
+        <v>194</v>
+      </c>
+      <c r="P27" s="52" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q27" s="52"/>
+      <c r="R27" s="52"/>
+      <c r="S27" s="52" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B23" s="20" t="s">
-        <v>96</v>
-      </c>
-      <c r="C23" s="34" t="s">
-        <v>137</v>
-      </c>
-      <c r="E23" s="23" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" s="50" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="53" t="s">
-        <v>38</v>
-      </c>
-      <c r="B24" s="51" t="s">
-        <v>194</v>
-      </c>
-      <c r="C24" s="70" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="50" t="s">
+    <row r="28" spans="1:19" s="49" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="52" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" s="50" t="s">
         <v>196</v>
       </c>
-      <c r="B25" s="51" t="s">
+      <c r="C28" s="52" t="s">
+        <v>193</v>
+      </c>
+      <c r="G28" s="52" t="s">
         <v>197</v>
       </c>
-      <c r="C25" s="52" t="s">
+      <c r="P28" s="52" t="s">
         <v>198</v>
       </c>
-      <c r="D25" s="50" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="53" t="s">
+      <c r="Q28" s="52"/>
+      <c r="R28" s="52"/>
+      <c r="S28" s="52" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" s="49" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="51" t="s">
+      <c r="B29" s="50" t="s">
         <v>199</v>
       </c>
-      <c r="C26" s="53" t="s">
+      <c r="C29" s="52" t="s">
+        <v>193</v>
+      </c>
+      <c r="G29" s="52" t="s">
         <v>200</v>
       </c>
-      <c r="G26" s="53" t="s">
+      <c r="P29" s="52" t="s">
         <v>201</v>
       </c>
-      <c r="P26" s="53" t="s">
+      <c r="Q29" s="52"/>
+      <c r="R29" s="52"/>
+      <c r="S29" s="52" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" s="49" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="52" t="s">
+        <v>26</v>
+      </c>
+      <c r="B30" s="50" t="s">
         <v>202</v>
       </c>
-      <c r="Q26" s="53"/>
-      <c r="R26" s="53"/>
-      <c r="S26" s="53" t="s">
+      <c r="C30" s="52" t="s">
+        <v>193</v>
+      </c>
+      <c r="G30" s="52" t="s">
+        <v>203</v>
+      </c>
+      <c r="P30" s="52" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q30" s="52"/>
+      <c r="R30" s="52"/>
+      <c r="S30" s="52" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:19" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="53" t="s">
+    <row r="31" spans="1:19" s="49" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="51" t="s">
-        <v>203</v>
-      </c>
-      <c r="C27" s="53" t="s">
-        <v>200</v>
-      </c>
-      <c r="G27" s="53" t="s">
-        <v>204</v>
-      </c>
-      <c r="P27" s="53" t="s">
+      <c r="B31" s="50" t="s">
         <v>205</v>
       </c>
-      <c r="Q27" s="53"/>
-      <c r="R27" s="53"/>
-      <c r="S27" s="53" t="s">
+      <c r="C31" s="52" t="s">
+        <v>193</v>
+      </c>
+      <c r="G31" s="52" t="s">
+        <v>206</v>
+      </c>
+      <c r="P31" s="65" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q31" s="52"/>
+      <c r="R31" s="52"/>
+      <c r="S31" s="52" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:19" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="53" t="s">
+    <row r="32" spans="1:19" s="49" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="B28" s="51" t="s">
-        <v>206</v>
-      </c>
-      <c r="C28" s="53" t="s">
-        <v>200</v>
-      </c>
-      <c r="G28" s="53" t="s">
+      <c r="B32" s="50" t="s">
         <v>207</v>
       </c>
-      <c r="P28" s="53" t="s">
+      <c r="C32" s="52" t="s">
+        <v>193</v>
+      </c>
+      <c r="G32" s="52" t="s">
         <v>208</v>
       </c>
-      <c r="Q28" s="53"/>
-      <c r="R28" s="53"/>
-      <c r="S28" s="53" t="s">
+      <c r="P32" s="65" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q32" s="52"/>
+      <c r="R32" s="52"/>
+      <c r="S32" s="52" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="1:19" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="53" t="s">
+    <row r="33" spans="1:19" s="49" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="B29" s="51" t="s">
+      <c r="B33" s="50" t="s">
         <v>209</v>
       </c>
-      <c r="C29" s="53" t="s">
-        <v>200</v>
-      </c>
-      <c r="G29" s="53" t="s">
+      <c r="C33" s="52" t="s">
+        <v>193</v>
+      </c>
+      <c r="G33" s="52" t="s">
         <v>210</v>
       </c>
-      <c r="P29" s="53" t="s">
+      <c r="P33" s="52" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q33" s="52"/>
+      <c r="R33" s="52"/>
+      <c r="S33" s="52" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" s="49" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="52" t="s">
+        <v>26</v>
+      </c>
+      <c r="B34" s="50" t="s">
         <v>211</v>
       </c>
-      <c r="Q29" s="53"/>
-      <c r="R29" s="53"/>
-      <c r="S29" s="53" t="s">
+      <c r="C34" s="52" t="s">
+        <v>193</v>
+      </c>
+      <c r="G34" s="52" t="s">
+        <v>212</v>
+      </c>
+      <c r="P34" s="52" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q34" s="52"/>
+      <c r="R34" s="52"/>
+      <c r="S34" s="52" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="30" spans="1:19" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="53" t="s">
+    <row r="35" spans="1:19" s="49" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="B30" s="51" t="s">
-        <v>212</v>
-      </c>
-      <c r="C30" s="53" t="s">
-        <v>200</v>
-      </c>
-      <c r="G30" s="53" t="s">
+      <c r="B35" s="50" t="s">
         <v>213</v>
       </c>
-      <c r="P30" s="69" t="s">
-        <v>250</v>
-      </c>
-      <c r="Q30" s="53"/>
-      <c r="R30" s="53"/>
-      <c r="S30" s="53" t="s">
+      <c r="C35" s="52" t="s">
+        <v>193</v>
+      </c>
+      <c r="G35" s="52" t="s">
+        <v>214</v>
+      </c>
+      <c r="P35" s="52" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q35" s="52"/>
+      <c r="R35" s="52"/>
+      <c r="S35" s="52" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:19" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="53" t="s">
+    <row r="36" spans="1:19" s="49" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="B31" s="51" t="s">
-        <v>214</v>
-      </c>
-      <c r="C31" s="53" t="s">
-        <v>200</v>
-      </c>
-      <c r="G31" s="53" t="s">
+      <c r="B36" s="50" t="s">
         <v>215</v>
       </c>
-      <c r="P31" s="69" t="s">
-        <v>251</v>
-      </c>
-      <c r="Q31" s="53"/>
-      <c r="R31" s="53"/>
-      <c r="S31" s="53" t="s">
+      <c r="C36" s="52" t="s">
+        <v>193</v>
+      </c>
+      <c r="G36" s="52" t="s">
+        <v>216</v>
+      </c>
+      <c r="P36" s="52" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q36" s="52"/>
+      <c r="R36" s="52"/>
+      <c r="S36" s="52" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="1:19" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="53" t="s">
+    <row r="37" spans="1:19" s="49" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="B32" s="51" t="s">
-        <v>216</v>
-      </c>
-      <c r="C32" s="53" t="s">
-        <v>200</v>
-      </c>
-      <c r="G32" s="53" t="s">
+      <c r="B37" s="50" t="s">
         <v>217</v>
       </c>
-      <c r="P32" s="53" t="s">
-        <v>208</v>
-      </c>
-      <c r="Q32" s="53"/>
-      <c r="R32" s="53"/>
-      <c r="S32" s="53" t="s">
+      <c r="C37" s="52" t="s">
+        <v>193</v>
+      </c>
+      <c r="G37" s="52" t="s">
+        <v>218</v>
+      </c>
+      <c r="P37" s="68" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q37" s="52"/>
+      <c r="R37" s="52"/>
+      <c r="S37" s="52" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="33" spans="1:19" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="53" t="s">
+    <row r="38" spans="1:19" s="49" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="B33" s="51" t="s">
-        <v>218</v>
-      </c>
-      <c r="C33" s="53" t="s">
-        <v>200</v>
-      </c>
-      <c r="G33" s="53" t="s">
+      <c r="B38" s="50" t="s">
         <v>219</v>
       </c>
-      <c r="P33" s="53" t="s">
-        <v>208</v>
-      </c>
-      <c r="Q33" s="53"/>
-      <c r="R33" s="53"/>
-      <c r="S33" s="53" t="s">
+      <c r="C38" s="52" t="s">
+        <v>193</v>
+      </c>
+      <c r="G38" s="52" t="s">
+        <v>220</v>
+      </c>
+      <c r="P38" s="52" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q38" s="52"/>
+      <c r="R38" s="52"/>
+      <c r="S38" s="52" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="34" spans="1:19" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="53" t="s">
+    <row r="39" spans="1:19" s="49" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="B34" s="51" t="s">
-        <v>220</v>
-      </c>
-      <c r="C34" s="53" t="s">
-        <v>200</v>
-      </c>
-      <c r="G34" s="53" t="s">
+      <c r="B39" s="64" t="s">
+        <v>232</v>
+      </c>
+      <c r="C39" s="52" t="s">
+        <v>193</v>
+      </c>
+      <c r="G39" s="65" t="s">
+        <v>233</v>
+      </c>
+      <c r="P39" s="65" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q39" s="52"/>
+      <c r="R39" s="52"/>
+      <c r="S39" s="52" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" s="49" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="B40" s="53" t="s">
+        <v>32</v>
+      </c>
+      <c r="C40" s="49" t="s">
         <v>221</v>
       </c>
-      <c r="P34" s="53" t="s">
-        <v>208</v>
-      </c>
-      <c r="Q34" s="53"/>
-      <c r="R34" s="53"/>
-      <c r="S34" s="53" t="s">
+      <c r="J40" s="49" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="35" spans="1:19" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="53" t="s">
-        <v>26</v>
-      </c>
-      <c r="B35" s="51" t="s">
+      <c r="L40" s="49" t="s">
+        <v>32</v>
+      </c>
+      <c r="M40" s="54" t="s">
         <v>222</v>
       </c>
-      <c r="C35" s="53" t="s">
-        <v>200</v>
-      </c>
-      <c r="G35" s="53" t="s">
-        <v>223</v>
-      </c>
-      <c r="P35" s="53" t="s">
-        <v>208</v>
-      </c>
-      <c r="Q35" s="53"/>
-      <c r="R35" s="53"/>
-      <c r="S35" s="53" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="36" spans="1:19" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="53" t="s">
-        <v>26</v>
-      </c>
-      <c r="B36" s="51" t="s">
-        <v>224</v>
-      </c>
-      <c r="C36" s="53" t="s">
-        <v>200</v>
-      </c>
-      <c r="G36" s="53" t="s">
-        <v>225</v>
-      </c>
-      <c r="P36" s="72" t="s">
-        <v>259</v>
-      </c>
-      <c r="Q36" s="53"/>
-      <c r="R36" s="53"/>
-      <c r="S36" s="53" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="37" spans="1:19" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="53" t="s">
-        <v>26</v>
-      </c>
-      <c r="B37" s="51" t="s">
-        <v>226</v>
-      </c>
-      <c r="C37" s="53" t="s">
-        <v>200</v>
-      </c>
-      <c r="G37" s="53" t="s">
-        <v>227</v>
-      </c>
-      <c r="P37" s="53" t="s">
-        <v>208</v>
-      </c>
-      <c r="Q37" s="53"/>
-      <c r="R37" s="53"/>
-      <c r="S37" s="53" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="38" spans="1:19" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="53" t="s">
-        <v>26</v>
-      </c>
-      <c r="B38" s="68" t="s">
-        <v>247</v>
-      </c>
-      <c r="C38" s="53" t="s">
-        <v>200</v>
-      </c>
-      <c r="G38" s="69" t="s">
-        <v>248</v>
-      </c>
-      <c r="P38" s="69" t="s">
-        <v>249</v>
-      </c>
-      <c r="Q38" s="53"/>
-      <c r="R38" s="53"/>
-      <c r="S38" s="53" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="39" spans="1:19" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="50" t="s">
-        <v>27</v>
-      </c>
-      <c r="B39" s="54" t="s">
-        <v>32</v>
-      </c>
-      <c r="C39" s="50" t="s">
-        <v>228</v>
-      </c>
-      <c r="J39" s="50" t="s">
-        <v>21</v>
-      </c>
-      <c r="L39" s="50" t="s">
-        <v>32</v>
-      </c>
-      <c r="M39" s="55" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="40" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
+    </row>
+    <row r="41" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B40" s="20" t="s">
-        <v>152</v>
-      </c>
-      <c r="C40" s="12" t="s">
+      <c r="B41" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="C41" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="L40" s="12" t="s">
+      <c r="L41" s="12" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="41" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B41" s="29" t="s">
-        <v>130</v>
-      </c>
-      <c r="C41" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="J41" s="12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="42" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="12" t="s">
         <v>26</v>
       </c>
       <c r="B42" s="29" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C42" s="23" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="J42" s="12" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="43" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="39" t="s">
-        <v>156</v>
+    <row r="43" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="12" t="s">
+        <v>26</v>
       </c>
       <c r="B43" s="29" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C43" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="D43" s="39" t="s">
-        <v>155</v>
+        <v>106</v>
       </c>
       <c r="J43" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="L43" s="12" t="s">
+    </row>
+    <row r="44" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="39" t="s">
+        <v>153</v>
+      </c>
+      <c r="B44" s="29" t="s">
+        <v>131</v>
+      </c>
+      <c r="C44" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="D44" s="39" t="s">
+        <v>152</v>
+      </c>
+      <c r="J44" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="L44" s="12" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="44" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
+    <row r="45" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B44" s="29"/>
-    </row>
-    <row r="45" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="39" t="s">
-        <v>157</v>
-      </c>
-      <c r="B45" s="29" t="s">
+      <c r="B45" s="29"/>
+    </row>
+    <row r="46" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="39" t="s">
+        <v>154</v>
+      </c>
+      <c r="B46" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="C46" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="C45" s="23" t="s">
+      <c r="D46" s="39" t="s">
+        <v>152</v>
+      </c>
+      <c r="J46" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="L46" s="23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="B47" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="D45" s="39" t="s">
+      <c r="C47" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="G47" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="H47" s="23" t="s">
+        <v>230</v>
+      </c>
+      <c r="L47" s="23" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="39" t="s">
         <v>155</v>
       </c>
-      <c r="J45" s="23" t="s">
+      <c r="B48" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="C48" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="D48" s="39" t="s">
+        <v>152</v>
+      </c>
+      <c r="G48" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="L48" s="23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B49" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L49" s="23" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="39" t="s">
+        <v>156</v>
+      </c>
+      <c r="B50" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="C50" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="D50" s="39" t="s">
+        <v>152</v>
+      </c>
+      <c r="J50" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="L45" s="23" t="s">
+      <c r="L50" s="23" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="B46" s="29" t="s">
-        <v>100</v>
-      </c>
-      <c r="C46" s="23" t="s">
-        <v>101</v>
-      </c>
-      <c r="G46" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="H46" s="23" t="s">
-        <v>239</v>
-      </c>
-      <c r="L46" s="23" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="47" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="39" t="s">
-        <v>158</v>
-      </c>
-      <c r="B47" s="29" t="s">
-        <v>103</v>
-      </c>
-      <c r="C47" s="23" t="s">
-        <v>104</v>
-      </c>
-      <c r="D47" s="39" t="s">
-        <v>155</v>
-      </c>
-      <c r="G47" s="23" t="s">
-        <v>105</v>
-      </c>
-      <c r="L47" s="23" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="48" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B48" s="20" t="s">
-        <v>153</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="L48" s="23" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="39" t="s">
-        <v>159</v>
-      </c>
-      <c r="B49" s="29" t="s">
-        <v>109</v>
-      </c>
-      <c r="C49" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="D49" s="39" t="s">
-        <v>155</v>
-      </c>
-      <c r="J49" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="L49" s="23" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="B50" s="29" t="s">
-        <v>110</v>
-      </c>
-      <c r="C50" s="71" t="s">
-        <v>254</v>
-      </c>
-      <c r="H50" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="I50" s="23" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="23" t="s">
         <v>26</v>
       </c>
       <c r="B51" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="C51" s="67" t="s">
+        <v>239</v>
+      </c>
+      <c r="H51" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="I51" s="23" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B52" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="C52" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="C51" s="23" t="s">
+      <c r="H52" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="H51" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="I51" s="23" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="B52" s="29" t="s">
-        <v>115</v>
-      </c>
-      <c r="C52" s="23" t="s">
-        <v>116</v>
-      </c>
-      <c r="H52" s="23" t="s">
-        <v>239</v>
-      </c>
-      <c r="L52" s="23" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I52" s="23" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="23" t="s">
         <v>17</v>
       </c>
       <c r="B53" s="29" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C53" s="23" t="s">
-        <v>118</v>
+        <v>115</v>
+      </c>
+      <c r="H53" s="23" t="s">
+        <v>230</v>
       </c>
       <c r="L53" s="23" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="54" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="39" t="s">
-        <v>157</v>
+    <row r="54" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="23" t="s">
+        <v>17</v>
       </c>
       <c r="B54" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="C54" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="L54" s="23" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="39" t="s">
+        <v>154</v>
+      </c>
+      <c r="B55" s="29" t="s">
+        <v>118</v>
+      </c>
+      <c r="C55" s="23" t="s">
         <v>119</v>
       </c>
-      <c r="C54" s="23" t="s">
-        <v>120</v>
-      </c>
-      <c r="D54" s="39" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="2" t="s">
+      <c r="D55" s="39" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B55" s="29"/>
-    </row>
-    <row r="56" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="B56" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="C56" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="J56" s="23" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="29"/>
+    </row>
+    <row r="57" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="23" t="s">
         <v>27</v>
       </c>
       <c r="B57" s="29" t="s">
-        <v>122</v>
-      </c>
-      <c r="C57" s="71" t="s">
-        <v>255</v>
+        <v>120</v>
+      </c>
+      <c r="C57" s="23" t="s">
+        <v>45</v>
       </c>
       <c r="J57" s="23" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="58" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="23" t="s">
         <v>27</v>
       </c>
       <c r="B58" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="C58" s="71" t="s">
+        <v>121</v>
+      </c>
+      <c r="C58" s="67" t="s">
+        <v>240</v>
+      </c>
+      <c r="J58" s="23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B59" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="C59" s="67" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B60" s="29" t="s">
+        <v>125</v>
+      </c>
+      <c r="C60" s="67" t="s">
+        <v>242</v>
+      </c>
+      <c r="H60" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="L60" s="23" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B61" s="29"/>
+    </row>
+    <row r="62" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B62" s="35" t="s">
+        <v>139</v>
+      </c>
+      <c r="C62" s="34" t="s">
+        <v>140</v>
+      </c>
+      <c r="F62" s="34"/>
+      <c r="H62" s="34" t="s">
+        <v>141</v>
+      </c>
+      <c r="J62" s="33" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B63" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="C63" s="34" t="s">
+        <v>137</v>
+      </c>
+      <c r="E63" s="34" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" s="58" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="58" t="s">
+        <v>26</v>
+      </c>
+      <c r="B64" s="59" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="59" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="23" t="s">
+      <c r="C64" s="58" t="s">
+        <v>246</v>
+      </c>
+      <c r="J64" s="58" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" s="58" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="60" t="s">
+        <v>247</v>
+      </c>
+      <c r="B65" s="70" t="s">
+        <v>257</v>
+      </c>
+      <c r="C65" s="60" t="s">
+        <v>226</v>
+      </c>
+      <c r="D65" s="58" t="s">
+        <v>259</v>
+      </c>
+      <c r="F65" s="60" t="s">
+        <v>227</v>
+      </c>
+      <c r="J65" s="58" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" s="58" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="58" t="s">
+        <v>82</v>
+      </c>
+      <c r="B66" s="59" t="s">
+        <v>258</v>
+      </c>
+      <c r="N66" s="58" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B67" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L67" s="23" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="39" t="s">
+        <v>156</v>
+      </c>
+      <c r="B68" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="C68" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="D68" s="39" t="s">
+        <v>152</v>
+      </c>
+      <c r="J68" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="L68" s="23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="B59" s="29" t="s">
-        <v>126</v>
-      </c>
-      <c r="C59" s="71" t="s">
-        <v>257</v>
-      </c>
-      <c r="H59" s="23" t="s">
-        <v>127</v>
-      </c>
-      <c r="L59" s="23" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B60" s="29"/>
-    </row>
-    <row r="61" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="B61" s="35" t="s">
-        <v>140</v>
-      </c>
-      <c r="C61" s="34" t="s">
-        <v>141</v>
-      </c>
-      <c r="F61" s="34"/>
-      <c r="H61" s="34" t="s">
-        <v>142</v>
-      </c>
-      <c r="J61" s="33" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B62" s="20" t="s">
-        <v>136</v>
-      </c>
-      <c r="C62" s="34" t="s">
-        <v>138</v>
-      </c>
-      <c r="E62" s="34" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="64" t="s">
-        <v>232</v>
-      </c>
-      <c r="B63" s="67" t="s">
-        <v>238</v>
-      </c>
-      <c r="C63" s="39" t="s">
-        <v>163</v>
-      </c>
-      <c r="D63" s="39"/>
-      <c r="J63" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="L63" s="64" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14" s="59" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="59" t="s">
-        <v>82</v>
-      </c>
-      <c r="B64" s="67" t="s">
-        <v>144</v>
-      </c>
-      <c r="N64" s="63" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B65" s="20" t="s">
+      <c r="B69" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="C69" s="67" t="s">
+        <v>239</v>
+      </c>
+      <c r="H69" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="I69" s="67" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B70" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="C70" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="H70" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="I70" s="23" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="B71" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="C71" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="H71" s="23" t="s">
+        <v>230</v>
+      </c>
+      <c r="L71" s="23" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="B72" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="C72" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="L72" s="23" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="C65" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="L65" s="23" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="39" t="s">
-        <v>159</v>
-      </c>
-      <c r="B66" s="29" t="s">
-        <v>109</v>
-      </c>
-      <c r="C66" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="D66" s="39" t="s">
-        <v>155</v>
-      </c>
-      <c r="J66" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="L66" s="23" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="B67" s="29" t="s">
-        <v>110</v>
-      </c>
-      <c r="C67" s="71" t="s">
-        <v>254</v>
-      </c>
-      <c r="H67" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="I67" s="71" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="B68" s="29" t="s">
-        <v>112</v>
-      </c>
-      <c r="C68" s="23" t="s">
-        <v>113</v>
-      </c>
-      <c r="H68" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="I68" s="23" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="B69" s="29" t="s">
-        <v>115</v>
-      </c>
-      <c r="C69" s="23" t="s">
-        <v>116</v>
-      </c>
-      <c r="H69" s="23" t="s">
-        <v>239</v>
-      </c>
-      <c r="L69" s="23" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="B70" s="29" t="s">
-        <v>117</v>
-      </c>
-      <c r="C70" s="23" t="s">
+      <c r="B73" s="29" t="s">
         <v>118</v>
       </c>
-      <c r="L70" s="23" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="39" t="s">
-        <v>157</v>
-      </c>
-      <c r="B71" s="29" t="s">
+      <c r="C73" s="23" t="s">
         <v>119</v>
       </c>
-      <c r="C71" s="23" t="s">
-        <v>120</v>
-      </c>
-      <c r="D71" s="39" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="2" t="s">
+      <c r="D73" s="39" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B72" s="29"/>
-    </row>
-    <row r="73" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="B73" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="C73" s="34" t="s">
-        <v>139</v>
-      </c>
-      <c r="J73" s="23" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="B74" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="C74" s="23" t="s">
-        <v>129</v>
-      </c>
-      <c r="J74" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="L74" s="23" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B74" s="29"/>
+    </row>
+    <row r="75" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A75" s="23" t="s">
         <v>27</v>
       </c>
       <c r="B75" s="29" t="s">
-        <v>122</v>
-      </c>
-      <c r="C75" s="23" t="s">
-        <v>123</v>
+        <v>120</v>
+      </c>
+      <c r="C75" s="34" t="s">
+        <v>138</v>
       </c>
       <c r="J75" s="23" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="76" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A76" s="23" t="s">
         <v>27</v>
       </c>
       <c r="B76" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="C76" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="J76" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="L76" s="23" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B77" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="C77" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="J77" s="23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B78" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="C78" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="C76" s="23" t="s">
+    </row>
+    <row r="79" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B79" s="29" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="77" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="23" t="s">
+      <c r="C79" s="67" t="s">
+        <v>242</v>
+      </c>
+      <c r="H79" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="L79" s="23" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B77" s="29" t="s">
-        <v>126</v>
-      </c>
-      <c r="C77" s="71" t="s">
-        <v>257</v>
-      </c>
-      <c r="H77" s="23" t="s">
-        <v>127</v>
-      </c>
-      <c r="L77" s="23" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="B78" s="21" t="s">
+      <c r="B80" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="C78" s="13" t="s">
+      <c r="C80" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="J78" s="12" t="s">
+      <c r="J80" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="K78" s="13"/>
-    </row>
-    <row r="79" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="2" t="s">
+      <c r="K80" s="13"/>
+    </row>
+    <row r="81" spans="1:2" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B79" s="29"/>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A80" s="3" t="s">
+      <c r="B81" s="29"/>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B80" s="19" t="s">
+      <c r="B82" s="19" t="s">
         <v>25</v>
       </c>
     </row>
@@ -3416,18 +3437,18 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D27" sqref="D27"/>
+      <selection pane="bottomRight" activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.375" style="4" customWidth="1"/>
-    <col min="2" max="2" width="28.25" style="11" customWidth="1"/>
-    <col min="3" max="3" width="26.125" style="4" customWidth="1"/>
-    <col min="4" max="16384" width="10.875" style="4"/>
+    <col min="1" max="1" width="21.3984375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="28.19921875" style="11" customWidth="1"/>
+    <col min="3" max="3" width="26.09765625" style="4" customWidth="1"/>
+    <col min="4" max="16384" width="10.8984375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>15</v>
       </c>
@@ -3439,17 +3460,17 @@
       </c>
       <c r="D1" s="2"/>
     </row>
-    <row r="2" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="10"/>
       <c r="C2" s="2"/>
     </row>
-    <row r="3" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="24"/>
       <c r="B3" s="25"/>
       <c r="C3" s="24"/>
     </row>
-    <row r="4" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="26" t="s">
         <v>53</v>
       </c>
@@ -3460,7 +3481,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="26" t="s">
         <v>53</v>
       </c>
@@ -3471,7 +3492,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="26" t="s">
         <v>53</v>
       </c>
@@ -3482,7 +3503,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="26" t="s">
         <v>53</v>
       </c>
@@ -3495,7 +3516,7 @@
       <c r="D7" s="15"/>
       <c r="E7" s="15"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="26" t="s">
         <v>53</v>
       </c>
@@ -3508,7 +3529,7 @@
       <c r="D8" s="15"/>
       <c r="E8" s="15"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="26" t="s">
         <v>53</v>
       </c>
@@ -3521,7 +3542,7 @@
       <c r="D9" s="15"/>
       <c r="E9" s="15"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="26" t="s">
         <v>53</v>
       </c>
@@ -3534,7 +3555,7 @@
       <c r="D10" s="15"/>
       <c r="E10" s="15"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="26" t="s">
         <v>53</v>
       </c>
@@ -3547,7 +3568,7 @@
       <c r="D11" s="15"/>
       <c r="E11" s="15"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="26" t="s">
         <v>53</v>
       </c>
@@ -3560,7 +3581,7 @@
       <c r="D12" s="15"/>
       <c r="E12" s="15"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="26" t="s">
         <v>53</v>
       </c>
@@ -3571,47 +3592,33 @@
         <v>63</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="36" t="s">
-        <v>86</v>
-      </c>
-      <c r="B15" s="37" t="s">
-        <v>146</v>
-      </c>
-      <c r="C15" s="36" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="36"/>
+      <c r="B15" s="37"/>
+      <c r="C15" s="36"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="36"/>
       <c r="B16" s="38"/>
       <c r="C16" s="36"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="36"/>
       <c r="B17" s="37"/>
       <c r="C17" s="36"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="36"/>
       <c r="B18" s="37"/>
       <c r="C18" s="36"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="36"/>
       <c r="B19" s="38"/>
       <c r="C19" s="36"/>
     </row>
-    <row r="20" spans="1:3" s="65" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="65" t="s">
-        <v>233</v>
-      </c>
-      <c r="B20" s="66" t="s">
-        <v>160</v>
-      </c>
-      <c r="C20" s="65" t="s">
-        <v>161</v>
-      </c>
+    <row r="20" spans="1:3" s="62" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="63"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:C2" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
@@ -3628,16 +3635,16 @@
       <selection activeCell="E839" sqref="E839"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="23" style="41" customWidth="1"/>
-    <col min="2" max="2" width="26.125" style="41" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.09765625" style="41" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="9" style="41"/>
-    <col min="6" max="6" width="34.875" style="41" customWidth="1"/>
+    <col min="6" max="6" width="34.8984375" style="41" customWidth="1"/>
     <col min="7" max="16384" width="9" style="41"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="41" t="s">
         <v>50</v>
       </c>
@@ -3654,4473 +3661,4473 @@
         <v>52</v>
       </c>
       <c r="F1" s="41" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G1" s="41" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="41" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="41" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="41" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="41" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="41" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="41" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="41" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="41" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="41" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="41" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="41" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="41" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="41" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="41" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="41" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="41" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="41" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="41" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="41" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="41" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="41" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="41" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="41" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="41" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" s="41" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" s="41" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" s="41" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" s="41" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" s="41" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" s="41" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" s="41" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="41" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" s="41" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" s="41" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" s="41" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" s="41" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" s="41" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" s="41" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" s="41" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" s="41" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" s="41" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" s="41" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" s="41" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" s="41" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" s="41" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48" s="41" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" s="41" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" s="41" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" s="41" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" s="41" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" s="41" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" s="41" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" s="41" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56" s="41" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" s="41" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58" s="41" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59" s="41" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60" s="41" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61" s="41" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A62" s="41" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63" s="41" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A64" s="41" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" s="41" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66" s="41" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" s="41" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68" s="41" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69" s="41" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70" s="41" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" s="41" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72" s="41" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A73" s="41" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A74" s="41" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A75" s="41" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A76" s="41" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A77" s="41" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A78" s="41" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A79" s="41" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A80" s="41" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A81" s="41" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A82" s="41" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A83" s="41" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A84" s="41" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A85" s="41" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A86" s="41" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A87" s="41" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A88" s="41" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A89" s="41" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A90" s="41" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A91" s="41" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A92" s="41" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A93" s="41" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A94" s="41" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A95" s="41" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A96" s="41" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A97" s="41" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A98" s="41" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A99" s="41" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A100" s="41" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A101" s="41" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A102" s="41" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A103" s="41" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A104" s="41" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A105" s="41" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A106" s="41" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A107" s="41" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A108" s="41" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A109" s="41" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A110" s="41" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A111" s="41" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A112" s="41" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A113" s="41" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A114" s="41" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A115" s="41" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A116" s="41" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A117" s="41" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A118" s="41" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A119" s="41" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A120" s="41" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A121" s="41" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A122" s="41" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A123" s="41" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A124" s="41" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A125" s="41" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A126" s="41" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A127" s="41" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A128" s="41" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A129" s="41" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A130" s="41" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A131" s="41" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A132" s="41" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A133" s="41" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A134" s="41" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A135" s="41" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A136" s="41" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A137" s="41" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A138" s="41" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A139" s="41" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A140" s="41" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A141" s="41" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A142" s="41" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A143" s="41" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A144" s="41" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A145" s="41" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A146" s="41" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A147" s="41" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A148" s="41" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A149" s="41" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A150" s="41" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A151" s="41" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A152" s="41" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A153" s="41" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A154" s="41" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A155" s="41" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A156" s="41" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A157" s="41" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A158" s="41" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A159" s="41" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A160" s="41" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A161" s="41" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A162" s="41" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A164" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A165" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A166" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A167" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A168" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A169" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A170" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A171" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A172" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A173" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A174" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A175" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A176" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A177" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A178" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A179" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A180" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A181" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A182" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A183" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A184" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A185" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A186" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A187" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A188" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A189" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A190" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A191" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A192" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A193" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A194" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A195" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A196" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A197" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A198" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A199" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A200" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A201" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A202" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A203" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A204" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A205" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A206" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A207" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A208" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A209" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A210" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A211" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A212" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A213" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A214" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A215" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A216" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A217" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A218" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A219" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A220" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A221" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A222" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A223" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A224" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A225" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A226" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A227" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A228" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A229" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A230" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A231" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A232" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A233" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A234" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A235" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A236" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A237" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A238" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A239" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A240" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A241" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A242" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A243" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A244" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A245" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A246" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A247" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A248" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A249" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A250" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A251" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A252" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A253" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A254" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A255" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A256" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A257" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A258" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A259" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A260" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A261" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A262" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A263" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A264" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A265" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A266" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A267" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A268" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A269" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A270" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A271" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A272" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A273" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A274" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A275" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A276" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A277" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A278" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A279" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A280" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A281" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A282" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A283" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A284" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A285" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A286" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A287" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A288" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A289" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A290" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A291" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A292" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A293" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A294" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A295" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A296" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A297" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A298" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A299" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A300" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A301" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A302" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A303" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A304" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A305" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A306" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A307" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A308" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A309" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A310" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="311" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A311" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A312" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="313" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A313" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="314" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A314" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="315" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A315" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="316" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A316" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="317" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A317" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="318" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A318" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="319" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="319" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A319" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="320" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="320" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A320" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A321" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A322" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A323" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A324" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A325" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A326" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A327" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A328" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A329" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A330" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A331" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A332" s="41" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B332" s="42"/>
       <c r="C332" s="42"/>
       <c r="D332" s="42"/>
       <c r="E332" s="42"/>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A333" s="41" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B333" s="42"/>
       <c r="C333" s="42"/>
       <c r="D333" s="42"/>
       <c r="E333" s="42"/>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A334" s="41" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B334" s="42"/>
       <c r="C334" s="42"/>
       <c r="D334" s="42"/>
       <c r="E334" s="42"/>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A335" s="41" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B335" s="42"/>
       <c r="C335" s="42"/>
       <c r="D335" s="42"/>
       <c r="E335" s="42"/>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A336" s="41" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B336" s="42"/>
       <c r="C336" s="42"/>
       <c r="D336" s="42"/>
       <c r="E336" s="42"/>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A337" s="41" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B337" s="42"/>
       <c r="C337" s="42"/>
       <c r="D337" s="42"/>
       <c r="E337" s="42"/>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A338" s="41" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B338" s="42"/>
       <c r="C338" s="42"/>
       <c r="D338" s="42"/>
       <c r="E338" s="42"/>
     </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A339" s="41" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B339" s="42"/>
       <c r="C339" s="42"/>
       <c r="D339" s="42"/>
       <c r="E339" s="42"/>
     </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A340" s="41" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B340" s="42"/>
       <c r="C340" s="42"/>
       <c r="D340" s="42"/>
       <c r="E340" s="42"/>
     </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A341" s="41" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B341" s="42"/>
       <c r="C341" s="42"/>
       <c r="D341" s="42"/>
       <c r="E341" s="42"/>
     </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A342" s="41" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B342" s="42"/>
       <c r="C342" s="42"/>
       <c r="D342" s="42"/>
       <c r="E342" s="42"/>
     </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A343" s="41" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B343" s="42"/>
       <c r="C343" s="42"/>
       <c r="D343" s="42"/>
       <c r="E343" s="42"/>
     </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A344" s="41" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B344" s="42"/>
       <c r="C344" s="42"/>
       <c r="D344" s="42"/>
       <c r="E344" s="42"/>
     </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A345" s="41" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B345" s="42"/>
       <c r="C345" s="42"/>
       <c r="D345" s="42"/>
       <c r="E345" s="42"/>
     </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A346" s="41" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B346" s="42"/>
       <c r="C346" s="42"/>
       <c r="D346" s="42"/>
       <c r="E346" s="42"/>
     </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A347" s="41" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B347" s="42"/>
       <c r="C347" s="42"/>
       <c r="D347" s="42"/>
       <c r="E347" s="42"/>
     </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A348" s="41" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B348" s="42"/>
       <c r="C348" s="42"/>
       <c r="D348" s="42"/>
       <c r="E348" s="42"/>
     </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A349" s="41" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B349" s="42"/>
       <c r="C349" s="42"/>
       <c r="D349" s="42"/>
       <c r="E349" s="42"/>
     </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A350" s="41" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B350" s="42"/>
       <c r="C350" s="42"/>
       <c r="D350" s="42"/>
       <c r="E350" s="42"/>
     </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A351" s="41" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B351" s="42"/>
       <c r="C351" s="42"/>
       <c r="D351" s="42"/>
       <c r="E351" s="42"/>
     </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A352" s="41" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B352" s="42"/>
       <c r="C352" s="42"/>
       <c r="D352" s="42"/>
       <c r="E352" s="42"/>
     </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A353" s="41" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B353" s="42"/>
       <c r="C353" s="42"/>
       <c r="D353" s="42"/>
       <c r="E353" s="42"/>
     </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A354" s="41" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B354" s="42"/>
       <c r="C354" s="42"/>
       <c r="D354" s="42"/>
       <c r="E354" s="42"/>
     </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A355" s="41" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B355" s="42"/>
       <c r="C355" s="42"/>
       <c r="D355" s="42"/>
       <c r="E355" s="42"/>
     </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A356" s="41" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B356" s="42"/>
       <c r="C356" s="42"/>
       <c r="D356" s="42"/>
       <c r="E356" s="42"/>
     </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A357" s="41" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B357" s="42"/>
       <c r="C357" s="42"/>
       <c r="D357" s="42"/>
       <c r="E357" s="42"/>
     </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A358" s="41" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B358" s="42"/>
       <c r="C358" s="42"/>
       <c r="D358" s="42"/>
       <c r="E358" s="42"/>
     </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A359" s="41" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B359" s="42"/>
       <c r="C359" s="42"/>
       <c r="D359" s="42"/>
       <c r="E359" s="42"/>
     </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A360" s="41" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B360" s="42"/>
       <c r="C360" s="42"/>
       <c r="D360" s="42"/>
       <c r="E360" s="42"/>
     </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A361" s="41" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B361" s="42"/>
       <c r="C361" s="42"/>
       <c r="D361" s="42"/>
       <c r="E361" s="42"/>
     </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A362" s="41" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B362" s="42"/>
       <c r="C362" s="42"/>
       <c r="D362" s="42"/>
       <c r="E362" s="42"/>
     </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A363" s="41" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B363" s="42"/>
       <c r="C363" s="42"/>
       <c r="D363" s="42"/>
       <c r="E363" s="42"/>
     </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A364" s="41" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B364" s="42"/>
       <c r="C364" s="42"/>
       <c r="D364" s="42"/>
       <c r="E364" s="42"/>
     </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A365" s="41" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B365" s="42"/>
       <c r="C365" s="42"/>
       <c r="D365" s="42"/>
       <c r="E365" s="42"/>
     </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A366" s="41" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B366" s="42"/>
       <c r="C366" s="42"/>
       <c r="D366" s="42"/>
       <c r="E366" s="42"/>
     </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A367" s="41" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B367" s="42"/>
       <c r="C367" s="42"/>
       <c r="D367" s="42"/>
       <c r="E367" s="42"/>
     </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A368" s="41" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B368" s="42"/>
       <c r="C368" s="42"/>
       <c r="D368" s="42"/>
       <c r="E368" s="42"/>
     </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A369" s="41" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B369" s="42"/>
       <c r="C369" s="42"/>
       <c r="D369" s="42"/>
       <c r="E369" s="42"/>
     </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A370" s="41" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B370" s="42"/>
       <c r="C370" s="42"/>
       <c r="D370" s="42"/>
       <c r="E370" s="42"/>
     </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A371" s="41" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B371" s="42"/>
       <c r="C371" s="42"/>
       <c r="D371" s="42"/>
       <c r="E371" s="42"/>
     </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A372" s="41" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B372" s="42"/>
       <c r="C372" s="42"/>
       <c r="D372" s="42"/>
       <c r="E372" s="42"/>
     </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A373" s="41" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B373" s="42"/>
       <c r="C373" s="42"/>
       <c r="D373" s="42"/>
       <c r="E373" s="42"/>
     </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A374" s="41" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B374" s="42"/>
       <c r="C374" s="42"/>
       <c r="D374" s="42"/>
       <c r="E374" s="42"/>
     </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A375" s="41" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B375" s="42"/>
       <c r="C375" s="42"/>
       <c r="D375" s="42"/>
       <c r="E375" s="42"/>
     </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A376" s="41" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B376" s="42"/>
       <c r="C376" s="42"/>
       <c r="D376" s="42"/>
       <c r="E376" s="42"/>
     </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A377" s="41" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B377" s="42"/>
       <c r="C377" s="42"/>
       <c r="D377" s="42"/>
       <c r="E377" s="42"/>
     </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A378" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="379" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A379" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="380" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A380" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="381" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A381" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="382" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A382" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="383" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A383" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="384" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A384" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="385" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="385" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A385" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="386" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="386" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A386" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="387" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="387" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A387" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="388" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="388" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A388" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="389" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="389" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A389" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="390" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="390" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A390" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="391" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="391" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A391" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="392" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="392" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A392" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="393" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="393" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A393" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="394" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="394" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A394" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="395" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="395" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A395" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="396" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="396" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A396" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="397" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="397" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A397" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="398" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="398" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A398" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="399" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="399" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A399" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="400" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="400" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A400" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="401" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="401" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A401" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="402" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="402" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A402" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="403" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="403" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A403" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="404" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="404" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A404" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="405" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="405" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A405" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="406" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="406" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A406" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="407" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="407" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A407" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="408" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="408" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A408" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="409" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="409" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A409" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="410" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="410" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A410" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="411" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="411" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A411" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="412" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="412" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A412" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="413" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="413" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A413" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="414" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="414" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A414" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="415" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="415" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A415" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="416" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="416" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A416" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="417" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="417" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A417" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="418" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="418" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A418" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="419" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="419" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A419" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="420" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="420" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A420" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="421" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="421" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A421" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="422" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="422" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A422" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="423" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="423" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A423" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="424" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="424" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A424" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="425" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="425" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A425" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="426" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="426" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A426" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="427" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="427" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A427" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="428" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="428" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A428" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="429" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="429" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A429" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="430" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="430" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A430" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="431" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="431" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A431" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="432" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="432" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A432" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="433" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="433" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A433" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="434" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="434" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A434" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="435" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="435" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A435" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="436" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="436" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A436" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="437" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="437" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A437" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="438" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="438" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A438" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="439" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="439" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A439" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="440" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="440" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A440" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="441" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="441" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A441" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="442" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="442" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A442" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="443" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="443" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A443" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="444" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="444" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A444" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="445" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="445" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A445" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="446" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="446" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A446" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="447" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="447" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A447" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="448" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="448" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A448" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="449" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="449" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A449" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="450" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="450" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A450" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="451" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="451" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A451" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="452" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="452" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A452" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="453" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="453" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A453" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="454" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="454" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A454" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="455" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="455" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A455" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="456" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="456" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A456" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="457" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="457" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A457" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="458" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="458" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A458" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="459" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="459" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A459" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="460" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="460" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A460" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="461" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="461" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A461" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="462" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="462" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A462" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="463" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="463" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A463" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="464" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="464" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A464" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="465" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="465" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A465" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="466" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="466" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A466" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="467" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="467" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A467" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="468" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="468" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A468" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="469" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="469" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A469" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="470" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="470" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A470" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="471" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="471" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A471" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="472" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="472" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A472" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="473" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="473" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A473" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="474" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="474" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A474" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="475" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="475" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A475" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="476" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="476" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A476" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="477" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="477" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A477" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="478" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="478" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A478" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="479" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="479" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A479" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="480" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="480" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A480" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="481" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="481" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A481" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="482" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="482" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A482" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="483" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="483" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A483" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="484" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="484" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A484" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="485" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="485" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A485" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="486" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="486" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A486" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="487" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="487" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A487" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="488" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="488" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A488" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="489" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="489" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A489" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="490" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="490" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A490" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="491" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="491" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A491" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="492" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="492" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A492" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="493" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="493" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A493" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="494" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="494" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A494" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="495" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="495" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A495" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="496" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="496" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A496" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="497" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="497" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A497" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="498" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="498" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A498" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="499" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="499" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A499" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="500" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="500" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A500" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="501" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="501" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A501" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="502" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="502" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A502" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="503" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="503" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A503" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="504" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="504" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A504" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="505" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="505" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A505" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="506" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="506" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A506" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="507" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="507" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A507" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="508" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="508" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A508" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="509" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="509" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A509" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="510" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="510" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A510" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="511" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="511" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A511" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="512" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="512" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A512" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="513" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="513" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A513" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="514" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="514" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A514" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="515" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="515" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A515" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="516" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="516" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A516" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="517" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="517" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A517" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="518" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="518" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A518" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="519" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="519" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A519" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="520" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="520" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A520" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="521" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="521" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A521" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="522" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="522" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A522" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="523" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="523" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A523" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="524" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="524" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A524" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="525" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="525" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A525" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="526" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="526" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A526" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="527" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="527" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A527" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="528" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="528" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A528" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="529" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="529" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A529" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="530" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="530" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A530" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="531" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="531" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A531" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="532" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="532" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A532" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="533" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="533" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A533" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="534" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="534" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A534" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="535" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="535" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A535" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="536" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="536" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A536" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="537" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="537" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A537" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="538" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="538" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A538" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="539" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="539" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A539" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="540" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="540" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A540" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="541" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="541" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A541" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="542" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="542" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A542" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="543" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="543" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A543" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="544" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="544" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A544" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="545" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="545" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A545" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="546" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="546" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A546" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="547" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="547" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A547" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="548" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="548" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A548" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="549" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="549" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A549" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="550" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="550" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A550" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="551" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="551" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A551" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="552" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="552" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A552" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="553" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="553" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A553" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="554" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="554" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A554" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="555" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="555" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A555" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="556" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="556" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A556" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="557" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="557" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A557" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="558" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="558" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A558" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="559" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="559" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A559" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="560" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="560" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A560" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="561" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="561" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A561" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="562" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="562" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A562" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="563" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="563" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A563" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="564" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="564" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A564" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="565" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="565" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A565" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="566" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="566" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A566" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="567" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="567" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A567" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="568" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="568" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A568" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="569" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="569" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A569" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="570" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="570" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A570" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="571" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="571" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A571" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="572" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="572" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A572" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="573" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="573" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A573" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="574" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="574" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A574" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="575" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="575" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A575" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="576" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="576" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A576" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="577" spans="1:2" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="577" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A577" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="578" spans="1:2" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="578" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A578" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="579" spans="1:2" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="579" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A579" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="580" spans="1:2" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="580" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A580" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="581" spans="1:2" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="581" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A581" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="582" spans="1:2" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="582" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A582" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="584" spans="1:2" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="584" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A584" s="41" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="B584" s="43"/>
     </row>
-    <row r="585" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A585" s="41" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="B585" s="43"/>
     </row>
-    <row r="586" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A586" s="41" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="B586" s="43"/>
     </row>
-    <row r="587" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A587" s="41" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="B587" s="43"/>
     </row>
-    <row r="588" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B588" s="43"/>
     </row>
-    <row r="589" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A589" s="41" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="B589" s="43"/>
     </row>
-    <row r="590" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A590" s="41" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="B590" s="43"/>
     </row>
-    <row r="591" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A591" s="41" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="B591" s="43"/>
     </row>
-    <row r="592" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B592" s="43"/>
     </row>
-    <row r="593" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A593" s="41" t="s">
         <v>20</v>
       </c>
       <c r="B593" s="43"/>
     </row>
-    <row r="594" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A594" s="41" t="s">
         <v>20</v>
       </c>
       <c r="B594" s="43"/>
     </row>
-    <row r="595" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B595" s="43"/>
     </row>
-    <row r="596" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A596" s="41" t="s">
         <v>33</v>
       </c>
       <c r="B596" s="43"/>
     </row>
-    <row r="597" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A597" s="41" t="s">
         <v>33</v>
       </c>
       <c r="B597" s="43"/>
     </row>
-    <row r="598" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A598" s="41" t="s">
         <v>33</v>
       </c>
       <c r="B598" s="43"/>
     </row>
-    <row r="599" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A599" s="41" t="s">
         <v>33</v>
       </c>
       <c r="B599" s="43"/>
     </row>
-    <row r="600" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A600" s="41" t="s">
         <v>33</v>
       </c>
       <c r="B600" s="43"/>
     </row>
-    <row r="601" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A601" s="41" t="s">
         <v>33</v>
       </c>
       <c r="B601" s="43"/>
     </row>
-    <row r="602" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A602" s="41" t="s">
         <v>33</v>
       </c>
       <c r="B602" s="43"/>
     </row>
-    <row r="603" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A603" s="41" t="s">
         <v>33</v>
       </c>
       <c r="B603" s="43"/>
     </row>
-    <row r="604" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A604" s="41" t="s">
         <v>33</v>
       </c>
       <c r="B604" s="43"/>
     </row>
-    <row r="605" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A605" s="41" t="s">
         <v>33</v>
       </c>
       <c r="B605" s="43"/>
     </row>
-    <row r="606" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A606" s="41" t="s">
         <v>33</v>
       </c>
       <c r="B606" s="43"/>
     </row>
-    <row r="607" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B607" s="43"/>
     </row>
-    <row r="608" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A608" s="41" t="s">
         <v>40</v>
       </c>
       <c r="B608" s="43"/>
     </row>
-    <row r="609" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A609" s="41" t="s">
         <v>40</v>
       </c>
       <c r="B609" s="43"/>
     </row>
-    <row r="610" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B610" s="43"/>
     </row>
-    <row r="611" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A611" s="41" t="s">
         <v>41</v>
       </c>
       <c r="B611" s="43"/>
     </row>
-    <row r="612" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A612" s="41" t="s">
         <v>41</v>
       </c>
       <c r="B612" s="43"/>
     </row>
-    <row r="613" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A613" s="41" t="s">
         <v>41</v>
       </c>
       <c r="B613" s="43"/>
     </row>
-    <row r="614" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A614" s="41" t="s">
         <v>41</v>
       </c>
       <c r="B614" s="43"/>
     </row>
-    <row r="615" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B615" s="43"/>
     </row>
-    <row r="616" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A616" s="41" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="B616" s="43"/>
     </row>
-    <row r="617" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A617" s="41" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="B617" s="43"/>
     </row>
-    <row r="618" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A618" s="41" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="B618" s="43"/>
     </row>
-    <row r="619" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A619" s="41" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="B619" s="43"/>
     </row>
-    <row r="620" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A620" s="41" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="B620" s="43"/>
     </row>
-    <row r="621" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B621" s="43"/>
     </row>
-    <row r="622" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A622" s="41" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="B622" s="43"/>
     </row>
-    <row r="623" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A623" s="41" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="B623" s="43"/>
     </row>
-    <row r="626" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A626" s="44" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="B626" s="43"/>
       <c r="C626" s="44"/>
     </row>
-    <row r="627" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A627" s="44" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="B627" s="43"/>
       <c r="C627" s="44"/>
     </row>
-    <row r="628" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A628" s="44" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="B628" s="43"/>
       <c r="C628" s="44"/>
     </row>
-    <row r="629" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A629" s="44" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="B629" s="43"/>
       <c r="C629" s="44"/>
     </row>
-    <row r="630" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A630" s="44" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="B630" s="43"/>
       <c r="C630" s="44"/>
     </row>
-    <row r="631" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A631" s="44" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="B631" s="43"/>
       <c r="C631" s="44"/>
     </row>
-    <row r="632" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A632" s="44" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="B632" s="43"/>
       <c r="C632" s="44"/>
     </row>
-    <row r="633" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A633" s="44" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="B633" s="43"/>
       <c r="C633" s="44"/>
     </row>
-    <row r="634" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A634" s="44" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="B634" s="43"/>
       <c r="C634" s="44"/>
     </row>
-    <row r="635" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A635" s="44" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="B635" s="43"/>
       <c r="C635" s="44"/>
     </row>
-    <row r="636" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A636" s="44" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="B636" s="43"/>
       <c r="C636" s="44"/>
     </row>
-    <row r="637" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A637" s="44" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="B637" s="43"/>
       <c r="C637" s="44"/>
     </row>
-    <row r="638" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A638" s="44" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="B638" s="43"/>
       <c r="C638" s="44"/>
     </row>
-    <row r="639" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A639" s="44" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="B639" s="43"/>
       <c r="C639" s="44"/>
     </row>
-    <row r="640" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A640" s="44" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="B640" s="43"/>
       <c r="C640" s="44"/>
     </row>
-    <row r="641" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A641" s="44" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="B641" s="43"/>
       <c r="C641" s="44"/>
     </row>
-    <row r="642" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A642" s="44" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="B642" s="43"/>
       <c r="C642" s="44"/>
     </row>
-    <row r="643" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A643" s="44"/>
       <c r="B643" s="45"/>
       <c r="C643" s="44"/>
     </row>
-    <row r="644" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A644" s="44" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="B644" s="45"/>
       <c r="C644" s="44"/>
     </row>
-    <row r="645" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A645" s="44" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="B645" s="45"/>
       <c r="C645" s="44"/>
     </row>
-    <row r="647" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A647" s="44" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="B647" s="43"/>
       <c r="C647" s="44"/>
     </row>
-    <row r="648" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A648" s="44" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="B648" s="43"/>
       <c r="C648" s="44"/>
     </row>
-    <row r="649" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A649" s="44" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="B649" s="43"/>
       <c r="C649" s="44"/>
     </row>
-    <row r="650" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A650" s="44" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="B650" s="43"/>
       <c r="C650" s="44"/>
     </row>
-    <row r="651" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A651" s="44" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="B651" s="43"/>
       <c r="C651" s="44"/>
     </row>
-    <row r="652" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A652" s="44" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="B652" s="43"/>
       <c r="C652" s="44"/>
     </row>
-    <row r="653" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A653" s="44" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="B653" s="43"/>
       <c r="C653" s="44"/>
     </row>
-    <row r="654" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A654" s="44" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="B654" s="43"/>
       <c r="C654" s="44"/>
     </row>
-    <row r="655" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A655" s="44" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="B655" s="43"/>
       <c r="C655" s="44"/>
     </row>
-    <row r="656" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A656" s="44" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="B656" s="43"/>
       <c r="C656" s="44"/>
     </row>
-    <row r="657" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A657" s="44" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="B657" s="43"/>
       <c r="C657" s="44"/>
     </row>
-    <row r="658" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A658" s="44" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="B658" s="43"/>
       <c r="C658" s="44"/>
     </row>
-    <row r="659" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A659" s="44" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="B659" s="43"/>
       <c r="C659" s="44"/>
     </row>
-    <row r="660" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A660" s="44" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="B660" s="43"/>
       <c r="C660" s="44"/>
     </row>
-    <row r="661" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A661" s="44" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="B661" s="43"/>
       <c r="C661" s="44"/>
     </row>
-    <row r="662" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A662" s="44" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="B662" s="43"/>
       <c r="C662" s="44"/>
     </row>
-    <row r="663" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A663" s="44" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="B663" s="43"/>
       <c r="C663" s="44"/>
     </row>
-    <row r="664" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A664" s="44" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="B664" s="43"/>
       <c r="C664" s="44"/>
     </row>
-    <row r="665" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A665" s="44" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="B665" s="43"/>
       <c r="C665" s="44"/>
     </row>
-    <row r="668" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A668" s="44" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="B668" s="43"/>
       <c r="C668" s="44"/>
     </row>
-    <row r="669" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A669" s="44" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="B669" s="43"/>
       <c r="C669" s="44"/>
     </row>
-    <row r="670" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A670" s="44" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="B670" s="43"/>
       <c r="C670" s="44"/>
     </row>
-    <row r="671" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A671" s="44"/>
       <c r="B671" s="43"/>
       <c r="C671" s="44"/>
     </row>
-    <row r="672" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A672" s="44"/>
       <c r="B672" s="43"/>
       <c r="C672" s="44"/>
     </row>
-    <row r="673" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A673" s="44" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="B673" s="43"/>
       <c r="C673" s="44"/>
     </row>
-    <row r="674" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A674" s="44" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="B674" s="43"/>
       <c r="C674" s="44"/>
     </row>
-    <row r="675" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A675" s="44" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="B675" s="43"/>
       <c r="C675" s="44"/>
     </row>
-    <row r="676" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A676" s="44" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="B676" s="43"/>
       <c r="C676" s="44"/>
     </row>
-    <row r="677" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A677" s="44" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="B677" s="43"/>
       <c r="C677" s="44"/>
     </row>
-    <row r="678" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A678" s="44" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="B678" s="43"/>
       <c r="C678" s="44"/>
     </row>
-    <row r="679" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A679" s="44" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="B679" s="43"/>
       <c r="C679" s="44"/>
     </row>
-    <row r="680" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A680" s="44" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="B680" s="43"/>
       <c r="C680" s="44"/>
     </row>
-    <row r="681" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A681" s="44" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="B681" s="43"/>
       <c r="C681" s="44"/>
     </row>
-    <row r="682" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A682" s="44" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="B682" s="43"/>
       <c r="C682" s="44"/>
     </row>
-    <row r="684" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A684" s="44" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B684" s="43"/>
       <c r="C684" s="44"/>
     </row>
-    <row r="685" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A685" s="44" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B685" s="43"/>
       <c r="C685" s="44"/>
     </row>
-    <row r="686" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A686" s="44" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B686" s="43"/>
       <c r="C686" s="44"/>
     </row>
-    <row r="687" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A687" s="44" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B687" s="43"/>
       <c r="C687" s="44"/>
     </row>
-    <row r="688" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A688" s="44" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B688" s="43"/>
       <c r="C688" s="44"/>
     </row>
-    <row r="689" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A689" s="44" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B689" s="43"/>
       <c r="C689" s="44"/>
     </row>
-    <row r="690" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A690" s="44" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B690" s="43"/>
       <c r="C690" s="44"/>
     </row>
-    <row r="691" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A691" s="44" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B691" s="43"/>
       <c r="C691" s="44"/>
     </row>
-    <row r="692" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A692" s="44" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B692" s="43"/>
       <c r="C692" s="44"/>
     </row>
-    <row r="693" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A693" s="44" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B693" s="43"/>
       <c r="C693" s="44"/>
     </row>
-    <row r="694" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A694" s="44" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B694" s="43"/>
       <c r="C694" s="44"/>
     </row>
-    <row r="696" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A696" s="44" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="B696" s="43"/>
       <c r="C696" s="44"/>
     </row>
-    <row r="697" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A697" s="44" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="B697" s="43"/>
       <c r="C697" s="44"/>
     </row>
-    <row r="698" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A698" s="44" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="B698" s="43"/>
       <c r="C698" s="44"/>
     </row>
-    <row r="699" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A699" s="44" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="B699" s="43"/>
       <c r="C699" s="44"/>
     </row>
-    <row r="700" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A700" s="44" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="B700" s="43"/>
       <c r="C700" s="44"/>
     </row>
-    <row r="701" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A701" s="44" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="B701" s="43"/>
       <c r="C701" s="44"/>
     </row>
-    <row r="702" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A702" s="44" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="B702" s="43"/>
       <c r="C702" s="44"/>
     </row>
-    <row r="703" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A703" s="44" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="B703" s="43"/>
       <c r="C703" s="44"/>
     </row>
-    <row r="704" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A704" s="44" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="B704" s="43"/>
       <c r="C704" s="44"/>
     </row>
-    <row r="705" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A705" s="44" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="B705" s="43"/>
       <c r="C705" s="44"/>
     </row>
-    <row r="706" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A706" s="44" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="B706" s="43"/>
       <c r="C706" s="44"/>
     </row>
-    <row r="707" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A707" s="44" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="B707" s="43"/>
       <c r="C707" s="44"/>
     </row>
-    <row r="709" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A709" s="44" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="B709" s="43"/>
       <c r="C709" s="44"/>
     </row>
-    <row r="710" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A710" s="44" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="B710" s="43"/>
       <c r="C710" s="44"/>
     </row>
-    <row r="711" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A711" s="44" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="B711" s="43"/>
       <c r="C711" s="44"/>
     </row>
-    <row r="712" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A712" s="44" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="B712" s="43"/>
       <c r="C712" s="44"/>
     </row>
-    <row r="714" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A714" s="44" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="B714" s="43"/>
       <c r="C714" s="44"/>
     </row>
-    <row r="715" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A715" s="44" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="B715" s="43"/>
       <c r="C715" s="44"/>
     </row>
-    <row r="716" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A716" s="44" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="B716" s="43"/>
       <c r="C716" s="44"/>
     </row>
-    <row r="717" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A717" s="44" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="B717" s="43"/>
       <c r="C717" s="44"/>
     </row>
-    <row r="718" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A718" s="44" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="B718" s="43"/>
       <c r="C718" s="44"/>
     </row>
-    <row r="719" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A719" s="44" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="B719" s="43"/>
       <c r="C719" s="44"/>
     </row>
-    <row r="720" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A720" s="44" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="B720" s="43"/>
       <c r="C720" s="44"/>
     </row>
-    <row r="721" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A721" s="44" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="B721" s="43"/>
       <c r="C721" s="44"/>
     </row>
-    <row r="722" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A722" s="44" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="B722" s="43"/>
       <c r="C722" s="44"/>
     </row>
-    <row r="723" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A723" s="44" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="B723" s="43"/>
       <c r="C723" s="44"/>
     </row>
-    <row r="724" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A724" s="44" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="B724" s="43"/>
       <c r="C724" s="44"/>
     </row>
-    <row r="725" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A725" s="44" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="B725" s="43"/>
       <c r="C725" s="44"/>
     </row>
-    <row r="726" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A726" s="44" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="B726" s="43"/>
       <c r="C726" s="44"/>
     </row>
-    <row r="727" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A727" s="44" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="B727" s="43"/>
       <c r="C727" s="44"/>
     </row>
-    <row r="728" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A728" s="44" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="B728" s="43"/>
       <c r="C728" s="44"/>
     </row>
-    <row r="729" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A729" s="44" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="B729" s="43"/>
       <c r="C729" s="44"/>
     </row>
-    <row r="730" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A730" s="44" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="B730" s="43"/>
       <c r="C730" s="44"/>
     </row>
-    <row r="731" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A731" s="44" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="B731" s="43"/>
       <c r="C731" s="44"/>
     </row>
-    <row r="732" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A732" s="44" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="B732" s="43"/>
       <c r="C732" s="44"/>
     </row>
-    <row r="733" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A733" s="44" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="B733" s="43"/>
       <c r="C733" s="44"/>
     </row>
-    <row r="734" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A734" s="44" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="B734" s="43"/>
       <c r="C734" s="44"/>
     </row>
-    <row r="735" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A735" s="44" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="B735" s="43"/>
       <c r="C735" s="44"/>
     </row>
-    <row r="736" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A736" s="44" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="B736" s="43"/>
       <c r="C736" s="44"/>
     </row>
-    <row r="737" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A737" s="44" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="B737" s="43"/>
       <c r="C737" s="44"/>
     </row>
-    <row r="738" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A738" s="44" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="B738" s="43"/>
       <c r="C738" s="44"/>
     </row>
-    <row r="739" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A739" s="44" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="B739" s="43"/>
       <c r="C739" s="44"/>
     </row>
-    <row r="740" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A740" s="44" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="B740" s="43"/>
       <c r="C740" s="44"/>
     </row>
-    <row r="742" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A742" s="44" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="B742" s="43"/>
       <c r="C742" s="44"/>
     </row>
-    <row r="743" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A743" s="44" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="B743" s="43"/>
       <c r="C743" s="44"/>
     </row>
-    <row r="744" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A744" s="44" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="B744" s="43"/>
       <c r="C744" s="44"/>
     </row>
-    <row r="745" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A745" s="44" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="B745" s="43"/>
       <c r="C745" s="44"/>
     </row>
-    <row r="746" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A746" s="44" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="B746" s="43"/>
       <c r="C746" s="44"/>
     </row>
-    <row r="747" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A747" s="44"/>
       <c r="B747" s="43"/>
       <c r="C747" s="44"/>
     </row>
-    <row r="748" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A748" s="44" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="B748" s="43"/>
       <c r="C748" s="44"/>
     </row>
-    <row r="749" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A749" s="44" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="B749" s="43"/>
       <c r="C749" s="44"/>
     </row>
-    <row r="750" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A750" s="44" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="B750" s="43"/>
       <c r="C750" s="44"/>
     </row>
-    <row r="751" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A751" s="44" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="B751" s="43"/>
       <c r="C751" s="44"/>
     </row>
-    <row r="752" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A752" s="44" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="B752" s="43"/>
       <c r="C752" s="44"/>
     </row>
-    <row r="753" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A753" s="44" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="B753" s="43"/>
       <c r="C753" s="44"/>
     </row>
-    <row r="754" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A754" s="44" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="B754" s="43"/>
       <c r="C754" s="44"/>
     </row>
-    <row r="755" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A755" s="44" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="B755" s="43"/>
       <c r="C755" s="44"/>
     </row>
-    <row r="756" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A756" s="44" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="B756" s="43"/>
       <c r="C756" s="44"/>
     </row>
-    <row r="757" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A757" s="44"/>
       <c r="B757" s="43"/>
       <c r="C757" s="44"/>
     </row>
-    <row r="758" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A758" s="44" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="B758" s="43"/>
       <c r="C758" s="44"/>
     </row>
-    <row r="759" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A759" s="44" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="B759" s="43"/>
       <c r="C759" s="44"/>
     </row>
-    <row r="760" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A760" s="44" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="B760" s="43"/>
       <c r="C760" s="44"/>
     </row>
-    <row r="761" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A761" s="44" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="B761" s="43"/>
       <c r="C761" s="44"/>
     </row>
-    <row r="762" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A762" s="44" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="B762" s="43"/>
       <c r="C762" s="44"/>
     </row>
-    <row r="763" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A763" s="44" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="B763" s="43"/>
       <c r="C763" s="44"/>
     </row>
-    <row r="764" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A764" s="44" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="B764" s="43"/>
       <c r="C764" s="44"/>
     </row>
-    <row r="765" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A765" s="44" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="B765" s="43"/>
       <c r="C765" s="44"/>
     </row>
-    <row r="766" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A766" s="44" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="B766" s="43"/>
       <c r="C766" s="44"/>
     </row>
-    <row r="767" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A767" s="44" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="B767" s="43"/>
       <c r="C767" s="44"/>
     </row>
-    <row r="768" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A768" s="44" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="B768" s="43"/>
       <c r="C768" s="44"/>
     </row>
-    <row r="769" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A769" s="44" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="B769" s="43"/>
       <c r="C769" s="44"/>
     </row>
-    <row r="770" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A770" s="44" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="B770" s="43"/>
       <c r="C770" s="44"/>
     </row>
-    <row r="771" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A771" s="44" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="B771" s="43"/>
       <c r="C771" s="44"/>
     </row>
-    <row r="772" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A772" s="44" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="B772" s="43"/>
       <c r="C772" s="44"/>
     </row>
-    <row r="773" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A773" s="44" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="B773" s="43"/>
       <c r="C773" s="44"/>
     </row>
-    <row r="774" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A774" s="44"/>
       <c r="B774" s="43"/>
       <c r="C774" s="44"/>
     </row>
-    <row r="775" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A775" s="44" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="B775" s="43"/>
       <c r="C775" s="44"/>
     </row>
-    <row r="776" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A776" s="44" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="B776" s="43"/>
       <c r="C776" s="44"/>
     </row>
-    <row r="777" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A777" s="44" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="B777" s="43"/>
       <c r="C777" s="44"/>
     </row>
-    <row r="778" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A778" s="44" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="B778" s="43"/>
       <c r="C778" s="44"/>
     </row>
-    <row r="779" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A779" s="44" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="B779" s="43"/>
       <c r="C779" s="44"/>
     </row>
-    <row r="780" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A780" s="44" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="B780" s="43"/>
       <c r="C780" s="44"/>
     </row>
-    <row r="781" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A781" s="44" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="B781" s="43"/>
       <c r="C781" s="44"/>
     </row>
-    <row r="782" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A782" s="44" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="B782" s="43"/>
       <c r="C782" s="44"/>
     </row>
-    <row r="783" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A783" s="44" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="B783" s="43"/>
       <c r="C783" s="44"/>
     </row>
-    <row r="784" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A784" s="44" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="B784" s="43"/>
       <c r="C784" s="44"/>
     </row>
-    <row r="785" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A785" s="44" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="B785" s="43"/>
       <c r="C785" s="44"/>
     </row>
-    <row r="786" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A786" s="44" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="B786" s="43"/>
       <c r="C786" s="44"/>
     </row>
-    <row r="787" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A787" s="44" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="B787" s="43"/>
       <c r="C787" s="44"/>
     </row>
-    <row r="788" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A788" s="44" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="B788" s="43"/>
       <c r="C788" s="44"/>
     </row>
-    <row r="789" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A789" s="44" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="B789" s="43"/>
       <c r="C789" s="44"/>
     </row>
-    <row r="790" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A790" s="44" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="B790" s="43"/>
       <c r="C790" s="44"/>
     </row>
-    <row r="791" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A791" s="44" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="B791" s="43"/>
       <c r="C791" s="44"/>
     </row>
-    <row r="792" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A792" s="44" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="B792" s="43"/>
       <c r="C792" s="44"/>
     </row>
-    <row r="793" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A793" s="44" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="B793" s="43"/>
       <c r="C793" s="44"/>
     </row>
-    <row r="794" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A794" s="44" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="B794" s="43"/>
       <c r="C794" s="44"/>
     </row>
-    <row r="795" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A795" s="44" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="B795" s="43"/>
       <c r="C795" s="44"/>
     </row>
-    <row r="796" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A796" s="44"/>
       <c r="B796" s="43"/>
       <c r="C796" s="44"/>
     </row>
-    <row r="797" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A797" s="44" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="B797" s="43"/>
       <c r="C797" s="44"/>
     </row>
-    <row r="798" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A798" s="44" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="B798" s="43"/>
       <c r="C798" s="44"/>
     </row>
-    <row r="799" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A799" s="44"/>
       <c r="B799" s="43"/>
       <c r="C799" s="44"/>
     </row>
-    <row r="800" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A800" s="44" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="B800" s="43"/>
       <c r="C800" s="44"/>
     </row>
-    <row r="801" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A801" s="44" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="B801" s="43"/>
       <c r="C801" s="44"/>
     </row>
-    <row r="803" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A803" s="44" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="B803" s="43"/>
       <c r="C803" s="44"/>
@@ -8128,9 +8135,9 @@
       <c r="L803" s="43"/>
       <c r="M803" s="44"/>
     </row>
-    <row r="804" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A804" s="44" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="B804" s="43"/>
       <c r="C804" s="44"/>
@@ -8138,9 +8145,9 @@
       <c r="L804" s="43"/>
       <c r="M804" s="44"/>
     </row>
-    <row r="805" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A805" s="44" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="B805" s="43"/>
       <c r="C805" s="44"/>
@@ -8148,9 +8155,9 @@
       <c r="L805" s="43"/>
       <c r="M805" s="44"/>
     </row>
-    <row r="806" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A806" s="44" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="B806" s="43"/>
       <c r="C806" s="44"/>
@@ -8158,9 +8165,9 @@
       <c r="L806" s="43"/>
       <c r="M806" s="44"/>
     </row>
-    <row r="807" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A807" s="44" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="B807" s="43"/>
       <c r="C807" s="44"/>
@@ -8168,9 +8175,9 @@
       <c r="L807" s="43"/>
       <c r="M807" s="44"/>
     </row>
-    <row r="808" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A808" s="44" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="B808" s="43"/>
       <c r="C808" s="44"/>
@@ -8178,9 +8185,9 @@
       <c r="L808" s="43"/>
       <c r="M808" s="44"/>
     </row>
-    <row r="809" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A809" s="44" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="B809" s="43"/>
       <c r="C809" s="44"/>
@@ -8188,9 +8195,9 @@
       <c r="L809" s="43"/>
       <c r="M809" s="44"/>
     </row>
-    <row r="810" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A810" s="44" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="B810" s="43"/>
       <c r="C810" s="44"/>
@@ -8198,9 +8205,9 @@
       <c r="L810" s="43"/>
       <c r="M810" s="44"/>
     </row>
-    <row r="811" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A811" s="44" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="B811" s="43"/>
       <c r="C811" s="44"/>
@@ -8208,9 +8215,9 @@
       <c r="L811" s="43"/>
       <c r="M811" s="44"/>
     </row>
-    <row r="812" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A812" s="44" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="B812" s="43"/>
       <c r="C812" s="44"/>
@@ -8218,196 +8225,196 @@
       <c r="L812" s="43"/>
       <c r="M812" s="44"/>
     </row>
-    <row r="814" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A814" s="41" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="B814" s="43"/>
       <c r="C814" s="44"/>
     </row>
-    <row r="815" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A815" s="41" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="B815" s="43"/>
       <c r="C815" s="44"/>
     </row>
-    <row r="816" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A816" s="41" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="B816" s="43"/>
       <c r="C816" s="44"/>
     </row>
-    <row r="817" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A817" s="41" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="B817" s="43"/>
       <c r="C817" s="44"/>
     </row>
-    <row r="818" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A818" s="41" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="B818" s="43"/>
       <c r="C818" s="44"/>
     </row>
-    <row r="819" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A819" s="41" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="B819" s="43"/>
       <c r="C819" s="44"/>
     </row>
-    <row r="820" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A820" s="41" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="B820" s="43"/>
       <c r="C820" s="44"/>
     </row>
-    <row r="822" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A822" s="44" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="B822" s="43"/>
       <c r="C822" s="44"/>
     </row>
-    <row r="823" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A823" s="44" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="B823" s="43"/>
       <c r="C823" s="44"/>
     </row>
-    <row r="824" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A824" s="44" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="B824" s="43"/>
       <c r="C824" s="44"/>
     </row>
-    <row r="825" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A825" s="44" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="B825" s="43"/>
       <c r="C825" s="44"/>
     </row>
-    <row r="826" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A826" s="44" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="B826" s="43"/>
       <c r="C826" s="44"/>
     </row>
-    <row r="828" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A828" s="41" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="B828" s="43"/>
       <c r="C828" s="46"/>
     </row>
-    <row r="829" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A829" s="41" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="B829" s="43"/>
       <c r="C829" s="44"/>
     </row>
-    <row r="830" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A830" s="41" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="B830" s="43"/>
       <c r="C830" s="44"/>
     </row>
-    <row r="831" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A831" s="41" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="B831" s="43"/>
       <c r="C831" s="44"/>
     </row>
-    <row r="832" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A832" s="41" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="B832" s="43"/>
       <c r="C832" s="44"/>
     </row>
-    <row r="833" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A833" s="41" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="B833" s="43"/>
       <c r="C833" s="44"/>
     </row>
-    <row r="834" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A834" s="41" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="B834" s="43"/>
       <c r="C834" s="44"/>
     </row>
-    <row r="835" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A835" s="44" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="B835" s="43"/>
       <c r="C835" s="44"/>
     </row>
-    <row r="837" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A837" s="41" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="B837" s="43"/>
       <c r="C837" s="46"/>
     </row>
-    <row r="838" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A838" s="41" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="B838" s="43"/>
       <c r="C838" s="44"/>
     </row>
-    <row r="839" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A839" s="41" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="B839" s="43"/>
       <c r="C839" s="44"/>
     </row>
-    <row r="840" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A840" s="41" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="B840" s="43"/>
       <c r="C840" s="44"/>
     </row>
-    <row r="842" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A842" s="44" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="B842" s="43"/>
       <c r="C842" s="44"/>
     </row>
-    <row r="843" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A843" s="44" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="B843" s="43"/>
       <c r="C843" s="44"/>
     </row>
-    <row r="845" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A845" s="56" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="846" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A846" s="56" t="s">
-        <v>230</v>
+    <row r="845" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A845" s="55" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="846" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A846" s="55" t="s">
+        <v>223</v>
       </c>
     </row>
   </sheetData>
@@ -8420,21 +8427,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="45.375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="45.3984375" style="3" customWidth="1"/>
     <col min="2" max="2" width="36.5" style="3" customWidth="1"/>
-    <col min="3" max="3" width="15.875" style="14" customWidth="1"/>
-    <col min="4" max="4" width="50.875" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.8984375" style="14" customWidth="1"/>
+    <col min="4" max="4" width="20.09765625" style="14" customWidth="1"/>
     <col min="5" max="5" width="39.5" style="3" customWidth="1"/>
     <col min="6" max="16384" width="11" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>18</v>
       </c>
@@ -8445,25 +8452,25 @@
         <v>49</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
       <c r="C2" s="47">
-        <v>2023316</v>
-      </c>
-      <c r="D2" s="48"/>
-      <c r="E2" s="64" t="s">
-        <v>237</v>
+        <v>202375</v>
+      </c>
+      <c r="D2" s="69"/>
+      <c r="E2" s="61" t="s">
+        <v>229</v>
       </c>
     </row>
   </sheetData>
